--- a/avk_resume/AVK_DevOps_Plan1.xlsx
+++ b/avk_resume/AVK_DevOps_Plan1.xlsx
@@ -3340,7 +3340,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3493,6 +3493,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -12288,7 +12297,7 @@
   <dimension ref="A1:L84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32:K33"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12619,16 +12628,16 @@
       <c r="G10" s="8">
         <v>9</v>
       </c>
-      <c r="H10" s="28">
+      <c r="H10" s="63">
         <v>44609</v>
       </c>
-      <c r="I10" s="28" t="s">
+      <c r="I10" s="63" t="s">
         <v>688</v>
       </c>
-      <c r="J10" s="31">
+      <c r="J10" s="64">
         <v>3</v>
       </c>
-      <c r="K10" s="15" t="s">
+      <c r="K10" s="65" t="s">
         <v>972</v>
       </c>
       <c r="L10" s="15" t="s">

--- a/avk_resume/AVK_DevOps_Plan1.xlsx
+++ b/avk_resume/AVK_DevOps_Plan1.xlsx
@@ -220,7 +220,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1734" uniqueCount="973">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1734" uniqueCount="976">
   <si>
     <t>LINUX</t>
   </si>
@@ -3139,6 +3139,15 @@
   </si>
   <si>
     <t>DPT PROJECT Listen</t>
+  </si>
+  <si>
+    <t>DPT PROJECT Completed, DCC Project Started But need to check one more time.</t>
+  </si>
+  <si>
+    <t>UDEMY AR SHANKAR CI/CD PROJECT, Prepare fake Resume</t>
+  </si>
+  <si>
+    <t>Upload fake Resume, DB-N</t>
   </si>
 </sst>
 </file>
@@ -3340,7 +3349,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3473,6 +3482,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3494,14 +3512,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4683,10 +4698,10 @@
       <c r="B1" s="8" t="s">
         <v>942</v>
       </c>
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="64" t="s">
         <v>674</v>
       </c>
-      <c r="E1" s="61"/>
+      <c r="E1" s="64"/>
       <c r="F1" s="15" t="s">
         <v>694</v>
       </c>
@@ -7505,7 +7520,7 @@
       <c r="B2" s="12" t="s">
         <v>554</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="59" t="s">
         <v>744</v>
       </c>
       <c r="D2" s="36"/>
@@ -7535,7 +7550,7 @@
       <c r="B3" s="12" t="s">
         <v>555</v>
       </c>
-      <c r="C3" s="57"/>
+      <c r="C3" s="60"/>
       <c r="D3" s="38"/>
       <c r="E3" s="12" t="s">
         <v>747</v>
@@ -7563,7 +7578,7 @@
       <c r="B4" s="12" t="s">
         <v>549</v>
       </c>
-      <c r="C4" s="57"/>
+      <c r="C4" s="60"/>
       <c r="D4" s="38"/>
       <c r="E4" s="12" t="s">
         <v>749</v>
@@ -7621,7 +7636,7 @@
       <c r="B6" s="20" t="s">
         <v>551</v>
       </c>
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="61" t="s">
         <v>753</v>
       </c>
       <c r="D6" s="42"/>
@@ -7651,7 +7666,7 @@
       <c r="B7" s="20" t="s">
         <v>552</v>
       </c>
-      <c r="C7" s="58"/>
+      <c r="C7" s="61"/>
       <c r="D7" s="42"/>
       <c r="E7" s="20" t="s">
         <v>756</v>
@@ -7679,7 +7694,7 @@
       <c r="B8" s="8" t="s">
         <v>553</v>
       </c>
-      <c r="C8" s="58"/>
+      <c r="C8" s="61"/>
       <c r="D8" s="43" t="s">
         <v>742</v>
       </c>
@@ -7709,7 +7724,7 @@
       <c r="B9" s="8" t="s">
         <v>554</v>
       </c>
-      <c r="C9" s="58"/>
+      <c r="C9" s="61"/>
       <c r="D9" s="43" t="s">
         <v>742</v>
       </c>
@@ -7739,7 +7754,7 @@
       <c r="B10" s="8" t="s">
         <v>555</v>
       </c>
-      <c r="C10" s="58"/>
+      <c r="C10" s="61"/>
       <c r="D10" s="43" t="s">
         <v>742</v>
       </c>
@@ -7769,7 +7784,7 @@
       <c r="B11" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="C11" s="58"/>
+      <c r="C11" s="61"/>
       <c r="D11" s="43" t="s">
         <v>742</v>
       </c>
@@ -7799,7 +7814,7 @@
       <c r="B12" s="8" t="s">
         <v>550</v>
       </c>
-      <c r="C12" s="58"/>
+      <c r="C12" s="61"/>
       <c r="D12" s="43" t="s">
         <v>742</v>
       </c>
@@ -7829,7 +7844,7 @@
       <c r="B13" s="8" t="s">
         <v>551</v>
       </c>
-      <c r="C13" s="58"/>
+      <c r="C13" s="61"/>
       <c r="D13" s="43" t="s">
         <v>742</v>
       </c>
@@ -7859,7 +7874,7 @@
       <c r="B14" s="8" t="s">
         <v>552</v>
       </c>
-      <c r="C14" s="58"/>
+      <c r="C14" s="61"/>
       <c r="D14" s="43" t="s">
         <v>742</v>
       </c>
@@ -7889,7 +7904,7 @@
       <c r="B15" s="8" t="s">
         <v>553</v>
       </c>
-      <c r="C15" s="58"/>
+      <c r="C15" s="61"/>
       <c r="D15" s="43" t="s">
         <v>742</v>
       </c>
@@ -7919,7 +7934,7 @@
       <c r="B16" s="8" t="s">
         <v>554</v>
       </c>
-      <c r="C16" s="58"/>
+      <c r="C16" s="61"/>
       <c r="D16" s="43" t="s">
         <v>742</v>
       </c>
@@ -7949,7 +7964,7 @@
       <c r="B17" s="8" t="s">
         <v>555</v>
       </c>
-      <c r="C17" s="58"/>
+      <c r="C17" s="61"/>
       <c r="D17" s="43" t="s">
         <v>742</v>
       </c>
@@ -7979,7 +7994,7 @@
       <c r="B18" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="C18" s="58"/>
+      <c r="C18" s="61"/>
       <c r="D18" s="43" t="s">
         <v>742</v>
       </c>
@@ -8009,7 +8024,7 @@
       <c r="B19" s="8" t="s">
         <v>550</v>
       </c>
-      <c r="C19" s="58"/>
+      <c r="C19" s="61"/>
       <c r="D19" s="43" t="s">
         <v>742</v>
       </c>
@@ -8039,7 +8054,7 @@
       <c r="B20" s="8" t="s">
         <v>551</v>
       </c>
-      <c r="C20" s="58"/>
+      <c r="C20" s="61"/>
       <c r="D20" s="43" t="s">
         <v>742</v>
       </c>
@@ -8063,7 +8078,7 @@
       <c r="B21" s="8" t="s">
         <v>552</v>
       </c>
-      <c r="C21" s="58"/>
+      <c r="C21" s="61"/>
       <c r="D21" s="43" t="s">
         <v>742</v>
       </c>
@@ -8087,7 +8102,7 @@
       <c r="B22" s="8" t="s">
         <v>553</v>
       </c>
-      <c r="C22" s="58"/>
+      <c r="C22" s="61"/>
       <c r="D22" s="43" t="s">
         <v>742</v>
       </c>
@@ -8111,7 +8126,7 @@
       <c r="B23" s="8" t="s">
         <v>554</v>
       </c>
-      <c r="C23" s="58"/>
+      <c r="C23" s="61"/>
       <c r="D23" s="43" t="s">
         <v>742</v>
       </c>
@@ -8135,7 +8150,7 @@
       <c r="B24" s="8" t="s">
         <v>555</v>
       </c>
-      <c r="C24" s="58"/>
+      <c r="C24" s="61"/>
       <c r="D24" s="43" t="s">
         <v>742</v>
       </c>
@@ -8159,7 +8174,7 @@
       <c r="B25" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="C25" s="58"/>
+      <c r="C25" s="61"/>
       <c r="D25" s="43"/>
       <c r="E25" s="8" t="s">
         <v>784</v>
@@ -8181,7 +8196,7 @@
       <c r="B26" s="8" t="s">
         <v>550</v>
       </c>
-      <c r="C26" s="58"/>
+      <c r="C26" s="61"/>
       <c r="D26" s="43"/>
       <c r="E26" s="8" t="s">
         <v>785</v>
@@ -8196,7 +8211,7 @@
       <c r="B27" s="8" t="s">
         <v>551</v>
       </c>
-      <c r="C27" s="58"/>
+      <c r="C27" s="61"/>
       <c r="D27" s="43"/>
       <c r="E27" s="8" t="s">
         <v>786</v>
@@ -8211,7 +8226,7 @@
       <c r="B28" s="8" t="s">
         <v>552</v>
       </c>
-      <c r="C28" s="58"/>
+      <c r="C28" s="61"/>
       <c r="D28" s="43"/>
       <c r="E28" s="8" t="s">
         <v>787</v>
@@ -8226,7 +8241,7 @@
       <c r="B29" s="8" t="s">
         <v>553</v>
       </c>
-      <c r="C29" s="58"/>
+      <c r="C29" s="61"/>
       <c r="D29" s="43"/>
       <c r="E29" s="8" t="s">
         <v>788</v>
@@ -8241,7 +8256,7 @@
       <c r="B30" s="8" t="s">
         <v>554</v>
       </c>
-      <c r="C30" s="58"/>
+      <c r="C30" s="61"/>
       <c r="D30" s="43"/>
       <c r="E30" s="8" t="s">
         <v>789</v>
@@ -8256,7 +8271,7 @@
       <c r="B31" s="8" t="s">
         <v>555</v>
       </c>
-      <c r="C31" s="58"/>
+      <c r="C31" s="61"/>
       <c r="D31" s="43"/>
       <c r="E31" s="44" t="s">
         <v>790</v>
@@ -8271,7 +8286,7 @@
       <c r="B32" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="C32" s="59"/>
+      <c r="C32" s="62"/>
       <c r="D32" s="43"/>
       <c r="E32" s="8" t="s">
         <v>791</v>
@@ -8286,7 +8301,7 @@
       <c r="B33" s="8" t="s">
         <v>550</v>
       </c>
-      <c r="C33" s="60" t="s">
+      <c r="C33" s="63" t="s">
         <v>792</v>
       </c>
       <c r="D33" s="45" t="s">
@@ -8305,7 +8320,7 @@
       <c r="B34" s="8" t="s">
         <v>551</v>
       </c>
-      <c r="C34" s="58"/>
+      <c r="C34" s="61"/>
       <c r="D34" s="45" t="s">
         <v>793</v>
       </c>
@@ -8322,7 +8337,7 @@
       <c r="B35" s="8" t="s">
         <v>552</v>
       </c>
-      <c r="C35" s="58"/>
+      <c r="C35" s="61"/>
       <c r="D35" s="45" t="s">
         <v>793</v>
       </c>
@@ -8337,7 +8352,7 @@
       <c r="B36" s="8" t="s">
         <v>553</v>
       </c>
-      <c r="C36" s="58"/>
+      <c r="C36" s="61"/>
       <c r="D36" s="45" t="s">
         <v>793</v>
       </c>
@@ -8352,7 +8367,7 @@
       <c r="B37" s="8" t="s">
         <v>554</v>
       </c>
-      <c r="C37" s="59"/>
+      <c r="C37" s="62"/>
       <c r="D37" s="45" t="s">
         <v>793</v>
       </c>
@@ -12296,8 +12311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12315,19 +12330,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="64" t="s">
         <v>674</v>
       </c>
-      <c r="B1" s="61"/>
+      <c r="B1" s="64"/>
       <c r="C1" s="15" t="s">
         <v>694</v>
       </c>
       <c r="D1" s="8"/>
-      <c r="E1" s="62" t="s">
+      <c r="E1" s="65" t="s">
         <v>698</v>
       </c>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
       <c r="H1" s="27" t="s">
         <v>357</v>
       </c>
@@ -12628,16 +12643,16 @@
       <c r="G10" s="8">
         <v>9</v>
       </c>
-      <c r="H10" s="63">
+      <c r="H10" s="56">
         <v>44609</v>
       </c>
-      <c r="I10" s="63" t="s">
+      <c r="I10" s="56" t="s">
         <v>688</v>
       </c>
-      <c r="J10" s="64">
+      <c r="J10" s="57">
         <v>3</v>
       </c>
-      <c r="K10" s="65" t="s">
+      <c r="K10" s="58" t="s">
         <v>972</v>
       </c>
       <c r="L10" s="15" t="s">
@@ -12666,17 +12681,17 @@
       <c r="G11" s="8">
         <v>10</v>
       </c>
-      <c r="H11" s="28">
+      <c r="H11" s="66">
         <v>44610</v>
       </c>
-      <c r="I11" s="28" t="s">
+      <c r="I11" s="66" t="s">
         <v>689</v>
       </c>
-      <c r="J11" s="31">
+      <c r="J11" s="67">
         <v>4</v>
       </c>
-      <c r="K11" s="15" t="s">
-        <v>39</v>
+      <c r="K11" s="21" t="s">
+        <v>973</v>
       </c>
       <c r="L11" s="15" t="s">
         <v>708</v>
@@ -12712,7 +12727,7 @@
         <v>5</v>
       </c>
       <c r="K12" s="15" t="s">
-        <v>39</v>
+        <v>974</v>
       </c>
       <c r="L12" s="15" t="s">
         <v>709</v>
@@ -12744,7 +12759,7 @@
         <v>6</v>
       </c>
       <c r="K13" s="15" t="s">
-        <v>39</v>
+        <v>495</v>
       </c>
       <c r="L13" s="15" t="s">
         <v>710</v>
@@ -12774,7 +12789,7 @@
         <v>7</v>
       </c>
       <c r="K14" s="15" t="s">
-        <v>495</v>
+        <v>975</v>
       </c>
       <c r="L14" s="15" t="s">
         <v>711</v>

--- a/avk_resume/AVK_DevOps_Plan1.xlsx
+++ b/avk_resume/AVK_DevOps_Plan1.xlsx
@@ -220,7 +220,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1734" uniqueCount="976">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="981">
   <si>
     <t>LINUX</t>
   </si>
@@ -3148,6 +3148,21 @@
   </si>
   <si>
     <t>Upload fake Resume, DB-N</t>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
+    <t>Job</t>
+  </si>
+  <si>
+    <t>Gap</t>
+  </si>
+  <si>
+    <t>BTECH</t>
+  </si>
+  <si>
+    <t>In</t>
   </si>
 </sst>
 </file>
@@ -3491,6 +3506,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3510,12 +3531,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4698,10 +4713,10 @@
       <c r="B1" s="8" t="s">
         <v>942</v>
       </c>
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="66" t="s">
         <v>674</v>
       </c>
-      <c r="E1" s="64"/>
+      <c r="E1" s="66"/>
       <c r="F1" s="15" t="s">
         <v>694</v>
       </c>
@@ -7520,7 +7535,7 @@
       <c r="B2" s="12" t="s">
         <v>554</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="61" t="s">
         <v>744</v>
       </c>
       <c r="D2" s="36"/>
@@ -7550,7 +7565,7 @@
       <c r="B3" s="12" t="s">
         <v>555</v>
       </c>
-      <c r="C3" s="60"/>
+      <c r="C3" s="62"/>
       <c r="D3" s="38"/>
       <c r="E3" s="12" t="s">
         <v>747</v>
@@ -7578,7 +7593,7 @@
       <c r="B4" s="12" t="s">
         <v>549</v>
       </c>
-      <c r="C4" s="60"/>
+      <c r="C4" s="62"/>
       <c r="D4" s="38"/>
       <c r="E4" s="12" t="s">
         <v>749</v>
@@ -7636,7 +7651,7 @@
       <c r="B6" s="20" t="s">
         <v>551</v>
       </c>
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="63" t="s">
         <v>753</v>
       </c>
       <c r="D6" s="42"/>
@@ -7666,7 +7681,7 @@
       <c r="B7" s="20" t="s">
         <v>552</v>
       </c>
-      <c r="C7" s="61"/>
+      <c r="C7" s="63"/>
       <c r="D7" s="42"/>
       <c r="E7" s="20" t="s">
         <v>756</v>
@@ -7694,7 +7709,7 @@
       <c r="B8" s="8" t="s">
         <v>553</v>
       </c>
-      <c r="C8" s="61"/>
+      <c r="C8" s="63"/>
       <c r="D8" s="43" t="s">
         <v>742</v>
       </c>
@@ -7724,7 +7739,7 @@
       <c r="B9" s="8" t="s">
         <v>554</v>
       </c>
-      <c r="C9" s="61"/>
+      <c r="C9" s="63"/>
       <c r="D9" s="43" t="s">
         <v>742</v>
       </c>
@@ -7754,7 +7769,7 @@
       <c r="B10" s="8" t="s">
         <v>555</v>
       </c>
-      <c r="C10" s="61"/>
+      <c r="C10" s="63"/>
       <c r="D10" s="43" t="s">
         <v>742</v>
       </c>
@@ -7784,7 +7799,7 @@
       <c r="B11" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="C11" s="61"/>
+      <c r="C11" s="63"/>
       <c r="D11" s="43" t="s">
         <v>742</v>
       </c>
@@ -7814,7 +7829,7 @@
       <c r="B12" s="8" t="s">
         <v>550</v>
       </c>
-      <c r="C12" s="61"/>
+      <c r="C12" s="63"/>
       <c r="D12" s="43" t="s">
         <v>742</v>
       </c>
@@ -7844,7 +7859,7 @@
       <c r="B13" s="8" t="s">
         <v>551</v>
       </c>
-      <c r="C13" s="61"/>
+      <c r="C13" s="63"/>
       <c r="D13" s="43" t="s">
         <v>742</v>
       </c>
@@ -7874,7 +7889,7 @@
       <c r="B14" s="8" t="s">
         <v>552</v>
       </c>
-      <c r="C14" s="61"/>
+      <c r="C14" s="63"/>
       <c r="D14" s="43" t="s">
         <v>742</v>
       </c>
@@ -7904,7 +7919,7 @@
       <c r="B15" s="8" t="s">
         <v>553</v>
       </c>
-      <c r="C15" s="61"/>
+      <c r="C15" s="63"/>
       <c r="D15" s="43" t="s">
         <v>742</v>
       </c>
@@ -7934,7 +7949,7 @@
       <c r="B16" s="8" t="s">
         <v>554</v>
       </c>
-      <c r="C16" s="61"/>
+      <c r="C16" s="63"/>
       <c r="D16" s="43" t="s">
         <v>742</v>
       </c>
@@ -7964,7 +7979,7 @@
       <c r="B17" s="8" t="s">
         <v>555</v>
       </c>
-      <c r="C17" s="61"/>
+      <c r="C17" s="63"/>
       <c r="D17" s="43" t="s">
         <v>742</v>
       </c>
@@ -7994,7 +8009,7 @@
       <c r="B18" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="C18" s="61"/>
+      <c r="C18" s="63"/>
       <c r="D18" s="43" t="s">
         <v>742</v>
       </c>
@@ -8024,7 +8039,7 @@
       <c r="B19" s="8" t="s">
         <v>550</v>
       </c>
-      <c r="C19" s="61"/>
+      <c r="C19" s="63"/>
       <c r="D19" s="43" t="s">
         <v>742</v>
       </c>
@@ -8054,7 +8069,7 @@
       <c r="B20" s="8" t="s">
         <v>551</v>
       </c>
-      <c r="C20" s="61"/>
+      <c r="C20" s="63"/>
       <c r="D20" s="43" t="s">
         <v>742</v>
       </c>
@@ -8078,7 +8093,7 @@
       <c r="B21" s="8" t="s">
         <v>552</v>
       </c>
-      <c r="C21" s="61"/>
+      <c r="C21" s="63"/>
       <c r="D21" s="43" t="s">
         <v>742</v>
       </c>
@@ -8102,7 +8117,7 @@
       <c r="B22" s="8" t="s">
         <v>553</v>
       </c>
-      <c r="C22" s="61"/>
+      <c r="C22" s="63"/>
       <c r="D22" s="43" t="s">
         <v>742</v>
       </c>
@@ -8126,7 +8141,7 @@
       <c r="B23" s="8" t="s">
         <v>554</v>
       </c>
-      <c r="C23" s="61"/>
+      <c r="C23" s="63"/>
       <c r="D23" s="43" t="s">
         <v>742</v>
       </c>
@@ -8150,7 +8165,7 @@
       <c r="B24" s="8" t="s">
         <v>555</v>
       </c>
-      <c r="C24" s="61"/>
+      <c r="C24" s="63"/>
       <c r="D24" s="43" t="s">
         <v>742</v>
       </c>
@@ -8174,7 +8189,7 @@
       <c r="B25" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="C25" s="61"/>
+      <c r="C25" s="63"/>
       <c r="D25" s="43"/>
       <c r="E25" s="8" t="s">
         <v>784</v>
@@ -8196,7 +8211,7 @@
       <c r="B26" s="8" t="s">
         <v>550</v>
       </c>
-      <c r="C26" s="61"/>
+      <c r="C26" s="63"/>
       <c r="D26" s="43"/>
       <c r="E26" s="8" t="s">
         <v>785</v>
@@ -8211,7 +8226,7 @@
       <c r="B27" s="8" t="s">
         <v>551</v>
       </c>
-      <c r="C27" s="61"/>
+      <c r="C27" s="63"/>
       <c r="D27" s="43"/>
       <c r="E27" s="8" t="s">
         <v>786</v>
@@ -8226,7 +8241,7 @@
       <c r="B28" s="8" t="s">
         <v>552</v>
       </c>
-      <c r="C28" s="61"/>
+      <c r="C28" s="63"/>
       <c r="D28" s="43"/>
       <c r="E28" s="8" t="s">
         <v>787</v>
@@ -8241,7 +8256,7 @@
       <c r="B29" s="8" t="s">
         <v>553</v>
       </c>
-      <c r="C29" s="61"/>
+      <c r="C29" s="63"/>
       <c r="D29" s="43"/>
       <c r="E29" s="8" t="s">
         <v>788</v>
@@ -8256,7 +8271,7 @@
       <c r="B30" s="8" t="s">
         <v>554</v>
       </c>
-      <c r="C30" s="61"/>
+      <c r="C30" s="63"/>
       <c r="D30" s="43"/>
       <c r="E30" s="8" t="s">
         <v>789</v>
@@ -8271,7 +8286,7 @@
       <c r="B31" s="8" t="s">
         <v>555</v>
       </c>
-      <c r="C31" s="61"/>
+      <c r="C31" s="63"/>
       <c r="D31" s="43"/>
       <c r="E31" s="44" t="s">
         <v>790</v>
@@ -8286,7 +8301,7 @@
       <c r="B32" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="C32" s="62"/>
+      <c r="C32" s="64"/>
       <c r="D32" s="43"/>
       <c r="E32" s="8" t="s">
         <v>791</v>
@@ -8301,7 +8316,7 @@
       <c r="B33" s="8" t="s">
         <v>550</v>
       </c>
-      <c r="C33" s="63" t="s">
+      <c r="C33" s="65" t="s">
         <v>792</v>
       </c>
       <c r="D33" s="45" t="s">
@@ -8320,7 +8335,7 @@
       <c r="B34" s="8" t="s">
         <v>551</v>
       </c>
-      <c r="C34" s="61"/>
+      <c r="C34" s="63"/>
       <c r="D34" s="45" t="s">
         <v>793</v>
       </c>
@@ -8337,7 +8352,7 @@
       <c r="B35" s="8" t="s">
         <v>552</v>
       </c>
-      <c r="C35" s="61"/>
+      <c r="C35" s="63"/>
       <c r="D35" s="45" t="s">
         <v>793</v>
       </c>
@@ -8352,7 +8367,7 @@
       <c r="B36" s="8" t="s">
         <v>553</v>
       </c>
-      <c r="C36" s="61"/>
+      <c r="C36" s="63"/>
       <c r="D36" s="45" t="s">
         <v>793</v>
       </c>
@@ -8367,7 +8382,7 @@
       <c r="B37" s="8" t="s">
         <v>554</v>
       </c>
-      <c r="C37" s="62"/>
+      <c r="C37" s="64"/>
       <c r="D37" s="45" t="s">
         <v>793</v>
       </c>
@@ -8449,11 +8464,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E71"/>
+  <dimension ref="A1:I71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E45" sqref="E45"/>
+      <selection pane="bottomLeft" activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8680,7 +8695,7 @@
       </c>
       <c r="E16" s="8"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="27">
         <v>15</v>
       </c>
@@ -8695,7 +8710,7 @@
       </c>
       <c r="E17" s="8"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="27">
         <v>16</v>
       </c>
@@ -8708,7 +8723,7 @@
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="27">
         <v>17</v>
       </c>
@@ -8723,7 +8738,7 @@
       </c>
       <c r="E19" s="8"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="27"/>
       <c r="B20" s="8"/>
       <c r="C20" s="15" t="s">
@@ -8734,7 +8749,7 @@
       </c>
       <c r="E20" s="8"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="27"/>
       <c r="B21" s="8"/>
       <c r="C21" s="15" t="s">
@@ -8743,7 +8758,7 @@
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="27">
         <v>18</v>
       </c>
@@ -8758,7 +8773,7 @@
       </c>
       <c r="E22" s="8"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="27"/>
       <c r="B23" s="8"/>
       <c r="C23" s="15" t="s">
@@ -8767,7 +8782,7 @@
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="27">
         <v>19</v>
       </c>
@@ -8782,7 +8797,7 @@
       </c>
       <c r="E24" s="8"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="27">
         <v>20</v>
       </c>
@@ -8797,7 +8812,7 @@
       </c>
       <c r="E25" s="8"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="27">
         <v>21</v>
       </c>
@@ -8812,7 +8827,7 @@
       </c>
       <c r="E26" s="8"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="27">
         <v>22</v>
       </c>
@@ -8827,7 +8842,7 @@
       </c>
       <c r="E27" s="8"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="27">
         <v>23</v>
       </c>
@@ -8842,7 +8857,7 @@
       </c>
       <c r="E28" s="8"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="27">
         <v>24</v>
       </c>
@@ -8857,7 +8872,7 @@
       </c>
       <c r="E29" s="8"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="27">
         <v>25</v>
       </c>
@@ -8871,8 +8886,11 @@
         <v>867</v>
       </c>
       <c r="E30" s="8"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H30">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="27">
         <v>26</v>
       </c>
@@ -8886,8 +8904,14 @@
         <v>870</v>
       </c>
       <c r="E31" s="8"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H31">
+        <v>2005</v>
+      </c>
+      <c r="I31" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="27">
         <v>27</v>
       </c>
@@ -8899,8 +8923,11 @@
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H32">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="27"/>
       <c r="B33" s="8" t="s">
         <v>873</v>
@@ -8910,8 +8937,14 @@
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H33">
+        <v>2007</v>
+      </c>
+      <c r="I33" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="27"/>
       <c r="B34" s="8" t="s">
         <v>875</v>
@@ -8921,8 +8954,14 @@
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H34">
+        <v>2008</v>
+      </c>
+      <c r="I34" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="27">
         <v>28</v>
       </c>
@@ -8934,8 +8973,14 @@
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H35">
+        <v>2009</v>
+      </c>
+      <c r="I35" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="27">
         <v>29</v>
       </c>
@@ -8949,8 +8994,14 @@
         <v>881</v>
       </c>
       <c r="E36" s="8"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H36">
+        <v>2010</v>
+      </c>
+      <c r="I36" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="27">
         <v>30</v>
       </c>
@@ -8964,8 +9015,14 @@
         <v>883</v>
       </c>
       <c r="E37" s="8"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H37">
+        <v>2011</v>
+      </c>
+      <c r="I37" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="27"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -8973,8 +9030,17 @@
         <v>884</v>
       </c>
       <c r="E38" s="8"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G38" t="s">
+        <v>976</v>
+      </c>
+      <c r="H38">
+        <v>2012</v>
+      </c>
+      <c r="I38" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="27">
         <v>31</v>
       </c>
@@ -8989,7 +9055,7 @@
       </c>
       <c r="E39" s="8"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="27">
         <v>32</v>
       </c>
@@ -9004,7 +9070,7 @@
       </c>
       <c r="E40" s="8"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="27">
         <v>33</v>
       </c>
@@ -9019,7 +9085,7 @@
       </c>
       <c r="E41" s="8"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="27">
         <v>34</v>
       </c>
@@ -9032,7 +9098,7 @@
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8" t="s">
@@ -9043,7 +9109,7 @@
       </c>
       <c r="E43" s="8"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8" t="s">
@@ -9054,7 +9120,7 @@
       </c>
       <c r="E44" s="8"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="27">
         <v>34</v>
       </c>
@@ -9067,7 +9133,7 @@
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="27">
         <v>35</v>
       </c>
@@ -9080,7 +9146,7 @@
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="27"/>
       <c r="B47" s="8" t="s">
         <v>902</v>
@@ -9091,7 +9157,7 @@
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="27">
         <v>36</v>
       </c>
@@ -12312,7 +12378,7 @@
   <dimension ref="A1:L84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12330,19 +12396,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="66" t="s">
         <v>674</v>
       </c>
-      <c r="B1" s="64"/>
+      <c r="B1" s="66"/>
       <c r="C1" s="15" t="s">
         <v>694</v>
       </c>
       <c r="D1" s="8"/>
-      <c r="E1" s="65" t="s">
+      <c r="E1" s="67" t="s">
         <v>698</v>
       </c>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
       <c r="H1" s="27" t="s">
         <v>357</v>
       </c>
@@ -12681,13 +12747,13 @@
       <c r="G11" s="8">
         <v>10</v>
       </c>
-      <c r="H11" s="66">
+      <c r="H11" s="59">
         <v>44610</v>
       </c>
-      <c r="I11" s="66" t="s">
+      <c r="I11" s="59" t="s">
         <v>689</v>
       </c>
-      <c r="J11" s="67">
+      <c r="J11" s="60">
         <v>4</v>
       </c>
       <c r="K11" s="21" t="s">
@@ -12726,7 +12792,7 @@
       <c r="J12" s="31">
         <v>5</v>
       </c>
-      <c r="K12" s="15" t="s">
+      <c r="K12" s="21" t="s">
         <v>974</v>
       </c>
       <c r="L12" s="15" t="s">

--- a/avk_resume/AVK_DevOps_Plan1.xlsx
+++ b/avk_resume/AVK_DevOps_Plan1.xlsx
@@ -220,7 +220,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="981">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1749" uniqueCount="987">
   <si>
     <t>LINUX</t>
   </si>
@@ -3111,9 +3111,6 @@
     <t>Valaxy Tech YT</t>
   </si>
   <si>
-    <t>DevOps4Solutions YT</t>
-  </si>
-  <si>
     <t>DevSecOps</t>
   </si>
   <si>
@@ -3163,6 +3160,27 @@
   </si>
   <si>
     <t>In</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>litre</t>
+  </si>
+  <si>
+    <t>Jobs Apply</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interview Questions Study - Free/56 DevOps Questions </t>
+  </si>
+  <si>
+    <t>Interview Questions Study - DevOps guy Questions</t>
+  </si>
+  <si>
+    <t>Interview Questions Study - Deekshit SN YT</t>
+  </si>
+  <si>
+    <t>Interview Questions Study - BT</t>
   </si>
 </sst>
 </file>
@@ -8908,7 +8926,7 @@
         <v>2005</v>
       </c>
       <c r="I31" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -8941,7 +8959,7 @@
         <v>2007</v>
       </c>
       <c r="I33" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -8958,7 +8976,7 @@
         <v>2008</v>
       </c>
       <c r="I34" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -8977,7 +8995,7 @@
         <v>2009</v>
       </c>
       <c r="I35" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -8998,7 +9016,7 @@
         <v>2010</v>
       </c>
       <c r="I36" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -9019,7 +9037,7 @@
         <v>2011</v>
       </c>
       <c r="I37" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -9031,13 +9049,13 @@
       </c>
       <c r="E38" s="8"/>
       <c r="G38" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H38">
         <v>2012</v>
       </c>
       <c r="I38" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -12377,8 +12395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13:K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12484,6 +12502,9 @@
       <c r="I3" s="30" t="s">
         <v>688</v>
       </c>
+      <c r="J3" s="25" t="s">
+        <v>980</v>
+      </c>
       <c r="K3" s="32"/>
       <c r="L3" s="15" t="s">
         <v>700</v>
@@ -12517,6 +12538,9 @@
       <c r="I4" s="30" t="s">
         <v>689</v>
       </c>
+      <c r="J4" s="25" t="s">
+        <v>980</v>
+      </c>
       <c r="K4" s="32"/>
       <c r="L4" s="15" t="s">
         <v>701</v>
@@ -12612,6 +12636,9 @@
       <c r="I7" s="30" t="s">
         <v>692</v>
       </c>
+      <c r="J7" s="25" t="s">
+        <v>981</v>
+      </c>
       <c r="K7" s="32"/>
       <c r="L7" s="15" t="s">
         <v>704</v>
@@ -12679,8 +12706,8 @@
       <c r="I9" s="28" t="s">
         <v>687</v>
       </c>
-      <c r="J9" s="31">
-        <v>2</v>
+      <c r="J9" s="31" t="s">
+        <v>980</v>
       </c>
       <c r="K9" s="15"/>
       <c r="L9" s="15" t="s">
@@ -12715,11 +12742,11 @@
       <c r="I10" s="56" t="s">
         <v>688</v>
       </c>
-      <c r="J10" s="57">
-        <v>3</v>
+      <c r="J10" s="57" t="s">
+        <v>981</v>
       </c>
       <c r="K10" s="58" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="L10" s="15" t="s">
         <v>707</v>
@@ -12753,11 +12780,11 @@
       <c r="I11" s="59" t="s">
         <v>689</v>
       </c>
-      <c r="J11" s="60">
-        <v>4</v>
+      <c r="J11" s="60" t="s">
+        <v>980</v>
       </c>
       <c r="K11" s="21" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="L11" s="15" t="s">
         <v>708</v>
@@ -12789,11 +12816,11 @@
       <c r="I12" s="28" t="s">
         <v>690</v>
       </c>
-      <c r="J12" s="31">
-        <v>5</v>
+      <c r="J12" s="31" t="s">
+        <v>980</v>
       </c>
       <c r="K12" s="21" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="L12" s="15" t="s">
         <v>709</v>
@@ -12824,7 +12851,7 @@
       <c r="J13" s="31">
         <v>6</v>
       </c>
-      <c r="K13" s="15" t="s">
+      <c r="K13" s="21" t="s">
         <v>495</v>
       </c>
       <c r="L13" s="15" t="s">
@@ -12854,8 +12881,8 @@
       <c r="J14" s="31">
         <v>7</v>
       </c>
-      <c r="K14" s="15" t="s">
-        <v>975</v>
+      <c r="K14" s="21" t="s">
+        <v>974</v>
       </c>
       <c r="L14" s="15" t="s">
         <v>711</v>
@@ -12877,7 +12904,7 @@
       <c r="J15" s="29">
         <v>8</v>
       </c>
-      <c r="K15" s="15" t="s">
+      <c r="K15" s="21" t="s">
         <v>495</v>
       </c>
       <c r="L15" s="15" t="s">
@@ -12903,7 +12930,7 @@
         <v>9</v>
       </c>
       <c r="K16" s="15" t="s">
-        <v>495</v>
+        <v>983</v>
       </c>
       <c r="L16" s="15" t="s">
         <v>713</v>
@@ -12926,7 +12953,7 @@
         <v>10</v>
       </c>
       <c r="K17" s="15" t="s">
-        <v>495</v>
+        <v>983</v>
       </c>
       <c r="L17" s="15" t="s">
         <v>714</v>
@@ -12951,7 +12978,7 @@
         <v>11</v>
       </c>
       <c r="K18" s="15" t="s">
-        <v>495</v>
+        <v>984</v>
       </c>
       <c r="L18" s="15" t="s">
         <v>715</v>
@@ -12974,7 +13001,7 @@
         <v>12</v>
       </c>
       <c r="K19" s="15" t="s">
-        <v>495</v>
+        <v>984</v>
       </c>
       <c r="L19" s="15" t="s">
         <v>716</v>
@@ -12997,7 +13024,7 @@
         <v>13</v>
       </c>
       <c r="K20" s="15" t="s">
-        <v>495</v>
+        <v>984</v>
       </c>
       <c r="L20" s="15" t="s">
         <v>717</v>
@@ -13022,7 +13049,7 @@
         <v>14</v>
       </c>
       <c r="K21" s="15" t="s">
-        <v>495</v>
+        <v>985</v>
       </c>
       <c r="L21" s="15" t="s">
         <v>718</v>
@@ -13045,7 +13072,7 @@
         <v>15</v>
       </c>
       <c r="K22" s="15" t="s">
-        <v>495</v>
+        <v>986</v>
       </c>
       <c r="L22" s="15" t="s">
         <v>719</v>
@@ -13068,7 +13095,7 @@
         <v>16</v>
       </c>
       <c r="K23" s="15" t="s">
-        <v>495</v>
+        <v>969</v>
       </c>
       <c r="L23" s="15" t="s">
         <v>720</v>
@@ -13091,7 +13118,7 @@
         <v>17</v>
       </c>
       <c r="K24" s="15" t="s">
-        <v>495</v>
+        <v>969</v>
       </c>
       <c r="L24" s="15" t="s">
         <v>721</v>
@@ -13114,7 +13141,7 @@
         <v>18</v>
       </c>
       <c r="K25" s="15" t="s">
-        <v>495</v>
+        <v>969</v>
       </c>
       <c r="L25" s="15" t="s">
         <v>722</v>
@@ -13139,7 +13166,7 @@
         <v>19</v>
       </c>
       <c r="K26" s="15" t="s">
-        <v>495</v>
+        <v>969</v>
       </c>
       <c r="L26" s="15" t="s">
         <v>723</v>
@@ -13162,7 +13189,7 @@
         <v>20</v>
       </c>
       <c r="K27" s="15" t="s">
-        <v>495</v>
+        <v>969</v>
       </c>
       <c r="L27" s="15" t="s">
         <v>724</v>
@@ -13187,7 +13214,7 @@
         <v>21</v>
       </c>
       <c r="K28" s="15" t="s">
-        <v>495</v>
+        <v>969</v>
       </c>
       <c r="L28" s="15" t="s">
         <v>725</v>
@@ -13210,7 +13237,7 @@
         <v>22</v>
       </c>
       <c r="K29" s="15" t="s">
-        <v>495</v>
+        <v>969</v>
       </c>
       <c r="L29" s="15" t="s">
         <v>726</v>
@@ -13233,7 +13260,7 @@
         <v>23</v>
       </c>
       <c r="K30" s="15" t="s">
-        <v>495</v>
+        <v>969</v>
       </c>
       <c r="L30" s="15" t="s">
         <v>727</v>
@@ -13256,7 +13283,7 @@
         <v>24</v>
       </c>
       <c r="K31" s="15" t="s">
-        <v>495</v>
+        <v>969</v>
       </c>
       <c r="L31" s="15" t="s">
         <v>728</v>
@@ -13279,7 +13306,7 @@
         <v>25</v>
       </c>
       <c r="K32" s="15" t="s">
-        <v>495</v>
+        <v>969</v>
       </c>
       <c r="L32" s="15" t="s">
         <v>729</v>
@@ -13302,7 +13329,7 @@
         <v>26</v>
       </c>
       <c r="K33" s="15" t="s">
-        <v>495</v>
+        <v>969</v>
       </c>
       <c r="L33" s="15" t="s">
         <v>730</v>
@@ -13325,7 +13352,7 @@
         <v>27</v>
       </c>
       <c r="K34" s="15" t="s">
-        <v>960</v>
+        <v>969</v>
       </c>
       <c r="L34" s="15" t="s">
         <v>731</v>
@@ -13348,7 +13375,7 @@
         <v>28</v>
       </c>
       <c r="K35" s="15" t="s">
-        <v>960</v>
+        <v>969</v>
       </c>
       <c r="L35" s="15" t="s">
         <v>732</v>
@@ -13415,7 +13442,7 @@
         <v>31</v>
       </c>
       <c r="K38" s="15" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="L38" s="15" t="s">
         <v>735</v>
@@ -13432,7 +13459,7 @@
         <v>32</v>
       </c>
       <c r="K39" s="15" t="s">
-        <v>961</v>
+        <v>969</v>
       </c>
       <c r="L39" s="15" t="s">
         <v>736</v>
@@ -13452,7 +13479,7 @@
         <v>33</v>
       </c>
       <c r="K40" s="15" t="s">
-        <v>961</v>
+        <v>969</v>
       </c>
       <c r="L40" s="15" t="s">
         <v>737</v>
@@ -13472,7 +13499,7 @@
         <v>34</v>
       </c>
       <c r="K41" s="15" t="s">
-        <v>963</v>
+        <v>969</v>
       </c>
       <c r="L41" s="15" t="s">
         <v>738</v>
@@ -13489,7 +13516,7 @@
         <v>35</v>
       </c>
       <c r="K42" s="15" t="s">
-        <v>963</v>
+        <v>969</v>
       </c>
       <c r="L42" s="34" t="s">
         <v>739</v>
@@ -13506,7 +13533,7 @@
         <v>36</v>
       </c>
       <c r="K43" s="15" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="L43" s="51" t="s">
         <v>740</v>
@@ -13523,7 +13550,7 @@
         <v>37</v>
       </c>
       <c r="K44" s="15" t="s">
-        <v>971</v>
+        <v>982</v>
       </c>
       <c r="L44" s="51" t="s">
         <v>935</v>
@@ -13540,7 +13567,7 @@
         <v>38</v>
       </c>
       <c r="K45" s="15" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="L45" s="8"/>
     </row>
@@ -13555,7 +13582,7 @@
         <v>39</v>
       </c>
       <c r="K46" s="15" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="L46" s="8"/>
     </row>
@@ -13570,7 +13597,7 @@
         <v>40</v>
       </c>
       <c r="K47" s="15" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="L47" s="8"/>
     </row>
@@ -13585,7 +13612,7 @@
         <v>41</v>
       </c>
       <c r="K48" s="15" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="L48" s="8"/>
     </row>
@@ -13600,7 +13627,7 @@
         <v>42</v>
       </c>
       <c r="K49" s="15" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="L49" s="8"/>
     </row>
@@ -13615,7 +13642,7 @@
         <v>43</v>
       </c>
       <c r="K50" s="15" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="L50" s="8"/>
     </row>
@@ -13630,7 +13657,7 @@
         <v>44</v>
       </c>
       <c r="K51" s="15" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="L51" s="8"/>
     </row>
@@ -13645,7 +13672,7 @@
         <v>45</v>
       </c>
       <c r="K52" s="15" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="L52" s="8"/>
     </row>
@@ -13660,7 +13687,7 @@
         <v>46</v>
       </c>
       <c r="K53" s="15" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="L53" s="8"/>
     </row>
@@ -13675,7 +13702,7 @@
         <v>47</v>
       </c>
       <c r="K54" s="15" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="L54" s="8"/>
     </row>
@@ -13690,7 +13717,7 @@
         <v>48</v>
       </c>
       <c r="K55" s="15" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="L55" s="8"/>
     </row>
@@ -13705,7 +13732,7 @@
         <v>49</v>
       </c>
       <c r="K56" s="15" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="L56" s="8"/>
     </row>
@@ -13720,7 +13747,7 @@
         <v>50</v>
       </c>
       <c r="K57" s="15" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="L57" s="8"/>
     </row>
@@ -13735,7 +13762,7 @@
         <v>51</v>
       </c>
       <c r="K58" s="15" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="L58" s="8"/>
     </row>
@@ -13750,7 +13777,7 @@
         <v>52</v>
       </c>
       <c r="K59" s="15" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="L59" s="8"/>
     </row>
@@ -13765,10 +13792,10 @@
         <v>53</v>
       </c>
       <c r="K60" s="15" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="L60" s="15" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="61" spans="8:12" x14ac:dyDescent="0.25">
@@ -13782,10 +13809,10 @@
         <v>54</v>
       </c>
       <c r="K61" s="15" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="L61" s="15" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="62" spans="8:12" x14ac:dyDescent="0.25">
@@ -13799,10 +13826,10 @@
         <v>55</v>
       </c>
       <c r="K62" s="15" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="L62" s="15" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="63" spans="8:12" x14ac:dyDescent="0.25">
@@ -13816,10 +13843,10 @@
         <v>56</v>
       </c>
       <c r="K63" s="15" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="L63" s="15" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="64" spans="8:12" x14ac:dyDescent="0.25">
@@ -13833,10 +13860,10 @@
         <v>57</v>
       </c>
       <c r="K64" s="15" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="L64" s="15" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="65" spans="8:12" x14ac:dyDescent="0.25">
@@ -13850,10 +13877,10 @@
         <v>58</v>
       </c>
       <c r="K65" s="15" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="L65" s="15" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="66" spans="8:12" x14ac:dyDescent="0.25">
@@ -13867,10 +13894,10 @@
         <v>59</v>
       </c>
       <c r="K66" s="15" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="L66" s="15" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="67" spans="8:12" x14ac:dyDescent="0.25">
@@ -13884,10 +13911,10 @@
         <v>60</v>
       </c>
       <c r="K67" s="15" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="L67" s="15" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="68" spans="8:12" x14ac:dyDescent="0.25">
@@ -13901,10 +13928,10 @@
         <v>61</v>
       </c>
       <c r="K68" s="15" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="L68" s="15" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="69" spans="8:12" x14ac:dyDescent="0.25">
@@ -13918,10 +13945,10 @@
         <v>62</v>
       </c>
       <c r="K69" s="15" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="L69" s="15" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="70" spans="8:12" x14ac:dyDescent="0.25">
@@ -13935,10 +13962,10 @@
         <v>63</v>
       </c>
       <c r="K70" s="15" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="L70" s="15" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="71" spans="8:12" x14ac:dyDescent="0.25">
@@ -13952,10 +13979,10 @@
         <v>64</v>
       </c>
       <c r="K71" s="15" t="s">
+        <v>966</v>
+      </c>
+      <c r="L71" s="15" t="s">
         <v>967</v>
-      </c>
-      <c r="L71" s="15" t="s">
-        <v>968</v>
       </c>
     </row>
     <row r="72" spans="8:12" x14ac:dyDescent="0.25">
@@ -13969,10 +13996,10 @@
         <v>65</v>
       </c>
       <c r="K72" s="15" t="s">
+        <v>966</v>
+      </c>
+      <c r="L72" s="15" t="s">
         <v>967</v>
-      </c>
-      <c r="L72" s="15" t="s">
-        <v>968</v>
       </c>
     </row>
     <row r="73" spans="8:12" x14ac:dyDescent="0.25">
@@ -13986,10 +14013,10 @@
         <v>66</v>
       </c>
       <c r="K73" s="15" t="s">
+        <v>966</v>
+      </c>
+      <c r="L73" s="15" t="s">
         <v>967</v>
-      </c>
-      <c r="L73" s="15" t="s">
-        <v>968</v>
       </c>
     </row>
     <row r="74" spans="8:12" x14ac:dyDescent="0.25">
@@ -14003,10 +14030,10 @@
         <v>67</v>
       </c>
       <c r="K74" s="15" t="s">
+        <v>966</v>
+      </c>
+      <c r="L74" s="15" t="s">
         <v>967</v>
-      </c>
-      <c r="L74" s="15" t="s">
-        <v>968</v>
       </c>
     </row>
     <row r="75" spans="8:12" x14ac:dyDescent="0.25">
@@ -14020,10 +14047,10 @@
         <v>68</v>
       </c>
       <c r="K75" s="15" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="L75" s="15" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="76" spans="8:12" x14ac:dyDescent="0.25">
@@ -14037,10 +14064,10 @@
         <v>69</v>
       </c>
       <c r="K76" s="15" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="L76" s="15" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="77" spans="8:12" x14ac:dyDescent="0.25">
@@ -14054,10 +14081,10 @@
         <v>70</v>
       </c>
       <c r="K77" s="15" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="L77" s="15" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="78" spans="8:12" x14ac:dyDescent="0.25">
@@ -14071,10 +14098,10 @@
         <v>71</v>
       </c>
       <c r="K78" s="15" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="L78" s="15" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="79" spans="8:12" x14ac:dyDescent="0.25">
@@ -14088,10 +14115,10 @@
         <v>72</v>
       </c>
       <c r="K79" s="15" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="L79" s="15" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="80" spans="8:12" x14ac:dyDescent="0.25">
@@ -14105,10 +14132,10 @@
         <v>73</v>
       </c>
       <c r="K80" s="15" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="L80" s="15" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="81" spans="8:12" x14ac:dyDescent="0.25">
@@ -14122,10 +14149,10 @@
         <v>74</v>
       </c>
       <c r="K81" s="15" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="L81" s="15" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="82" spans="8:12" x14ac:dyDescent="0.25">
@@ -14139,10 +14166,10 @@
         <v>75</v>
       </c>
       <c r="K82" s="15" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="L82" s="15" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="83" spans="8:12" x14ac:dyDescent="0.25">
@@ -14156,10 +14183,10 @@
         <v>76</v>
       </c>
       <c r="K83" s="15" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="L83" s="15" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="84" spans="8:12" x14ac:dyDescent="0.25">

--- a/avk_resume/AVK_DevOps_Plan1.xlsx
+++ b/avk_resume/AVK_DevOps_Plan1.xlsx
@@ -220,7 +220,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1749" uniqueCount="987">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1762" uniqueCount="991">
   <si>
     <t>LINUX</t>
   </si>
@@ -3060,33 +3060,6 @@
     <t>Interview Questions</t>
   </si>
   <si>
-    <t>work on interview links &amp; watch interview videos only till 14th.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">from 15 start the full process. </t>
-  </si>
-  <si>
-    <t>Once all the courses are read, now go through the interview questions and study there and for referrences go through courses.</t>
-  </si>
-  <si>
-    <t>how to deploy application in kubernetes</t>
-  </si>
-  <si>
-    <t>No Sleep for 75 Days</t>
-  </si>
-  <si>
-    <t>No Thinking of women and making stories</t>
-  </si>
-  <si>
-    <t>concentrate on each video.</t>
-  </si>
-  <si>
-    <t>concentrate and study all interview questions.</t>
-  </si>
-  <si>
-    <t>Attempt interview and get a job.</t>
-  </si>
-  <si>
     <t>DEEKSHIT SN YT CHANNEL</t>
   </si>
   <si>
@@ -3181,6 +3154,45 @@
   </si>
   <si>
     <t>Interview Questions Study - BT</t>
+  </si>
+  <si>
+    <t>My Problems</t>
+  </si>
+  <si>
+    <t>Masturbation</t>
+  </si>
+  <si>
+    <t>Thinking of girls</t>
+  </si>
+  <si>
+    <t>No focus on subject, just time pass reading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No real goal and focus on life. </t>
+  </si>
+  <si>
+    <t>Present Plan</t>
+  </si>
+  <si>
+    <t>Finish the focus/memory udemy course</t>
+  </si>
+  <si>
+    <t>work on all the projects that has to be uploaded in Github</t>
+  </si>
+  <si>
+    <t>Start reading Interview Questions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Once the Interview Questions reading and DB is ready, focus on individual courses. </t>
+  </si>
+  <si>
+    <t>Then apply for jobs</t>
+  </si>
+  <si>
+    <t>10X Focus Couse</t>
+  </si>
+  <si>
+    <t>Resume Projects Prep</t>
   </si>
 </sst>
 </file>
@@ -4711,8 +4723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:B21"/>
+    <sheetView topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4983,6 +4995,9 @@
       <c r="B15" s="20" t="s">
         <v>563</v>
       </c>
+      <c r="D15" t="s">
+        <v>978</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="27">
@@ -4992,7 +5007,7 @@
         <v>566</v>
       </c>
       <c r="D16" t="s">
-        <v>946</v>
+        <v>979</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -5000,10 +5015,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>955</v>
+        <v>946</v>
       </c>
       <c r="D17" t="s">
-        <v>947</v>
+        <v>980</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -5011,7 +5026,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>956</v>
+        <v>947</v>
+      </c>
+      <c r="D18" t="s">
+        <v>981</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -5019,10 +5037,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="D19" t="s">
-        <v>948</v>
+        <v>982</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -5030,7 +5048,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>958</v>
+        <v>949</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -5038,7 +5056,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>959</v>
+        <v>950</v>
+      </c>
+      <c r="D21" t="s">
+        <v>983</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -5048,6 +5069,9 @@
       <c r="B22" s="8" t="s">
         <v>564</v>
       </c>
+      <c r="D22" t="s">
+        <v>984</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="27">
@@ -5057,7 +5081,7 @@
         <v>495</v>
       </c>
       <c r="D23" t="s">
-        <v>949</v>
+        <v>985</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -5066,6 +5090,9 @@
       </c>
       <c r="B24" s="53" t="s">
         <v>943</v>
+      </c>
+      <c r="D24" t="s">
+        <v>986</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -5074,7 +5101,7 @@
         <v>944</v>
       </c>
       <c r="D25" t="s">
-        <v>950</v>
+        <v>987</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -5083,29 +5110,20 @@
         <v>945</v>
       </c>
       <c r="D26" t="s">
-        <v>951</v>
+        <v>988</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="27"/>
       <c r="B27" s="8"/>
-      <c r="D27" t="s">
-        <v>952</v>
-      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="27"/>
       <c r="B28" s="8"/>
-      <c r="D28" t="s">
-        <v>953</v>
-      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="27"/>
       <c r="B29" s="8"/>
-      <c r="D29" t="s">
-        <v>954</v>
-      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="27"/>
@@ -8926,7 +8944,7 @@
         <v>2005</v>
       </c>
       <c r="I31" t="s">
-        <v>979</v>
+        <v>970</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -8959,7 +8977,7 @@
         <v>2007</v>
       </c>
       <c r="I33" t="s">
-        <v>978</v>
+        <v>969</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -8976,7 +8994,7 @@
         <v>2008</v>
       </c>
       <c r="I34" t="s">
-        <v>978</v>
+        <v>969</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -8995,7 +9013,7 @@
         <v>2009</v>
       </c>
       <c r="I35" t="s">
-        <v>978</v>
+        <v>969</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -9016,7 +9034,7 @@
         <v>2010</v>
       </c>
       <c r="I36" t="s">
-        <v>978</v>
+        <v>969</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -9037,7 +9055,7 @@
         <v>2011</v>
       </c>
       <c r="I37" t="s">
-        <v>977</v>
+        <v>968</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -9049,13 +9067,13 @@
       </c>
       <c r="E38" s="8"/>
       <c r="G38" t="s">
-        <v>975</v>
+        <v>966</v>
       </c>
       <c r="H38">
         <v>2012</v>
       </c>
       <c r="I38" t="s">
-        <v>976</v>
+        <v>967</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -12395,8 +12413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13:K15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12503,7 +12521,7 @@
         <v>688</v>
       </c>
       <c r="J3" s="25" t="s">
-        <v>980</v>
+        <v>971</v>
       </c>
       <c r="K3" s="32"/>
       <c r="L3" s="15" t="s">
@@ -12539,7 +12557,7 @@
         <v>689</v>
       </c>
       <c r="J4" s="25" t="s">
-        <v>980</v>
+        <v>971</v>
       </c>
       <c r="K4" s="32"/>
       <c r="L4" s="15" t="s">
@@ -12637,7 +12655,7 @@
         <v>692</v>
       </c>
       <c r="J7" s="25" t="s">
-        <v>981</v>
+        <v>972</v>
       </c>
       <c r="K7" s="32"/>
       <c r="L7" s="15" t="s">
@@ -12707,7 +12725,7 @@
         <v>687</v>
       </c>
       <c r="J9" s="31" t="s">
-        <v>980</v>
+        <v>971</v>
       </c>
       <c r="K9" s="15"/>
       <c r="L9" s="15" t="s">
@@ -12743,10 +12761,10 @@
         <v>688</v>
       </c>
       <c r="J10" s="57" t="s">
-        <v>981</v>
+        <v>972</v>
       </c>
       <c r="K10" s="58" t="s">
-        <v>971</v>
+        <v>962</v>
       </c>
       <c r="L10" s="15" t="s">
         <v>707</v>
@@ -12781,10 +12799,10 @@
         <v>689</v>
       </c>
       <c r="J11" s="60" t="s">
-        <v>980</v>
+        <v>971</v>
       </c>
       <c r="K11" s="21" t="s">
-        <v>972</v>
+        <v>963</v>
       </c>
       <c r="L11" s="15" t="s">
         <v>708</v>
@@ -12817,10 +12835,10 @@
         <v>690</v>
       </c>
       <c r="J12" s="31" t="s">
-        <v>980</v>
+        <v>971</v>
       </c>
       <c r="K12" s="21" t="s">
-        <v>973</v>
+        <v>964</v>
       </c>
       <c r="L12" s="15" t="s">
         <v>709</v>
@@ -12882,7 +12900,7 @@
         <v>7</v>
       </c>
       <c r="K14" s="21" t="s">
-        <v>974</v>
+        <v>965</v>
       </c>
       <c r="L14" s="15" t="s">
         <v>711</v>
@@ -12930,7 +12948,7 @@
         <v>9</v>
       </c>
       <c r="K16" s="15" t="s">
-        <v>983</v>
+        <v>989</v>
       </c>
       <c r="L16" s="15" t="s">
         <v>713</v>
@@ -12953,7 +12971,7 @@
         <v>10</v>
       </c>
       <c r="K17" s="15" t="s">
-        <v>983</v>
+        <v>989</v>
       </c>
       <c r="L17" s="15" t="s">
         <v>714</v>
@@ -12978,7 +12996,7 @@
         <v>11</v>
       </c>
       <c r="K18" s="15" t="s">
-        <v>984</v>
+        <v>989</v>
       </c>
       <c r="L18" s="15" t="s">
         <v>715</v>
@@ -13001,7 +13019,7 @@
         <v>12</v>
       </c>
       <c r="K19" s="15" t="s">
-        <v>984</v>
+        <v>990</v>
       </c>
       <c r="L19" s="15" t="s">
         <v>716</v>
@@ -13024,7 +13042,7 @@
         <v>13</v>
       </c>
       <c r="K20" s="15" t="s">
-        <v>984</v>
+        <v>990</v>
       </c>
       <c r="L20" s="15" t="s">
         <v>717</v>
@@ -13049,7 +13067,7 @@
         <v>14</v>
       </c>
       <c r="K21" s="15" t="s">
-        <v>985</v>
+        <v>974</v>
       </c>
       <c r="L21" s="15" t="s">
         <v>718</v>
@@ -13072,7 +13090,7 @@
         <v>15</v>
       </c>
       <c r="K22" s="15" t="s">
-        <v>986</v>
+        <v>974</v>
       </c>
       <c r="L22" s="15" t="s">
         <v>719</v>
@@ -13095,7 +13113,7 @@
         <v>16</v>
       </c>
       <c r="K23" s="15" t="s">
-        <v>969</v>
+        <v>975</v>
       </c>
       <c r="L23" s="15" t="s">
         <v>720</v>
@@ -13118,7 +13136,7 @@
         <v>17</v>
       </c>
       <c r="K24" s="15" t="s">
-        <v>969</v>
+        <v>975</v>
       </c>
       <c r="L24" s="15" t="s">
         <v>721</v>
@@ -13141,7 +13159,7 @@
         <v>18</v>
       </c>
       <c r="K25" s="15" t="s">
-        <v>969</v>
+        <v>975</v>
       </c>
       <c r="L25" s="15" t="s">
         <v>722</v>
@@ -13166,7 +13184,7 @@
         <v>19</v>
       </c>
       <c r="K26" s="15" t="s">
-        <v>969</v>
+        <v>976</v>
       </c>
       <c r="L26" s="15" t="s">
         <v>723</v>
@@ -13189,7 +13207,7 @@
         <v>20</v>
       </c>
       <c r="K27" s="15" t="s">
-        <v>969</v>
+        <v>977</v>
       </c>
       <c r="L27" s="15" t="s">
         <v>724</v>
@@ -13214,7 +13232,7 @@
         <v>21</v>
       </c>
       <c r="K28" s="15" t="s">
-        <v>969</v>
+        <v>960</v>
       </c>
       <c r="L28" s="15" t="s">
         <v>725</v>
@@ -13237,7 +13255,7 @@
         <v>22</v>
       </c>
       <c r="K29" s="15" t="s">
-        <v>969</v>
+        <v>960</v>
       </c>
       <c r="L29" s="15" t="s">
         <v>726</v>
@@ -13260,7 +13278,7 @@
         <v>23</v>
       </c>
       <c r="K30" s="15" t="s">
-        <v>969</v>
+        <v>960</v>
       </c>
       <c r="L30" s="15" t="s">
         <v>727</v>
@@ -13283,7 +13301,7 @@
         <v>24</v>
       </c>
       <c r="K31" s="15" t="s">
-        <v>969</v>
+        <v>960</v>
       </c>
       <c r="L31" s="15" t="s">
         <v>728</v>
@@ -13306,7 +13324,7 @@
         <v>25</v>
       </c>
       <c r="K32" s="15" t="s">
-        <v>969</v>
+        <v>960</v>
       </c>
       <c r="L32" s="15" t="s">
         <v>729</v>
@@ -13329,7 +13347,7 @@
         <v>26</v>
       </c>
       <c r="K33" s="15" t="s">
-        <v>969</v>
+        <v>960</v>
       </c>
       <c r="L33" s="15" t="s">
         <v>730</v>
@@ -13352,7 +13370,7 @@
         <v>27</v>
       </c>
       <c r="K34" s="15" t="s">
-        <v>969</v>
+        <v>960</v>
       </c>
       <c r="L34" s="15" t="s">
         <v>731</v>
@@ -13375,7 +13393,7 @@
         <v>28</v>
       </c>
       <c r="K35" s="15" t="s">
-        <v>969</v>
+        <v>960</v>
       </c>
       <c r="L35" s="15" t="s">
         <v>732</v>
@@ -13425,13 +13443,16 @@
         <v>30</v>
       </c>
       <c r="K37" s="15" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="L37" s="15" t="s">
         <v>734</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>978</v>
+      </c>
       <c r="H38" s="28">
         <v>44637</v>
       </c>
@@ -13442,13 +13463,16 @@
         <v>31</v>
       </c>
       <c r="K38" s="15" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="L38" s="15" t="s">
         <v>735</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>979</v>
+      </c>
       <c r="H39" s="28">
         <v>44638</v>
       </c>
@@ -13459,7 +13483,7 @@
         <v>32</v>
       </c>
       <c r="K39" s="15" t="s">
-        <v>969</v>
+        <v>960</v>
       </c>
       <c r="L39" s="15" t="s">
         <v>736</v>
@@ -13469,6 +13493,9 @@
       <c r="B40" t="s">
         <v>647</v>
       </c>
+      <c r="D40" t="s">
+        <v>980</v>
+      </c>
       <c r="H40" s="28">
         <v>44639</v>
       </c>
@@ -13479,7 +13506,7 @@
         <v>33</v>
       </c>
       <c r="K40" s="15" t="s">
-        <v>969</v>
+        <v>960</v>
       </c>
       <c r="L40" s="15" t="s">
         <v>737</v>
@@ -13489,6 +13516,9 @@
       <c r="B41" t="s">
         <v>648</v>
       </c>
+      <c r="D41" t="s">
+        <v>981</v>
+      </c>
       <c r="H41" s="28">
         <v>44640</v>
       </c>
@@ -13499,13 +13529,16 @@
         <v>34</v>
       </c>
       <c r="K41" s="15" t="s">
-        <v>969</v>
+        <v>951</v>
       </c>
       <c r="L41" s="15" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>982</v>
+      </c>
       <c r="H42" s="28">
         <v>44641</v>
       </c>
@@ -13516,7 +13549,7 @@
         <v>35</v>
       </c>
       <c r="K42" s="15" t="s">
-        <v>969</v>
+        <v>953</v>
       </c>
       <c r="L42" s="34" t="s">
         <v>739</v>
@@ -13533,13 +13566,16 @@
         <v>36</v>
       </c>
       <c r="K43" s="15" t="s">
-        <v>969</v>
+        <v>952</v>
       </c>
       <c r="L43" s="51" t="s">
         <v>740</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>983</v>
+      </c>
       <c r="H44" s="28">
         <v>44643</v>
       </c>
@@ -13550,13 +13586,16 @@
         <v>37</v>
       </c>
       <c r="K44" s="15" t="s">
-        <v>982</v>
+        <v>960</v>
       </c>
       <c r="L44" s="51" t="s">
         <v>935</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>984</v>
+      </c>
       <c r="H45" s="28">
         <v>44644</v>
       </c>
@@ -13567,11 +13606,14 @@
         <v>38</v>
       </c>
       <c r="K45" s="15" t="s">
-        <v>970</v>
+        <v>960</v>
       </c>
       <c r="L45" s="8"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>985</v>
+      </c>
       <c r="H46" s="28">
         <v>44645</v>
       </c>
@@ -13582,11 +13624,14 @@
         <v>39</v>
       </c>
       <c r="K46" s="15" t="s">
-        <v>970</v>
+        <v>960</v>
       </c>
       <c r="L46" s="8"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>986</v>
+      </c>
       <c r="H47" s="28">
         <v>44646</v>
       </c>
@@ -13597,11 +13642,14 @@
         <v>40</v>
       </c>
       <c r="K47" s="15" t="s">
-        <v>970</v>
+        <v>960</v>
       </c>
       <c r="L47" s="8"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>987</v>
+      </c>
       <c r="H48" s="28">
         <v>44647</v>
       </c>
@@ -13612,11 +13660,14 @@
         <v>41</v>
       </c>
       <c r="K48" s="15" t="s">
-        <v>970</v>
+        <v>960</v>
       </c>
       <c r="L48" s="8"/>
     </row>
-    <row r="49" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>988</v>
+      </c>
       <c r="H49" s="28">
         <v>44648</v>
       </c>
@@ -13627,11 +13678,11 @@
         <v>42</v>
       </c>
       <c r="K49" s="15" t="s">
-        <v>970</v>
+        <v>973</v>
       </c>
       <c r="L49" s="8"/>
     </row>
-    <row r="50" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:12" x14ac:dyDescent="0.25">
       <c r="H50" s="28">
         <v>44649</v>
       </c>
@@ -13642,11 +13693,11 @@
         <v>43</v>
       </c>
       <c r="K50" s="15" t="s">
-        <v>970</v>
+        <v>961</v>
       </c>
       <c r="L50" s="8"/>
     </row>
-    <row r="51" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:12" x14ac:dyDescent="0.25">
       <c r="H51" s="28">
         <v>44650</v>
       </c>
@@ -13657,11 +13708,11 @@
         <v>44</v>
       </c>
       <c r="K51" s="15" t="s">
-        <v>970</v>
+        <v>961</v>
       </c>
       <c r="L51" s="8"/>
     </row>
-    <row r="52" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:12" x14ac:dyDescent="0.25">
       <c r="H52" s="28">
         <v>44651</v>
       </c>
@@ -13672,11 +13723,11 @@
         <v>45</v>
       </c>
       <c r="K52" s="15" t="s">
-        <v>970</v>
+        <v>961</v>
       </c>
       <c r="L52" s="8"/>
     </row>
-    <row r="53" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:12" x14ac:dyDescent="0.25">
       <c r="H53" s="28">
         <v>44652</v>
       </c>
@@ -13687,11 +13738,11 @@
         <v>46</v>
       </c>
       <c r="K53" s="15" t="s">
-        <v>970</v>
+        <v>961</v>
       </c>
       <c r="L53" s="8"/>
     </row>
-    <row r="54" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:12" x14ac:dyDescent="0.25">
       <c r="H54" s="28">
         <v>44653</v>
       </c>
@@ -13702,11 +13753,11 @@
         <v>47</v>
       </c>
       <c r="K54" s="15" t="s">
-        <v>970</v>
+        <v>961</v>
       </c>
       <c r="L54" s="8"/>
     </row>
-    <row r="55" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:12" x14ac:dyDescent="0.25">
       <c r="H55" s="28">
         <v>44654</v>
       </c>
@@ -13717,11 +13768,11 @@
         <v>48</v>
       </c>
       <c r="K55" s="15" t="s">
-        <v>970</v>
+        <v>961</v>
       </c>
       <c r="L55" s="8"/>
     </row>
-    <row r="56" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:12" x14ac:dyDescent="0.25">
       <c r="H56" s="28">
         <v>44655</v>
       </c>
@@ -13732,11 +13783,11 @@
         <v>49</v>
       </c>
       <c r="K56" s="15" t="s">
-        <v>970</v>
+        <v>961</v>
       </c>
       <c r="L56" s="8"/>
     </row>
-    <row r="57" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:12" x14ac:dyDescent="0.25">
       <c r="H57" s="28">
         <v>44656</v>
       </c>
@@ -13747,11 +13798,11 @@
         <v>50</v>
       </c>
       <c r="K57" s="15" t="s">
-        <v>970</v>
+        <v>961</v>
       </c>
       <c r="L57" s="8"/>
     </row>
-    <row r="58" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:12" x14ac:dyDescent="0.25">
       <c r="H58" s="28">
         <v>44657</v>
       </c>
@@ -13762,11 +13813,11 @@
         <v>51</v>
       </c>
       <c r="K58" s="15" t="s">
-        <v>970</v>
+        <v>961</v>
       </c>
       <c r="L58" s="8"/>
     </row>
-    <row r="59" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:12" x14ac:dyDescent="0.25">
       <c r="H59" s="28">
         <v>44658</v>
       </c>
@@ -13777,11 +13828,11 @@
         <v>52</v>
       </c>
       <c r="K59" s="15" t="s">
-        <v>970</v>
+        <v>961</v>
       </c>
       <c r="L59" s="8"/>
     </row>
-    <row r="60" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:12" x14ac:dyDescent="0.25">
       <c r="H60" s="28">
         <v>44659</v>
       </c>
@@ -13792,13 +13843,13 @@
         <v>53</v>
       </c>
       <c r="K60" s="15" t="s">
-        <v>963</v>
+        <v>954</v>
       </c>
       <c r="L60" s="15" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="61" spans="8:12" x14ac:dyDescent="0.25">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="61" spans="4:12" x14ac:dyDescent="0.25">
       <c r="H61" s="28">
         <v>44660</v>
       </c>
@@ -13809,13 +13860,13 @@
         <v>54</v>
       </c>
       <c r="K61" s="15" t="s">
-        <v>963</v>
+        <v>954</v>
       </c>
       <c r="L61" s="15" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="62" spans="8:12" x14ac:dyDescent="0.25">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="62" spans="4:12" x14ac:dyDescent="0.25">
       <c r="H62" s="28">
         <v>44661</v>
       </c>
@@ -13826,13 +13877,13 @@
         <v>55</v>
       </c>
       <c r="K62" s="15" t="s">
-        <v>963</v>
+        <v>954</v>
       </c>
       <c r="L62" s="15" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="63" spans="8:12" x14ac:dyDescent="0.25">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="63" spans="4:12" x14ac:dyDescent="0.25">
       <c r="H63" s="28">
         <v>44662</v>
       </c>
@@ -13843,13 +13894,13 @@
         <v>56</v>
       </c>
       <c r="K63" s="15" t="s">
-        <v>964</v>
+        <v>955</v>
       </c>
       <c r="L63" s="15" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="64" spans="8:12" x14ac:dyDescent="0.25">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="64" spans="4:12" x14ac:dyDescent="0.25">
       <c r="H64" s="28">
         <v>44663</v>
       </c>
@@ -13860,10 +13911,10 @@
         <v>57</v>
       </c>
       <c r="K64" s="15" t="s">
-        <v>964</v>
+        <v>955</v>
       </c>
       <c r="L64" s="15" t="s">
-        <v>967</v>
+        <v>958</v>
       </c>
     </row>
     <row r="65" spans="8:12" x14ac:dyDescent="0.25">
@@ -13877,10 +13928,10 @@
         <v>58</v>
       </c>
       <c r="K65" s="15" t="s">
-        <v>964</v>
+        <v>955</v>
       </c>
       <c r="L65" s="15" t="s">
-        <v>967</v>
+        <v>958</v>
       </c>
     </row>
     <row r="66" spans="8:12" x14ac:dyDescent="0.25">
@@ -13894,10 +13945,10 @@
         <v>59</v>
       </c>
       <c r="K66" s="15" t="s">
-        <v>964</v>
+        <v>955</v>
       </c>
       <c r="L66" s="15" t="s">
-        <v>967</v>
+        <v>958</v>
       </c>
     </row>
     <row r="67" spans="8:12" x14ac:dyDescent="0.25">
@@ -13911,10 +13962,10 @@
         <v>60</v>
       </c>
       <c r="K67" s="15" t="s">
-        <v>965</v>
+        <v>956</v>
       </c>
       <c r="L67" s="15" t="s">
-        <v>967</v>
+        <v>958</v>
       </c>
     </row>
     <row r="68" spans="8:12" x14ac:dyDescent="0.25">
@@ -13928,10 +13979,10 @@
         <v>61</v>
       </c>
       <c r="K68" s="15" t="s">
-        <v>965</v>
+        <v>956</v>
       </c>
       <c r="L68" s="15" t="s">
-        <v>967</v>
+        <v>958</v>
       </c>
     </row>
     <row r="69" spans="8:12" x14ac:dyDescent="0.25">
@@ -13945,10 +13996,10 @@
         <v>62</v>
       </c>
       <c r="K69" s="15" t="s">
-        <v>965</v>
+        <v>956</v>
       </c>
       <c r="L69" s="15" t="s">
-        <v>967</v>
+        <v>958</v>
       </c>
     </row>
     <row r="70" spans="8:12" x14ac:dyDescent="0.25">
@@ -13962,10 +14013,10 @@
         <v>63</v>
       </c>
       <c r="K70" s="15" t="s">
-        <v>965</v>
+        <v>956</v>
       </c>
       <c r="L70" s="15" t="s">
-        <v>967</v>
+        <v>958</v>
       </c>
     </row>
     <row r="71" spans="8:12" x14ac:dyDescent="0.25">
@@ -13979,10 +14030,10 @@
         <v>64</v>
       </c>
       <c r="K71" s="15" t="s">
-        <v>966</v>
+        <v>957</v>
       </c>
       <c r="L71" s="15" t="s">
-        <v>967</v>
+        <v>958</v>
       </c>
     </row>
     <row r="72" spans="8:12" x14ac:dyDescent="0.25">
@@ -13996,10 +14047,10 @@
         <v>65</v>
       </c>
       <c r="K72" s="15" t="s">
-        <v>966</v>
+        <v>957</v>
       </c>
       <c r="L72" s="15" t="s">
-        <v>967</v>
+        <v>958</v>
       </c>
     </row>
     <row r="73" spans="8:12" x14ac:dyDescent="0.25">
@@ -14013,10 +14064,10 @@
         <v>66</v>
       </c>
       <c r="K73" s="15" t="s">
-        <v>966</v>
+        <v>957</v>
       </c>
       <c r="L73" s="15" t="s">
-        <v>967</v>
+        <v>958</v>
       </c>
     </row>
     <row r="74" spans="8:12" x14ac:dyDescent="0.25">
@@ -14030,10 +14081,10 @@
         <v>67</v>
       </c>
       <c r="K74" s="15" t="s">
-        <v>966</v>
+        <v>957</v>
       </c>
       <c r="L74" s="15" t="s">
-        <v>967</v>
+        <v>958</v>
       </c>
     </row>
     <row r="75" spans="8:12" x14ac:dyDescent="0.25">
@@ -14047,10 +14098,10 @@
         <v>68</v>
       </c>
       <c r="K75" s="15" t="s">
-        <v>968</v>
+        <v>959</v>
       </c>
       <c r="L75" s="15" t="s">
-        <v>967</v>
+        <v>958</v>
       </c>
     </row>
     <row r="76" spans="8:12" x14ac:dyDescent="0.25">
@@ -14064,10 +14115,10 @@
         <v>69</v>
       </c>
       <c r="K76" s="15" t="s">
-        <v>968</v>
+        <v>959</v>
       </c>
       <c r="L76" s="15" t="s">
-        <v>967</v>
+        <v>958</v>
       </c>
     </row>
     <row r="77" spans="8:12" x14ac:dyDescent="0.25">
@@ -14081,10 +14132,10 @@
         <v>70</v>
       </c>
       <c r="K77" s="15" t="s">
-        <v>968</v>
+        <v>959</v>
       </c>
       <c r="L77" s="15" t="s">
-        <v>967</v>
+        <v>958</v>
       </c>
     </row>
     <row r="78" spans="8:12" x14ac:dyDescent="0.25">
@@ -14098,10 +14149,10 @@
         <v>71</v>
       </c>
       <c r="K78" s="15" t="s">
-        <v>968</v>
+        <v>959</v>
       </c>
       <c r="L78" s="15" t="s">
-        <v>967</v>
+        <v>958</v>
       </c>
     </row>
     <row r="79" spans="8:12" x14ac:dyDescent="0.25">
@@ -14115,10 +14166,10 @@
         <v>72</v>
       </c>
       <c r="K79" s="15" t="s">
-        <v>969</v>
+        <v>960</v>
       </c>
       <c r="L79" s="15" t="s">
-        <v>967</v>
+        <v>958</v>
       </c>
     </row>
     <row r="80" spans="8:12" x14ac:dyDescent="0.25">
@@ -14132,10 +14183,10 @@
         <v>73</v>
       </c>
       <c r="K80" s="15" t="s">
-        <v>969</v>
+        <v>960</v>
       </c>
       <c r="L80" s="15" t="s">
-        <v>967</v>
+        <v>958</v>
       </c>
     </row>
     <row r="81" spans="8:12" x14ac:dyDescent="0.25">
@@ -14149,10 +14200,10 @@
         <v>74</v>
       </c>
       <c r="K81" s="15" t="s">
-        <v>969</v>
+        <v>960</v>
       </c>
       <c r="L81" s="15" t="s">
-        <v>967</v>
+        <v>958</v>
       </c>
     </row>
     <row r="82" spans="8:12" x14ac:dyDescent="0.25">
@@ -14166,10 +14217,10 @@
         <v>75</v>
       </c>
       <c r="K82" s="15" t="s">
-        <v>969</v>
+        <v>960</v>
       </c>
       <c r="L82" s="15" t="s">
-        <v>967</v>
+        <v>958</v>
       </c>
     </row>
     <row r="83" spans="8:12" x14ac:dyDescent="0.25">
@@ -14183,10 +14234,10 @@
         <v>76</v>
       </c>
       <c r="K83" s="15" t="s">
-        <v>969</v>
+        <v>960</v>
       </c>
       <c r="L83" s="15" t="s">
-        <v>967</v>
+        <v>958</v>
       </c>
     </row>
     <row r="84" spans="8:12" x14ac:dyDescent="0.25">

--- a/avk_resume/AVK_DevOps_Plan1.xlsx
+++ b/avk_resume/AVK_DevOps_Plan1.xlsx
@@ -220,7 +220,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1762" uniqueCount="991">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1762" uniqueCount="994">
   <si>
     <t>LINUX</t>
   </si>
@@ -3193,6 +3193,15 @@
   </si>
   <si>
     <t>Resume Projects Prep</t>
+  </si>
+  <si>
+    <t>Resume Projects Prep - Packer</t>
+  </si>
+  <si>
+    <t>Resume Projects Prep - KalyanD Project, EKS Cluster, CICD Pipelines</t>
+  </si>
+  <si>
+    <t>Resume Projects Prep - ELK with Terraform and Yaml, K8S Mobile app</t>
   </si>
 </sst>
 </file>
@@ -12414,7 +12423,7 @@
   <dimension ref="A1:L84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12971,7 +12980,7 @@
         <v>10</v>
       </c>
       <c r="K17" s="15" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="L17" s="15" t="s">
         <v>714</v>
@@ -12996,7 +13005,7 @@
         <v>11</v>
       </c>
       <c r="K18" s="15" t="s">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="L18" s="15" t="s">
         <v>715</v>
@@ -13019,7 +13028,7 @@
         <v>12</v>
       </c>
       <c r="K19" s="15" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
       <c r="L19" s="15" t="s">
         <v>716</v>

--- a/avk_resume/AVK_DevOps_Plan1.xlsx
+++ b/avk_resume/AVK_DevOps_Plan1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Accounts" sheetId="8" r:id="rId1"/>
@@ -220,7 +220,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1762" uniqueCount="994">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1739" uniqueCount="1004">
   <si>
     <t>LINUX</t>
   </si>
@@ -1890,12 +1890,6 @@
     <t>FRIDAY</t>
   </si>
   <si>
-    <t>INTERVIEW</t>
-  </si>
-  <si>
-    <t>TOPICS COVERED</t>
-  </si>
-  <si>
     <t>K8S - GAURAV SHAH</t>
   </si>
   <si>
@@ -1917,9 +1911,6 @@
     <t>DPT LECTURES AND PROJECT</t>
   </si>
   <si>
-    <t>DEVOPS MASTERCLASS</t>
-  </si>
-  <si>
     <t xml:space="preserve">DEVSECOPS K8S </t>
   </si>
   <si>
@@ -2109,21 +2100,12 @@
     <t>APR SAL</t>
   </si>
   <si>
-    <t>Till section 6 done, but no cluster is installed.</t>
-  </si>
-  <si>
-    <t>Completed till section 10</t>
-  </si>
-  <si>
     <t>ICICI</t>
   </si>
   <si>
     <t>Balance</t>
   </si>
   <si>
-    <t>done till Pod</t>
-  </si>
-  <si>
     <t>Full DevOps Courses</t>
   </si>
   <si>
@@ -3202,6 +3184,54 @@
   </si>
   <si>
     <t>Resume Projects Prep - ELK with Terraform and Yaml, K8S Mobile app</t>
+  </si>
+  <si>
+    <t>Udemy DevOps Interview Questions</t>
+  </si>
+  <si>
+    <t>Deekshit SN YT</t>
+  </si>
+  <si>
+    <t>Downloaded DevOps Questions-DevOps Tutorials YT</t>
+  </si>
+  <si>
+    <t>Balaji Totorials YT</t>
+  </si>
+  <si>
+    <t>DevOps 4solutions YT Just Reference</t>
+  </si>
+  <si>
+    <t>Techworld with Nana YT</t>
+  </si>
+  <si>
+    <t>Techworld with Nana YT With Python</t>
+  </si>
+  <si>
+    <t>Valaxy Technologies YT</t>
+  </si>
+  <si>
+    <t>All Individial Courses without DevOps - AWS</t>
+  </si>
+  <si>
+    <t>Linux Courses</t>
+  </si>
+  <si>
+    <t>AWS Terraform - Project</t>
+  </si>
+  <si>
+    <t>DevOps by Nana</t>
+  </si>
+  <si>
+    <t>DevOps Masterclass Refer</t>
+  </si>
+  <si>
+    <t>DPT - Refer</t>
+  </si>
+  <si>
+    <t>New Interview Videos and Old one Practice</t>
+  </si>
+  <si>
+    <t>Days</t>
   </si>
 </sst>
 </file>
@@ -3447,9 +3477,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3572,6 +3599,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3871,7 +3899,7 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="C1">
         <v>127661.86</v>
@@ -3885,7 +3913,7 @@
       <c r="G1">
         <v>7</v>
       </c>
-      <c r="H1" s="24">
+      <c r="H1" s="23">
         <v>44623</v>
       </c>
       <c r="I1">
@@ -3895,13 +3923,13 @@
         <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="N1" s="5">
         <v>2022</v>
       </c>
       <c r="X1" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="Y1">
         <v>100000</v>
@@ -3909,7 +3937,7 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="D2">
         <v>4461.87</v>
@@ -3920,7 +3948,7 @@
       <c r="G2">
         <v>8</v>
       </c>
-      <c r="H2" s="24">
+      <c r="H2" s="23">
         <v>44988</v>
       </c>
       <c r="I2">
@@ -3930,17 +3958,17 @@
         <v>31</v>
       </c>
       <c r="L2" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="M2" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="N2" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="T2" s="22"/>
       <c r="X2" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="Y2">
         <v>368000</v>
@@ -3954,7 +3982,7 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="F3">
         <v>4</v>
@@ -3962,7 +3990,7 @@
       <c r="G3">
         <v>9</v>
       </c>
-      <c r="H3" s="24">
+      <c r="H3" s="23">
         <v>45354</v>
       </c>
       <c r="I3">
@@ -3972,17 +4000,17 @@
         <v>32</v>
       </c>
       <c r="L3" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="M3" t="s">
         <v>364</v>
       </c>
       <c r="N3" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="T3" s="22"/>
       <c r="X3" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="Y3">
         <v>200000</v>
@@ -3996,7 +4024,7 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -4004,7 +4032,7 @@
       <c r="G4">
         <v>10</v>
       </c>
-      <c r="H4" s="24">
+      <c r="H4" s="23">
         <v>45719</v>
       </c>
       <c r="I4">
@@ -4014,17 +4042,17 @@
         <v>33</v>
       </c>
       <c r="L4" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="M4" t="s">
         <v>365</v>
       </c>
       <c r="N4" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="T4" s="22"/>
       <c r="X4" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="Y4">
         <v>280000</v>
@@ -4038,7 +4066,7 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C5">
         <v>210</v>
@@ -4053,7 +4081,7 @@
       <c r="G5">
         <v>11</v>
       </c>
-      <c r="H5" s="24">
+      <c r="H5" s="23">
         <v>46084</v>
       </c>
       <c r="I5">
@@ -4063,17 +4091,17 @@
         <v>34</v>
       </c>
       <c r="L5" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="M5" t="s">
         <v>366</v>
       </c>
       <c r="N5" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="T5" s="22"/>
       <c r="X5" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="Y5">
         <v>468000</v>
@@ -4092,7 +4120,7 @@
       <c r="G6">
         <v>12</v>
       </c>
-      <c r="H6" s="24">
+      <c r="H6" s="23">
         <v>46449</v>
       </c>
       <c r="I6">
@@ -4105,11 +4133,11 @@
         <v>367</v>
       </c>
       <c r="N6" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="T6" s="22"/>
       <c r="X6" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="Y6">
         <v>68000</v>
@@ -4123,7 +4151,7 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C7">
         <v>3000</v>
@@ -4137,7 +4165,7 @@
       <c r="G7">
         <v>13</v>
       </c>
-      <c r="H7" s="24">
+      <c r="H7" s="23">
         <v>46815</v>
       </c>
       <c r="I7">
@@ -4147,14 +4175,14 @@
         <v>36</v>
       </c>
       <c r="M7" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="N7" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="T7" s="22"/>
       <c r="X7" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="Y7">
         <v>400000</v>
@@ -4162,7 +4190,7 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C8">
         <v>11500</v>
@@ -4176,7 +4204,7 @@
       <c r="G8">
         <v>14</v>
       </c>
-      <c r="H8" s="24">
+      <c r="H8" s="23">
         <v>47180</v>
       </c>
       <c r="I8">
@@ -4186,18 +4214,18 @@
         <v>37</v>
       </c>
       <c r="M8" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="N8" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="X8" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="C9">
         <v>90402</v>
@@ -4211,7 +4239,7 @@
       <c r="G9">
         <v>15</v>
       </c>
-      <c r="H9" s="24">
+      <c r="H9" s="23">
         <v>47545</v>
       </c>
       <c r="I9">
@@ -4221,13 +4249,13 @@
         <v>38</v>
       </c>
       <c r="M9" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="N9" t="s">
+        <v>596</v>
+      </c>
+      <c r="X9" t="s">
         <v>599</v>
-      </c>
-      <c r="X9" t="s">
-        <v>602</v>
       </c>
       <c r="Y9">
         <v>350000</v>
@@ -4235,7 +4263,7 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C10">
         <v>5606</v>
@@ -4249,7 +4277,7 @@
       <c r="G10">
         <v>16</v>
       </c>
-      <c r="H10" s="24">
+      <c r="H10" s="23">
         <v>47910</v>
       </c>
       <c r="I10">
@@ -4259,13 +4287,13 @@
         <v>39</v>
       </c>
       <c r="M10" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="N10" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="X10" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
@@ -4283,7 +4311,7 @@
       <c r="G11">
         <v>17</v>
       </c>
-      <c r="H11" s="24">
+      <c r="H11" s="23">
         <v>48276</v>
       </c>
       <c r="I11">
@@ -4293,13 +4321,13 @@
         <v>40</v>
       </c>
       <c r="M11" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="N11" t="s">
+        <v>602</v>
+      </c>
+      <c r="X11" t="s">
         <v>605</v>
-      </c>
-      <c r="X11" t="s">
-        <v>608</v>
       </c>
       <c r="Y11">
         <v>270000</v>
@@ -4307,19 +4335,19 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="C12">
         <f>(C1-C11)</f>
         <v>16943.86</v>
       </c>
       <c r="F12" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="G12">
         <v>18</v>
       </c>
-      <c r="H12" s="24">
+      <c r="H12" s="23">
         <v>48641</v>
       </c>
       <c r="I12">
@@ -4329,13 +4357,13 @@
         <v>41</v>
       </c>
       <c r="M12" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="N12" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="X12" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="Y12">
         <v>120000</v>
@@ -4343,12 +4371,12 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="G13">
         <v>19</v>
       </c>
-      <c r="H13" s="24">
+      <c r="H13" s="23">
         <v>49006</v>
       </c>
       <c r="I13">
@@ -4358,13 +4386,13 @@
         <v>42</v>
       </c>
       <c r="M13" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="N13" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="X13" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="Y13">
         <v>500000</v>
@@ -4372,12 +4400,12 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="G14">
         <v>20</v>
       </c>
-      <c r="H14" s="24">
+      <c r="H14" s="23">
         <v>49371</v>
       </c>
       <c r="I14">
@@ -4390,7 +4418,7 @@
         <v>90</v>
       </c>
       <c r="X14" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="Y14">
         <v>80000</v>
@@ -4398,12 +4426,12 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="G15">
         <v>21</v>
       </c>
-      <c r="H15" s="24">
+      <c r="H15" s="23">
         <v>49737</v>
       </c>
       <c r="I15">
@@ -4413,7 +4441,7 @@
         <v>44</v>
       </c>
       <c r="X15" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="Y15">
         <v>550000</v>
@@ -4421,12 +4449,12 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="G16">
         <v>22</v>
       </c>
-      <c r="H16" s="24">
+      <c r="H16" s="23">
         <v>50102</v>
       </c>
       <c r="I16">
@@ -4436,7 +4464,7 @@
         <v>45</v>
       </c>
       <c r="X16" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="Y16">
         <v>150000</v>
@@ -4444,19 +4472,19 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="D17">
         <f>(D5-D11)</f>
         <v>30828.61</v>
       </c>
       <c r="F17" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="G17">
         <v>23</v>
       </c>
-      <c r="H17" s="24">
+      <c r="H17" s="23">
         <v>50467</v>
       </c>
       <c r="I17">
@@ -4468,12 +4496,12 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="G18">
         <v>24</v>
       </c>
-      <c r="H18" s="24">
+      <c r="H18" s="23">
         <v>50832</v>
       </c>
       <c r="I18">
@@ -4489,18 +4517,18 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D19">
         <v>99500</v>
       </c>
       <c r="F19" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="G19">
         <v>25</v>
       </c>
-      <c r="H19" s="24">
+      <c r="H19" s="23">
         <v>51198</v>
       </c>
       <c r="I19">
@@ -4514,7 +4542,7 @@
       <c r="G20">
         <v>26</v>
       </c>
-      <c r="H20" s="24">
+      <c r="H20" s="23">
         <v>51563</v>
       </c>
       <c r="I20">
@@ -4526,7 +4554,7 @@
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="D21">
         <f>SUM(D17:D20)</f>
@@ -4535,7 +4563,7 @@
       <c r="G21">
         <v>27</v>
       </c>
-      <c r="H21" s="24">
+      <c r="H21" s="23">
         <v>51928</v>
       </c>
       <c r="I21">
@@ -4547,7 +4575,7 @@
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D22">
         <v>90403</v>
@@ -4555,7 +4583,7 @@
       <c r="G22">
         <v>28</v>
       </c>
-      <c r="H22" s="24">
+      <c r="H22" s="23">
         <v>52293</v>
       </c>
       <c r="I22">
@@ -4565,7 +4593,7 @@
         <v>51</v>
       </c>
       <c r="W22" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="X22" t="s">
         <v>364</v>
@@ -4576,7 +4604,7 @@
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="D23">
         <v>40000</v>
@@ -4584,7 +4612,7 @@
       <c r="G23">
         <v>29</v>
       </c>
-      <c r="H23" s="24">
+      <c r="H23" s="23">
         <v>52659</v>
       </c>
       <c r="I23">
@@ -4594,7 +4622,7 @@
         <v>52</v>
       </c>
       <c r="W23" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="X23" t="s">
         <v>365</v>
@@ -4605,7 +4633,7 @@
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="D24">
         <f>(D21-D22-D23)</f>
@@ -4614,7 +4642,7 @@
       <c r="G24">
         <v>30</v>
       </c>
-      <c r="H24" s="24">
+      <c r="H24" s="23">
         <v>53024</v>
       </c>
       <c r="I24">
@@ -4624,7 +4652,7 @@
         <v>53</v>
       </c>
       <c r="W24" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="X24" t="s">
         <v>366</v>
@@ -4635,7 +4663,7 @@
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="W25" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="X25" t="s">
         <v>367</v>
@@ -4646,16 +4674,16 @@
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="D26">
         <v>99500</v>
       </c>
       <c r="W26" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="X26" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="Y26">
         <v>3000</v>
@@ -4663,7 +4691,7 @@
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="X27" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="Y27">
         <v>3000</v>
@@ -4671,7 +4699,7 @@
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="D28">
         <f>SUM(D24:D27)</f>
@@ -4680,7 +4708,7 @@
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="D30">
         <v>50000</v>
@@ -4688,7 +4716,7 @@
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="D32">
         <f>(D28-D30)</f>
@@ -4697,10 +4725,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="B34" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="D34">
         <v>99500</v>
@@ -4708,10 +4736,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="B35" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="D35">
         <v>99500</v>
@@ -4746,241 +4774,241 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
-        <v>941</v>
+      <c r="A1" s="26" t="s">
+        <v>935</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>942</v>
-      </c>
-      <c r="D1" s="66" t="s">
+        <v>936</v>
+      </c>
+      <c r="D1" s="65" t="s">
+        <v>668</v>
+      </c>
+      <c r="E1" s="65"/>
+      <c r="F1" s="15" t="s">
+        <v>688</v>
+      </c>
+      <c r="G1" s="8"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="26">
+        <v>1</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>930</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>677</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>647</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="26">
+        <v>2</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>931</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>678</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>648</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>674</v>
       </c>
-      <c r="E1" s="66"/>
-      <c r="F1" s="15" t="s">
-        <v>694</v>
-      </c>
-      <c r="G1" s="8"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="27">
-        <v>1</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>936</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>683</v>
-      </c>
-      <c r="E2" s="33" t="s">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="26">
+        <v>3</v>
+      </c>
+      <c r="B4" s="54" t="s">
+        <v>564</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>679</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>649</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="26"/>
+      <c r="B5" s="54" t="s">
+        <v>565</v>
+      </c>
+      <c r="C5" t="s">
+        <v>932</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>650</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>669</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>670</v>
+      </c>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="26">
+        <v>4</v>
+      </c>
+      <c r="B6" s="54" t="s">
+        <v>566</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>672</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>651</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>671</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="26">
+        <v>5</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>567</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>652</v>
+      </c>
+      <c r="E7" s="21" t="s">
         <v>653</v>
       </c>
-      <c r="F2" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="8"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="27">
-        <v>2</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>937</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>684</v>
-      </c>
-      <c r="E3" s="33" t="s">
+      <c r="F7" s="21" t="s">
+        <v>662</v>
+      </c>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="26">
+        <v>6</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>568</v>
+      </c>
+      <c r="D8" s="21" t="s">
         <v>654</v>
       </c>
-      <c r="F3" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="27">
-        <v>3</v>
-      </c>
-      <c r="B4" s="55" t="s">
-        <v>567</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>685</v>
-      </c>
-      <c r="E4" s="33" t="s">
+      <c r="E8" s="21" t="s">
         <v>655</v>
       </c>
-      <c r="F4" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
-      <c r="B5" s="55" t="s">
-        <v>568</v>
-      </c>
-      <c r="C5" t="s">
-        <v>938</v>
-      </c>
-      <c r="D5" s="21" t="s">
+      <c r="F8" s="21" t="s">
+        <v>663</v>
+      </c>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="26">
+        <v>7</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>569</v>
+      </c>
+      <c r="D9" s="21" t="s">
         <v>656</v>
       </c>
-      <c r="E5" s="21" t="s">
-        <v>675</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>676</v>
-      </c>
-      <c r="G5" s="8"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="27">
-        <v>4</v>
-      </c>
-      <c r="B6" s="55" t="s">
-        <v>569</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>678</v>
-      </c>
-      <c r="E6" s="21" t="s">
+      <c r="E9" s="21" t="s">
         <v>657</v>
       </c>
-      <c r="F6" s="21" t="s">
-        <v>677</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="27">
-        <v>5</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>570</v>
-      </c>
-      <c r="D7" s="21" t="s">
+      <c r="F9" s="21" t="s">
+        <v>664</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="26">
+        <v>8</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>557</v>
+      </c>
+      <c r="D10" s="15" t="s">
         <v>658</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E10" s="15" t="s">
         <v>659</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>668</v>
-      </c>
-      <c r="G7" s="8"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="27">
-        <v>6</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>571</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>660</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>661</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>669</v>
-      </c>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="27">
-        <v>7</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>572</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>662</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>663</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>670</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="27">
-        <v>8</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>559</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>664</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>665</v>
       </c>
       <c r="F10" s="15" t="s">
         <v>495</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="27">
+      <c r="A11" s="26">
         <v>9</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="F11" s="15" t="s">
         <v>495</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="27">
+      <c r="A12" s="26">
         <v>10</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>558</v>
-      </c>
-      <c r="C12" s="52" t="s">
-        <v>676</v>
+        <v>556</v>
+      </c>
+      <c r="C12" s="51" t="s">
+        <v>670</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="27">
+      <c r="A13" s="26">
         <v>11</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
@@ -4990,170 +5018,170 @@
       <c r="G13" s="8"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="27">
+      <c r="A14" s="26">
         <v>12</v>
       </c>
       <c r="B14" s="20" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="26">
+        <v>13</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>561</v>
+      </c>
+      <c r="D15" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="26">
+        <v>14</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>563</v>
+      </c>
+      <c r="D16" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="26">
+        <v>15</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>940</v>
+      </c>
+      <c r="D17" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="26">
+        <v>16</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>941</v>
+      </c>
+      <c r="D18" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="26">
+        <v>17</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>942</v>
+      </c>
+      <c r="D19" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="26">
+        <v>18</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="26">
+        <v>19</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>944</v>
+      </c>
+      <c r="D21" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="26">
+        <v>20</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="27">
-        <v>13</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>563</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="D22" t="s">
         <v>978</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="27">
-        <v>14</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>566</v>
-      </c>
-      <c r="D16" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="27">
-        <v>15</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>946</v>
-      </c>
-      <c r="D17" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="27">
-        <v>16</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>947</v>
-      </c>
-      <c r="D18" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="27">
-        <v>17</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>948</v>
-      </c>
-      <c r="D19" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="27">
-        <v>18</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="27">
-        <v>19</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>950</v>
-      </c>
-      <c r="D21" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="27">
-        <v>20</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="D22" t="s">
-        <v>984</v>
-      </c>
-    </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="27">
+      <c r="A23" s="26">
         <v>21</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>495</v>
       </c>
       <c r="D23" t="s">
-        <v>985</v>
+        <v>979</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="27">
+      <c r="A24" s="26">
         <v>22</v>
       </c>
-      <c r="B24" s="53" t="s">
-        <v>943</v>
+      <c r="B24" s="52" t="s">
+        <v>937</v>
       </c>
       <c r="D24" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="27"/>
+      <c r="A25" s="26"/>
       <c r="B25" s="8" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="D25" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="27"/>
+      <c r="A26" s="26"/>
       <c r="B26" s="8" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="D26" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="27"/>
+      <c r="A27" s="26"/>
       <c r="B27" s="8"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="27"/>
+      <c r="A28" s="26"/>
       <c r="B28" s="8"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="27"/>
+      <c r="A29" s="26"/>
       <c r="B29" s="8"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="27"/>
+      <c r="A30" s="26"/>
       <c r="B30" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="27"/>
+      <c r="A31" s="26"/>
       <c r="B31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="27"/>
+      <c r="A32" s="26"/>
       <c r="B32" s="8"/>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="51" t="s">
-        <v>939</v>
+      <c r="B35" s="50" t="s">
+        <v>933</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="51" t="s">
-        <v>940</v>
+      <c r="B36" s="50" t="s">
+        <v>934</v>
       </c>
     </row>
   </sheetData>
@@ -5175,8 +5203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="Y14" sqref="Y14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7562,36 +7590,36 @@
         <v>548</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="J1"/>
       <c r="K1"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35">
+      <c r="A2" s="34">
         <v>44567</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>554</v>
       </c>
-      <c r="C2" s="61" t="s">
-        <v>744</v>
-      </c>
-      <c r="D2" s="36"/>
+      <c r="C2" s="60" t="s">
+        <v>738</v>
+      </c>
+      <c r="D2" s="35"/>
       <c r="E2" s="12" t="s">
-        <v>745</v>
-      </c>
-      <c r="G2" s="37">
+        <v>739</v>
+      </c>
+      <c r="G2" s="36">
         <v>1</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="J2">
         <v>23</v>
@@ -7604,22 +7632,22 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="35">
+      <c r="A3" s="34">
         <v>44568</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>555</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="38"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="37"/>
       <c r="E3" s="12" t="s">
-        <v>747</v>
-      </c>
-      <c r="G3" s="39">
+        <v>741</v>
+      </c>
+      <c r="G3" s="38">
         <v>2</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -7632,22 +7660,22 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="35">
+      <c r="A4" s="34">
         <v>44569</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>549</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="38"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="37"/>
       <c r="E4" s="12" t="s">
-        <v>749</v>
-      </c>
-      <c r="G4" s="37">
+        <v>743</v>
+      </c>
+      <c r="G4" s="36">
         <v>3</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -7660,24 +7688,24 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="35">
+      <c r="A5" s="34">
         <v>44570</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>550</v>
       </c>
-      <c r="C5" s="40" t="s">
-        <v>750</v>
-      </c>
-      <c r="D5" s="40"/>
+      <c r="C5" s="39" t="s">
+        <v>744</v>
+      </c>
+      <c r="D5" s="39"/>
       <c r="E5" s="12" t="s">
-        <v>751</v>
-      </c>
-      <c r="G5" s="37">
+        <v>745</v>
+      </c>
+      <c r="G5" s="36">
         <v>4</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="J5">
         <v>2</v>
@@ -7690,24 +7718,24 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="41">
+      <c r="A6" s="40">
         <v>44571</v>
       </c>
       <c r="B6" s="20" t="s">
         <v>551</v>
       </c>
-      <c r="C6" s="63" t="s">
-        <v>753</v>
-      </c>
-      <c r="D6" s="42"/>
+      <c r="C6" s="62" t="s">
+        <v>747</v>
+      </c>
+      <c r="D6" s="41"/>
       <c r="E6" s="20" t="s">
-        <v>754</v>
-      </c>
-      <c r="G6" s="27">
+        <v>748</v>
+      </c>
+      <c r="G6" s="26">
         <v>5</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="J6">
         <v>3</v>
@@ -7720,22 +7748,22 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="41">
+      <c r="A7" s="40">
         <v>44572</v>
       </c>
       <c r="B7" s="20" t="s">
         <v>552</v>
       </c>
-      <c r="C7" s="63"/>
-      <c r="D7" s="42"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="41"/>
       <c r="E7" s="20" t="s">
-        <v>756</v>
-      </c>
-      <c r="G7" s="27">
+        <v>750</v>
+      </c>
+      <c r="G7" s="26">
         <v>6</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="J7">
         <v>4</v>
@@ -7754,18 +7782,18 @@
       <c r="B8" s="8" t="s">
         <v>553</v>
       </c>
-      <c r="C8" s="63"/>
-      <c r="D8" s="43" t="s">
-        <v>742</v>
+      <c r="C8" s="62"/>
+      <c r="D8" s="42" t="s">
+        <v>736</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>758</v>
-      </c>
-      <c r="G8" s="27">
+        <v>752</v>
+      </c>
+      <c r="G8" s="26">
         <v>7</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="J8">
         <v>5</v>
@@ -7784,18 +7812,18 @@
       <c r="B9" s="8" t="s">
         <v>554</v>
       </c>
-      <c r="C9" s="63"/>
-      <c r="D9" s="43" t="s">
-        <v>742</v>
+      <c r="C9" s="62"/>
+      <c r="D9" s="42" t="s">
+        <v>736</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>758</v>
-      </c>
-      <c r="G9" s="27">
+        <v>752</v>
+      </c>
+      <c r="G9" s="26">
         <v>8</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="J9">
         <v>6</v>
@@ -7814,18 +7842,18 @@
       <c r="B10" s="8" t="s">
         <v>555</v>
       </c>
-      <c r="C10" s="63"/>
-      <c r="D10" s="43" t="s">
-        <v>742</v>
+      <c r="C10" s="62"/>
+      <c r="D10" s="42" t="s">
+        <v>736</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>758</v>
-      </c>
-      <c r="G10" s="27">
+        <v>752</v>
+      </c>
+      <c r="G10" s="26">
         <v>9</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="J10">
         <v>7</v>
@@ -7844,18 +7872,18 @@
       <c r="B11" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="C11" s="63"/>
-      <c r="D11" s="43" t="s">
-        <v>742</v>
+      <c r="C11" s="62"/>
+      <c r="D11" s="42" t="s">
+        <v>736</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>762</v>
-      </c>
-      <c r="G11" s="27">
+        <v>756</v>
+      </c>
+      <c r="G11" s="26">
         <v>10</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="J11">
         <v>8</v>
@@ -7874,18 +7902,18 @@
       <c r="B12" s="8" t="s">
         <v>550</v>
       </c>
-      <c r="C12" s="63"/>
-      <c r="D12" s="43" t="s">
-        <v>742</v>
+      <c r="C12" s="62"/>
+      <c r="D12" s="42" t="s">
+        <v>736</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>763</v>
-      </c>
-      <c r="G12" s="27">
+        <v>757</v>
+      </c>
+      <c r="G12" s="26">
         <v>11</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="J12">
         <v>9</v>
@@ -7894,7 +7922,7 @@
         <v>10</v>
       </c>
       <c r="L12" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7904,18 +7932,18 @@
       <c r="B13" s="8" t="s">
         <v>551</v>
       </c>
-      <c r="C13" s="63"/>
-      <c r="D13" s="43" t="s">
-        <v>742</v>
+      <c r="C13" s="62"/>
+      <c r="D13" s="42" t="s">
+        <v>736</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>766</v>
-      </c>
-      <c r="G13" s="27">
+        <v>760</v>
+      </c>
+      <c r="G13" s="26">
         <v>12</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="J13">
         <v>10</v>
@@ -7934,18 +7962,18 @@
       <c r="B14" s="8" t="s">
         <v>552</v>
       </c>
-      <c r="C14" s="63"/>
-      <c r="D14" s="43" t="s">
-        <v>742</v>
+      <c r="C14" s="62"/>
+      <c r="D14" s="42" t="s">
+        <v>736</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>767</v>
-      </c>
-      <c r="G14" s="27">
+        <v>761</v>
+      </c>
+      <c r="G14" s="26">
         <v>13</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="J14">
         <v>11</v>
@@ -7964,18 +7992,18 @@
       <c r="B15" s="8" t="s">
         <v>553</v>
       </c>
-      <c r="C15" s="63"/>
-      <c r="D15" s="43" t="s">
-        <v>742</v>
+      <c r="C15" s="62"/>
+      <c r="D15" s="42" t="s">
+        <v>736</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>769</v>
-      </c>
-      <c r="G15" s="27">
+        <v>763</v>
+      </c>
+      <c r="G15" s="26">
         <v>14</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="J15">
         <v>12</v>
@@ -7994,18 +8022,18 @@
       <c r="B16" s="8" t="s">
         <v>554</v>
       </c>
-      <c r="C16" s="63"/>
-      <c r="D16" s="43" t="s">
-        <v>742</v>
+      <c r="C16" s="62"/>
+      <c r="D16" s="42" t="s">
+        <v>736</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>771</v>
-      </c>
-      <c r="G16" s="27">
+        <v>765</v>
+      </c>
+      <c r="G16" s="26">
         <v>15</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="J16">
         <v>13</v>
@@ -8024,18 +8052,18 @@
       <c r="B17" s="8" t="s">
         <v>555</v>
       </c>
-      <c r="C17" s="63"/>
-      <c r="D17" s="43" t="s">
-        <v>742</v>
+      <c r="C17" s="62"/>
+      <c r="D17" s="42" t="s">
+        <v>736</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>773</v>
-      </c>
-      <c r="G17" s="27">
+        <v>767</v>
+      </c>
+      <c r="G17" s="26">
         <v>16</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="J17">
         <v>14</v>
@@ -8054,18 +8082,18 @@
       <c r="B18" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="C18" s="63"/>
-      <c r="D18" s="43" t="s">
-        <v>742</v>
+      <c r="C18" s="62"/>
+      <c r="D18" s="42" t="s">
+        <v>736</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>775</v>
-      </c>
-      <c r="G18" s="27">
+        <v>769</v>
+      </c>
+      <c r="G18" s="26">
         <v>17</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="J18">
         <v>15</v>
@@ -8084,18 +8112,18 @@
       <c r="B19" s="8" t="s">
         <v>550</v>
       </c>
-      <c r="C19" s="63"/>
-      <c r="D19" s="43" t="s">
-        <v>742</v>
+      <c r="C19" s="62"/>
+      <c r="D19" s="42" t="s">
+        <v>736</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>777</v>
-      </c>
-      <c r="G19" s="27">
+        <v>771</v>
+      </c>
+      <c r="G19" s="26">
         <v>18</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="J19">
         <v>16</v>
@@ -8114,12 +8142,12 @@
       <c r="B20" s="8" t="s">
         <v>551</v>
       </c>
-      <c r="C20" s="63"/>
-      <c r="D20" s="43" t="s">
-        <v>742</v>
+      <c r="C20" s="62"/>
+      <c r="D20" s="42" t="s">
+        <v>736</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="J20">
         <v>17</v>
@@ -8138,12 +8166,12 @@
       <c r="B21" s="8" t="s">
         <v>552</v>
       </c>
-      <c r="C21" s="63"/>
-      <c r="D21" s="43" t="s">
-        <v>742</v>
+      <c r="C21" s="62"/>
+      <c r="D21" s="42" t="s">
+        <v>736</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="J21">
         <v>18</v>
@@ -8162,12 +8190,12 @@
       <c r="B22" s="8" t="s">
         <v>553</v>
       </c>
-      <c r="C22" s="63"/>
-      <c r="D22" s="43" t="s">
-        <v>742</v>
+      <c r="C22" s="62"/>
+      <c r="D22" s="42" t="s">
+        <v>736</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="J22">
         <v>19</v>
@@ -8186,12 +8214,12 @@
       <c r="B23" s="8" t="s">
         <v>554</v>
       </c>
-      <c r="C23" s="63"/>
-      <c r="D23" s="43" t="s">
-        <v>742</v>
+      <c r="C23" s="62"/>
+      <c r="D23" s="42" t="s">
+        <v>736</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="J23">
         <v>20</v>
@@ -8210,12 +8238,12 @@
       <c r="B24" s="8" t="s">
         <v>555</v>
       </c>
-      <c r="C24" s="63"/>
-      <c r="D24" s="43" t="s">
-        <v>742</v>
+      <c r="C24" s="62"/>
+      <c r="D24" s="42" t="s">
+        <v>736</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="J24">
         <v>21</v>
@@ -8234,10 +8262,10 @@
       <c r="B25" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="C25" s="63"/>
-      <c r="D25" s="43"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="42"/>
       <c r="E25" s="8" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="J25">
         <v>22</v>
@@ -8256,10 +8284,10 @@
       <c r="B26" s="8" t="s">
         <v>550</v>
       </c>
-      <c r="C26" s="63"/>
-      <c r="D26" s="43"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="42"/>
       <c r="E26" s="8" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="J26"/>
       <c r="K26"/>
@@ -8271,10 +8299,10 @@
       <c r="B27" s="8" t="s">
         <v>551</v>
       </c>
-      <c r="C27" s="63"/>
-      <c r="D27" s="43"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="42"/>
       <c r="E27" s="8" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="J27"/>
       <c r="K27"/>
@@ -8286,10 +8314,10 @@
       <c r="B28" s="8" t="s">
         <v>552</v>
       </c>
-      <c r="C28" s="63"/>
-      <c r="D28" s="43"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="42"/>
       <c r="E28" s="8" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="J28"/>
       <c r="K28"/>
@@ -8301,10 +8329,10 @@
       <c r="B29" s="8" t="s">
         <v>553</v>
       </c>
-      <c r="C29" s="63"/>
-      <c r="D29" s="43"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="42"/>
       <c r="E29" s="8" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="J29"/>
       <c r="K29"/>
@@ -8316,10 +8344,10 @@
       <c r="B30" s="8" t="s">
         <v>554</v>
       </c>
-      <c r="C30" s="63"/>
-      <c r="D30" s="43"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="42"/>
       <c r="E30" s="8" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="J30"/>
       <c r="K30"/>
@@ -8331,10 +8359,10 @@
       <c r="B31" s="8" t="s">
         <v>555</v>
       </c>
-      <c r="C31" s="63"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="44" t="s">
-        <v>790</v>
+      <c r="C31" s="62"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="43" t="s">
+        <v>784</v>
       </c>
       <c r="J31"/>
       <c r="K31"/>
@@ -8346,10 +8374,10 @@
       <c r="B32" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="C32" s="64"/>
-      <c r="D32" s="43"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="42"/>
       <c r="E32" s="8" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="J32"/>
       <c r="K32"/>
@@ -8361,14 +8389,14 @@
       <c r="B33" s="8" t="s">
         <v>550</v>
       </c>
-      <c r="C33" s="65" t="s">
-        <v>792</v>
-      </c>
-      <c r="D33" s="45" t="s">
-        <v>793</v>
+      <c r="C33" s="64" t="s">
+        <v>786</v>
+      </c>
+      <c r="D33" s="44" t="s">
+        <v>787</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="J33"/>
       <c r="K33"/>
@@ -8380,12 +8408,12 @@
       <c r="B34" s="8" t="s">
         <v>551</v>
       </c>
-      <c r="C34" s="63"/>
-      <c r="D34" s="45" t="s">
-        <v>793</v>
+      <c r="C34" s="62"/>
+      <c r="D34" s="44" t="s">
+        <v>787</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="J34"/>
       <c r="K34"/>
@@ -8397,12 +8425,12 @@
       <c r="B35" s="8" t="s">
         <v>552</v>
       </c>
-      <c r="C35" s="63"/>
-      <c r="D35" s="45" t="s">
-        <v>793</v>
+      <c r="C35" s="62"/>
+      <c r="D35" s="44" t="s">
+        <v>787</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -8412,12 +8440,12 @@
       <c r="B36" s="8" t="s">
         <v>553</v>
       </c>
-      <c r="C36" s="63"/>
-      <c r="D36" s="45" t="s">
-        <v>793</v>
+      <c r="C36" s="62"/>
+      <c r="D36" s="44" t="s">
+        <v>787</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -8427,12 +8455,12 @@
       <c r="B37" s="8" t="s">
         <v>554</v>
       </c>
-      <c r="C37" s="64"/>
-      <c r="D37" s="45" t="s">
-        <v>793</v>
+      <c r="C37" s="63"/>
+      <c r="D37" s="44" t="s">
+        <v>787</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -8443,8 +8471,8 @@
         <v>555</v>
       </c>
       <c r="C38" s="8"/>
-      <c r="D38" s="45" t="s">
-        <v>793</v>
+      <c r="D38" s="44" t="s">
+        <v>787</v>
       </c>
       <c r="E38" s="8" t="s">
         <v>40</v>
@@ -8458,11 +8486,11 @@
         <v>549</v>
       </c>
       <c r="C39" s="8"/>
-      <c r="D39" s="45" t="s">
-        <v>793</v>
+      <c r="D39" s="44" t="s">
+        <v>787</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -8473,11 +8501,11 @@
         <v>550</v>
       </c>
       <c r="C40" s="8"/>
-      <c r="D40" s="45" t="s">
-        <v>793</v>
+      <c r="D40" s="44" t="s">
+        <v>787</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -8488,11 +8516,11 @@
         <v>551</v>
       </c>
       <c r="C41" s="8"/>
-      <c r="D41" s="45" t="s">
-        <v>793</v>
+      <c r="D41" s="44" t="s">
+        <v>787</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
     </row>
   </sheetData>
@@ -8525,410 +8553,410 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="46" t="s">
+        <v>793</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="48" t="s">
+        <v>794</v>
+      </c>
+      <c r="E1" s="49" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="26">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>796</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>797</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>798</v>
+      </c>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="26">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>799</v>
       </c>
-      <c r="C1" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="49" t="s">
+      <c r="C3" s="8" t="s">
         <v>800</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="D3" s="8" t="s">
         <v>801</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="27">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8" t="s">
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="26">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>802</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C4" s="8" t="s">
         <v>803</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D4" s="15" t="s">
         <v>804</v>
       </c>
-      <c r="E2" s="8"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="27">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8" t="s">
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="26">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>805</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C5" s="8" t="s">
         <v>806</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D5" s="8" t="s">
         <v>807</v>
       </c>
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="27">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8" t="s">
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="26">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>808</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C6" s="8" t="s">
         <v>809</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>810</v>
-      </c>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="27">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>811</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>812</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>813</v>
-      </c>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="27">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>814</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>815</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="27">
+      <c r="A7" s="26">
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="27">
+      <c r="A8" s="26">
         <v>7</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="27">
+      <c r="A9" s="26">
         <v>8</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="27">
+      <c r="A10" s="26">
         <v>9</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="27">
+      <c r="A11" s="26">
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="E11" s="8"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="27">
+      <c r="A12" s="26">
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="27">
+      <c r="A13" s="26">
         <v>12</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="8" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="27">
+      <c r="A14" s="26">
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="27">
+      <c r="A16" s="26">
         <v>14</v>
       </c>
       <c r="B16" s="8" t="s">
+        <v>825</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>826</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>827</v>
+      </c>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="26">
+        <v>15</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>828</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>716</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="26">
+        <v>16</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>830</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>831</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>832</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>833</v>
-      </c>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="27">
-        <v>15</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>834</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>722</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>835</v>
-      </c>
-      <c r="E17" s="8"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="27">
-        <v>16</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>836</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>837</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="27">
+      <c r="A19" s="26">
         <v>17</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="E19" s="8"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="27"/>
+      <c r="A20" s="26"/>
       <c r="B20" s="8"/>
       <c r="C20" s="15" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="E20" s="8"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="27"/>
+      <c r="A21" s="26"/>
       <c r="B21" s="8"/>
       <c r="C21" s="15" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="27">
+      <c r="A22" s="26">
         <v>18</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="E22" s="8"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="27"/>
+      <c r="A23" s="26"/>
       <c r="B23" s="8"/>
       <c r="C23" s="15" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="27">
+      <c r="A24" s="26">
         <v>19</v>
       </c>
       <c r="B24" s="8" t="s">
+        <v>841</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>842</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>843</v>
+      </c>
+      <c r="E24" s="8"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="26">
+        <v>20</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>844</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>845</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>846</v>
+      </c>
+      <c r="E25" s="8"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="26">
+        <v>21</v>
+      </c>
+      <c r="B26" s="8" t="s">
         <v>847</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C26" s="8" t="s">
         <v>848</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D26" s="8" t="s">
         <v>849</v>
       </c>
-      <c r="E24" s="8"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="27">
-        <v>20</v>
-      </c>
-      <c r="B25" s="8" t="s">
+      <c r="E26" s="8"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="26">
+        <v>22</v>
+      </c>
+      <c r="B27" s="8" t="s">
         <v>850</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C27" s="8" t="s">
         <v>851</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D27" s="8" t="s">
         <v>852</v>
       </c>
-      <c r="E25" s="8"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="27">
-        <v>21</v>
-      </c>
-      <c r="B26" s="8" t="s">
+      <c r="E27" s="8"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="26">
+        <v>23</v>
+      </c>
+      <c r="B28" s="8" t="s">
         <v>853</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C28" s="8" t="s">
         <v>854</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D28" s="8" t="s">
         <v>855</v>
       </c>
-      <c r="E26" s="8"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="27">
-        <v>22</v>
-      </c>
-      <c r="B27" s="8" t="s">
+      <c r="E28" s="8"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="26">
+        <v>24</v>
+      </c>
+      <c r="B29" s="8" t="s">
         <v>856</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C29" s="8" t="s">
         <v>857</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D29" s="8" t="s">
         <v>858</v>
       </c>
-      <c r="E27" s="8"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="27">
-        <v>23</v>
-      </c>
-      <c r="B28" s="8" t="s">
+      <c r="E29" s="8"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="26">
+        <v>25</v>
+      </c>
+      <c r="B30" s="8" t="s">
         <v>859</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C30" s="8" t="s">
         <v>860</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D30" s="8" t="s">
         <v>861</v>
-      </c>
-      <c r="E28" s="8"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="27">
-        <v>24</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>862</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>863</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>864</v>
-      </c>
-      <c r="E29" s="8"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="27">
-        <v>25</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>865</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>866</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>867</v>
       </c>
       <c r="E30" s="8"/>
       <c r="H30">
@@ -8936,35 +8964,35 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="27">
+      <c r="A31" s="26">
         <v>26</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="E31" s="8"/>
       <c r="H31">
         <v>2005</v>
       </c>
       <c r="I31" t="s">
-        <v>970</v>
+        <v>964</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="27">
+      <c r="A32" s="26">
         <v>27</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -8973,12 +9001,12 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="27"/>
+      <c r="A33" s="26"/>
       <c r="B33" s="8" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -8986,16 +9014,16 @@
         <v>2007</v>
       </c>
       <c r="I33" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="27"/>
+      <c r="A34" s="26"/>
       <c r="B34" s="8" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -9003,18 +9031,18 @@
         <v>2008</v>
       </c>
       <c r="I34" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="27">
+      <c r="A35" s="26">
         <v>28</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -9022,123 +9050,123 @@
         <v>2009</v>
       </c>
       <c r="I35" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="27">
+      <c r="A36" s="26">
         <v>29</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="E36" s="8"/>
       <c r="H36">
         <v>2010</v>
       </c>
       <c r="I36" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="27">
+      <c r="A37" s="26">
         <v>30</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="E37" s="8"/>
       <c r="H37">
         <v>2011</v>
       </c>
       <c r="I37" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="27"/>
+      <c r="A38" s="26"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="E38" s="8"/>
       <c r="G38" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="H38">
         <v>2012</v>
       </c>
       <c r="I38" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="27">
+      <c r="A39" s="26">
         <v>31</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="E39" s="8"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="27">
+      <c r="A40" s="26">
         <v>32</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>544</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="E40" s="8"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="27">
+      <c r="A41" s="26">
         <v>33</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="E41" s="8"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="27">
+      <c r="A42" s="26">
         <v>34</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -9147,10 +9175,10 @@
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="E43" s="8"/>
     </row>
@@ -9158,274 +9186,274 @@
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="E44" s="8"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="27">
+      <c r="A45" s="26">
         <v>34</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="27">
+      <c r="A46" s="26">
         <v>35</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="27"/>
+      <c r="A47" s="26"/>
       <c r="B47" s="8" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="27">
+      <c r="A48" s="26">
         <v>36</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="27">
+      <c r="A49" s="26">
         <v>37</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="E49" s="8"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="27">
+      <c r="A50" s="26">
         <v>38</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="27"/>
+      <c r="A51" s="26"/>
       <c r="B51" s="8" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="27">
+      <c r="A52" s="26">
         <v>39</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="27">
+      <c r="A53" s="26">
         <v>40</v>
       </c>
       <c r="B53" s="8" t="s">
+        <v>909</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>910</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>911</v>
+      </c>
+      <c r="E53" s="8"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="26">
+        <v>41</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>912</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>913</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>914</v>
+      </c>
+      <c r="E54" s="8"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="26">
+        <v>42</v>
+      </c>
+      <c r="B55" s="8" t="s">
         <v>915</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C55" s="8" t="s">
         <v>916</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>917</v>
-      </c>
-      <c r="E53" s="8"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="27">
-        <v>41</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>918</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>919</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>920</v>
-      </c>
-      <c r="E54" s="8"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="27">
-        <v>42</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>921</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>922</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="27">
+      <c r="A56" s="26">
         <v>43</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="27">
+      <c r="A57" s="26">
         <v>44</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="27">
+      <c r="A58" s="26">
         <v>45</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="E58" s="8"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="27"/>
+      <c r="A59" s="26"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="27"/>
+      <c r="A60" s="26"/>
       <c r="B60" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="27"/>
+      <c r="A61" s="26"/>
       <c r="B61" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="27"/>
+      <c r="A62" s="26"/>
       <c r="B62" t="s">
-        <v>932</v>
+        <v>926</v>
       </c>
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="27"/>
+      <c r="A63" s="26"/>
       <c r="B63" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="27"/>
+      <c r="A64" s="26"/>
       <c r="B64" t="s">
-        <v>934</v>
+        <v>928</v>
       </c>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="27"/>
+      <c r="A65" s="26"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="27"/>
+      <c r="A66" s="26"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="27"/>
+      <c r="A67" s="26"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="27"/>
+      <c r="A68" s="26"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
@@ -11320,1101 +11348,1067 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G88"/>
+  <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="55" customWidth="1"/>
-    <col min="4" max="4" width="41.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55" customWidth="1"/>
+    <col min="5" max="5" width="41.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B1" t="s">
         <v>357</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>548</v>
       </c>
-      <c r="C1" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="22">
-        <v>44590</v>
-      </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="22">
+        <v>44617</v>
+      </c>
+      <c r="C2" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="67">
+        <v>44618</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="E2">
+      <c r="D3" s="3" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="22">
+        <v>44619</v>
+      </c>
+      <c r="C4" t="s">
+        <v>550</v>
+      </c>
+      <c r="D4" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="22">
+        <v>44620</v>
+      </c>
+      <c r="C5" t="s">
+        <v>551</v>
+      </c>
+      <c r="D5" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="22">
+        <v>44621</v>
+      </c>
+      <c r="C6" t="s">
+        <v>552</v>
+      </c>
+      <c r="D6" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="22">
+        <v>44622</v>
+      </c>
+      <c r="C7" t="s">
+        <v>553</v>
+      </c>
+      <c r="D7" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="22">
+        <v>44623</v>
+      </c>
+      <c r="C8" t="s">
+        <v>554</v>
+      </c>
+      <c r="D8" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="22">
+        <v>44624</v>
+      </c>
+      <c r="C9" t="s">
+        <v>555</v>
+      </c>
+      <c r="D9" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="22">
+        <v>44625</v>
+      </c>
+      <c r="C10" t="s">
+        <v>549</v>
+      </c>
+      <c r="D10" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="22">
+        <v>44626</v>
+      </c>
+      <c r="C11" t="s">
+        <v>550</v>
+      </c>
+      <c r="D11" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="22">
+        <v>44627</v>
+      </c>
+      <c r="C12" t="s">
+        <v>551</v>
+      </c>
+      <c r="D12" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="22">
-        <v>44591</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B13" s="22">
+        <v>44628</v>
+      </c>
+      <c r="C13" t="s">
+        <v>552</v>
+      </c>
+      <c r="D13" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="22">
+        <v>44629</v>
+      </c>
+      <c r="C14" t="s">
+        <v>553</v>
+      </c>
+      <c r="D14" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="22">
+        <v>44630</v>
+      </c>
+      <c r="C15" t="s">
+        <v>554</v>
+      </c>
+      <c r="D15" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="22">
+        <v>44631</v>
+      </c>
+      <c r="C16" t="s">
+        <v>555</v>
+      </c>
+      <c r="D16" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="22">
+        <v>44632</v>
+      </c>
+      <c r="C17" t="s">
+        <v>549</v>
+      </c>
+      <c r="D17" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="22">
+        <v>44633</v>
+      </c>
+      <c r="C18" t="s">
         <v>550</v>
       </c>
-      <c r="C3" t="s">
-        <v>558</v>
-      </c>
-      <c r="D3" t="s">
-        <v>629</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="22">
-        <v>44592</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D18" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="22">
+        <v>44634</v>
+      </c>
+      <c r="C19" t="s">
         <v>551</v>
       </c>
-      <c r="C4" t="s">
-        <v>558</v>
-      </c>
-      <c r="D4" t="s">
-        <v>630</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="G4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="22">
-        <v>44593</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="D19" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="22">
+        <v>44635</v>
+      </c>
+      <c r="C20" t="s">
         <v>552</v>
       </c>
-      <c r="C5" t="s">
-        <v>559</v>
-      </c>
-      <c r="D5" t="s">
-        <v>633</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>4</v>
-      </c>
-      <c r="G5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="22">
-        <v>44594</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="D20" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="22">
+        <v>44636</v>
+      </c>
+      <c r="C21" t="s">
         <v>553</v>
       </c>
-      <c r="C6" t="s">
-        <v>559</v>
-      </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
-      <c r="F6">
-        <v>5</v>
-      </c>
-      <c r="G6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="22">
-        <v>44595</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="D21" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="22">
+        <v>44637</v>
+      </c>
+      <c r="C22" t="s">
         <v>554</v>
       </c>
-      <c r="C7" t="s">
-        <v>559</v>
-      </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-      <c r="F7">
-        <v>6</v>
-      </c>
-      <c r="G7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="22">
-        <v>44596</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="D22" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="22">
+        <v>44638</v>
+      </c>
+      <c r="C23" t="s">
         <v>555</v>
       </c>
-      <c r="C8" t="s">
-        <v>559</v>
-      </c>
-      <c r="E8">
-        <v>6</v>
-      </c>
-      <c r="F8">
-        <v>7</v>
-      </c>
-      <c r="G8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="22">
-        <v>44597</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="D23" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="22">
+        <v>44639</v>
+      </c>
+      <c r="C24" t="s">
         <v>549</v>
       </c>
-      <c r="C9" t="s">
-        <v>559</v>
-      </c>
-      <c r="E9">
-        <v>930</v>
-      </c>
-      <c r="F9">
-        <v>1030</v>
-      </c>
-      <c r="G9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="22">
-        <v>44598</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="D24" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="22">
+        <v>44640</v>
+      </c>
+      <c r="C25" t="s">
         <v>550</v>
       </c>
-      <c r="C10" t="s">
-        <v>559</v>
-      </c>
-      <c r="E10">
-        <v>1030</v>
-      </c>
-      <c r="F10">
-        <v>1130</v>
-      </c>
-      <c r="G10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="22">
-        <v>44599</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="D25" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="22">
+        <v>44641</v>
+      </c>
+      <c r="C26" t="s">
         <v>551</v>
       </c>
-      <c r="C11" t="s">
-        <v>559</v>
-      </c>
-      <c r="E11">
-        <v>1130</v>
-      </c>
-      <c r="F11">
-        <v>1230</v>
-      </c>
-      <c r="G11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="22">
-        <v>44600</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="D26" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="22">
+        <v>44642</v>
+      </c>
+      <c r="C27" t="s">
         <v>552</v>
       </c>
-      <c r="C12" t="s">
-        <v>559</v>
-      </c>
-      <c r="E12">
-        <v>1230</v>
-      </c>
-      <c r="F12">
-        <v>130</v>
-      </c>
-      <c r="G12">
+      <c r="D27" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="22">
+        <v>44643</v>
+      </c>
+      <c r="C28" t="s">
+        <v>553</v>
+      </c>
+      <c r="D28" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="22">
+        <v>44644</v>
+      </c>
+      <c r="C29" t="s">
+        <v>554</v>
+      </c>
+      <c r="D29" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="22">
+        <v>44645</v>
+      </c>
+      <c r="C30" t="s">
+        <v>555</v>
+      </c>
+      <c r="D30" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="22">
+        <v>44646</v>
+      </c>
+      <c r="C31" t="s">
+        <v>549</v>
+      </c>
+      <c r="D31" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="22">
+        <v>44647</v>
+      </c>
+      <c r="C32" t="s">
+        <v>550</v>
+      </c>
+      <c r="D32" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="22">
-        <v>44601</v>
-      </c>
-      <c r="B13" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="22">
+        <v>44648</v>
+      </c>
+      <c r="C33" t="s">
+        <v>551</v>
+      </c>
+      <c r="D33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="22">
+        <v>44649</v>
+      </c>
+      <c r="C34" t="s">
+        <v>552</v>
+      </c>
+      <c r="D34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="22">
+        <v>44650</v>
+      </c>
+      <c r="C35" t="s">
         <v>553</v>
       </c>
-      <c r="C13" t="s">
-        <v>559</v>
-      </c>
-      <c r="E13">
-        <v>130</v>
-      </c>
-      <c r="F13">
-        <v>230</v>
-      </c>
-      <c r="G13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="22">
-        <v>44602</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="D35" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="22">
+        <v>44651</v>
+      </c>
+      <c r="C36" t="s">
         <v>554</v>
       </c>
-      <c r="C14" t="s">
-        <v>559</v>
-      </c>
-      <c r="E14">
-        <v>230</v>
-      </c>
-      <c r="F14">
-        <v>330</v>
-      </c>
-      <c r="G14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="22">
-        <v>44603</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="D36" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="22">
+        <v>44652</v>
+      </c>
+      <c r="C37" t="s">
         <v>555</v>
       </c>
-      <c r="C15" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="22">
-        <v>44604</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="D37" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="22">
+        <v>44653</v>
+      </c>
+      <c r="C38" t="s">
         <v>549</v>
       </c>
-      <c r="C16" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="22">
-        <v>44605</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="D38" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="22">
+        <v>44654</v>
+      </c>
+      <c r="C39" t="s">
         <v>550</v>
       </c>
-      <c r="C17" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="22">
-        <v>44606</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="D39" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="22">
+        <v>44655</v>
+      </c>
+      <c r="C40" t="s">
         <v>551</v>
       </c>
-      <c r="C18" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="22">
-        <v>44607</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="D40" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="22">
+        <v>44656</v>
+      </c>
+      <c r="C41" t="s">
         <v>552</v>
       </c>
-      <c r="C19" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="22">
-        <v>44608</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="D41" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="22">
+        <v>44657</v>
+      </c>
+      <c r="C42" t="s">
         <v>553</v>
       </c>
-      <c r="C20" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="22">
-        <v>44609</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="D42" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="22">
+        <v>44658</v>
+      </c>
+      <c r="C43" t="s">
         <v>554</v>
       </c>
-      <c r="C21" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="22">
-        <v>44610</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="D43" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="22">
+        <v>44659</v>
+      </c>
+      <c r="C44" t="s">
         <v>555</v>
       </c>
-      <c r="C22" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="22">
-        <v>44611</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="D44" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="22">
+        <v>44660</v>
+      </c>
+      <c r="C45" t="s">
         <v>549</v>
       </c>
-      <c r="C23" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="22">
-        <v>44612</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="D45" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="22">
+        <v>44661</v>
+      </c>
+      <c r="C46" t="s">
         <v>550</v>
       </c>
-      <c r="C24" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="22">
-        <v>44613</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="D46" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="22">
+        <v>44662</v>
+      </c>
+      <c r="C47" t="s">
         <v>551</v>
       </c>
-      <c r="C25" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="22">
-        <v>44614</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="D47" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="22">
+        <v>44663</v>
+      </c>
+      <c r="C48" t="s">
         <v>552</v>
       </c>
-      <c r="C26" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="22">
-        <v>44615</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="D48" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="22">
+        <v>44664</v>
+      </c>
+      <c r="C49" t="s">
         <v>553</v>
       </c>
-      <c r="C27" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="22">
-        <v>44616</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="D49" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="22">
+        <v>44665</v>
+      </c>
+      <c r="C50" t="s">
         <v>554</v>
       </c>
-      <c r="C28" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="22">
-        <v>44617</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="D50" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="22">
+        <v>44666</v>
+      </c>
+      <c r="C51" t="s">
         <v>555</v>
       </c>
-      <c r="C29" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="22">
-        <v>44618</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="D51" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="22">
+        <v>44667</v>
+      </c>
+      <c r="C52" t="s">
         <v>549</v>
       </c>
-      <c r="C30" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="22">
-        <v>44619</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="D52" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" s="22">
+        <v>44668</v>
+      </c>
+      <c r="C53" t="s">
         <v>550</v>
       </c>
-      <c r="C31" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="22">
-        <v>44620</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="D53" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="22">
+        <v>44669</v>
+      </c>
+      <c r="C54" t="s">
         <v>551</v>
       </c>
-      <c r="C32" s="23" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="22">
-        <v>44621</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="D54" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="22">
+        <v>44670</v>
+      </c>
+      <c r="C55" t="s">
         <v>552</v>
       </c>
-      <c r="C33" s="23" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="22">
-        <v>44622</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="D55" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="22">
+        <v>44671</v>
+      </c>
+      <c r="C56" t="s">
         <v>553</v>
       </c>
-      <c r="C34" s="23" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="22">
-        <v>44623</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="D56" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="22">
+        <v>44672</v>
+      </c>
+      <c r="C57" t="s">
         <v>554</v>
       </c>
-      <c r="C35" s="23" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="22">
-        <v>44624</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="D57" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="22">
+        <v>44673</v>
+      </c>
+      <c r="C58" t="s">
         <v>555</v>
       </c>
-      <c r="C36" s="23" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="22">
-        <v>44625</v>
-      </c>
-      <c r="B37" t="s">
+      <c r="D58" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="22">
+        <v>44674</v>
+      </c>
+      <c r="C59" t="s">
         <v>549</v>
       </c>
-      <c r="C37" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="22">
-        <v>44626</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="D59" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="22">
+        <v>44675</v>
+      </c>
+      <c r="C60" t="s">
         <v>550</v>
       </c>
-      <c r="C38" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="22">
-        <v>44627</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="D60" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="22">
+        <v>44676</v>
+      </c>
+      <c r="C61" t="s">
         <v>551</v>
       </c>
-      <c r="C39" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="22">
-        <v>44628</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="D61" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" s="22">
+        <v>44677</v>
+      </c>
+      <c r="C62" t="s">
         <v>552</v>
       </c>
-      <c r="C40" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="22">
-        <v>44629</v>
-      </c>
-      <c r="B41" t="s">
+      <c r="D62" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" s="22">
+        <v>44678</v>
+      </c>
+      <c r="C63" t="s">
         <v>553</v>
       </c>
-      <c r="C41" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="22">
-        <v>44630</v>
-      </c>
-      <c r="B42" t="s">
+      <c r="D63" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" s="22">
+        <v>44679</v>
+      </c>
+      <c r="C64" t="s">
         <v>554</v>
       </c>
-      <c r="C42" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="22">
-        <v>44631</v>
-      </c>
-      <c r="B43" t="s">
+      <c r="D64" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" s="22">
+        <v>44680</v>
+      </c>
+      <c r="C65" t="s">
         <v>555</v>
       </c>
-      <c r="C43" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="22">
-        <v>44632</v>
-      </c>
-      <c r="B44" t="s">
+      <c r="D65" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" s="22">
+        <v>44681</v>
+      </c>
+      <c r="C66" t="s">
         <v>549</v>
       </c>
-      <c r="C44" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="22">
-        <v>44633</v>
-      </c>
-      <c r="B45" t="s">
+      <c r="D66" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" s="22">
+        <v>44682</v>
+      </c>
+      <c r="C67" t="s">
         <v>550</v>
       </c>
-      <c r="C45" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="22">
-        <v>44634</v>
-      </c>
-      <c r="B46" t="s">
+      <c r="D67" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" s="22">
+        <v>44683</v>
+      </c>
+      <c r="C68" t="s">
         <v>551</v>
       </c>
-      <c r="C46" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="22">
-        <v>44635</v>
-      </c>
-      <c r="B47" t="s">
+      <c r="D68" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" s="22">
+        <v>44684</v>
+      </c>
+      <c r="C69" t="s">
         <v>552</v>
       </c>
-      <c r="C47" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="22">
-        <v>44636</v>
-      </c>
-      <c r="B48" t="s">
+      <c r="D69" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" s="22">
+        <v>44685</v>
+      </c>
+      <c r="C70" t="s">
         <v>553</v>
       </c>
-      <c r="C48" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="22">
-        <v>44637</v>
-      </c>
-      <c r="B49" t="s">
+      <c r="D70" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" s="22">
+        <v>44686</v>
+      </c>
+      <c r="C71" t="s">
         <v>554</v>
       </c>
-      <c r="C49" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="22">
-        <v>44638</v>
-      </c>
-      <c r="B50" t="s">
+      <c r="D71" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" s="22">
+        <v>44687</v>
+      </c>
+      <c r="C72" t="s">
         <v>555</v>
       </c>
-      <c r="C50" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="22">
-        <v>44639</v>
-      </c>
-      <c r="B51" t="s">
+      <c r="D72" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" s="22">
+        <v>44688</v>
+      </c>
+      <c r="C73" t="s">
         <v>549</v>
       </c>
-      <c r="C51" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="22">
-        <v>44640</v>
-      </c>
-      <c r="B52" t="s">
+      <c r="D73" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" s="22">
+        <v>44689</v>
+      </c>
+      <c r="C74" t="s">
         <v>550</v>
       </c>
-      <c r="C52" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="22">
-        <v>44641</v>
-      </c>
-      <c r="B53" t="s">
+      <c r="D74" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" s="22">
+        <v>44690</v>
+      </c>
+      <c r="C75" t="s">
         <v>551</v>
       </c>
-      <c r="C53" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="22">
-        <v>44642</v>
-      </c>
-      <c r="B54" t="s">
-        <v>552</v>
-      </c>
-      <c r="C54" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="22">
-        <v>44643</v>
-      </c>
-      <c r="B55" t="s">
-        <v>553</v>
-      </c>
-      <c r="C55" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="22">
-        <v>44644</v>
-      </c>
-      <c r="B56" t="s">
-        <v>554</v>
-      </c>
-      <c r="C56" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="22">
-        <v>44645</v>
-      </c>
-      <c r="B57" t="s">
-        <v>555</v>
-      </c>
-      <c r="C57" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="22">
-        <v>44646</v>
-      </c>
-      <c r="B58" t="s">
-        <v>549</v>
-      </c>
-      <c r="C58" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="22">
-        <v>44647</v>
-      </c>
-      <c r="B59" t="s">
-        <v>550</v>
-      </c>
-      <c r="C59" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="22">
-        <v>44648</v>
-      </c>
-      <c r="B60" t="s">
-        <v>551</v>
-      </c>
-      <c r="C60" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="22">
-        <v>44649</v>
-      </c>
-      <c r="B61" t="s">
-        <v>552</v>
-      </c>
-      <c r="C61" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="22">
-        <v>44650</v>
-      </c>
-      <c r="B62" t="s">
-        <v>553</v>
-      </c>
-      <c r="C62" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="22">
-        <v>44651</v>
-      </c>
-      <c r="B63" t="s">
-        <v>554</v>
-      </c>
-      <c r="C63" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="22">
-        <v>44652</v>
-      </c>
-      <c r="B64" t="s">
-        <v>555</v>
-      </c>
-      <c r="C64" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="22">
-        <v>44653</v>
-      </c>
-      <c r="B65" t="s">
-        <v>549</v>
-      </c>
-      <c r="C65" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="22">
-        <v>44654</v>
-      </c>
-      <c r="B66" t="s">
-        <v>550</v>
-      </c>
-      <c r="C66" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="22">
-        <v>44655</v>
-      </c>
-      <c r="B67" t="s">
-        <v>551</v>
-      </c>
-      <c r="C67" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="22">
-        <v>44656</v>
-      </c>
-      <c r="B68" t="s">
-        <v>552</v>
-      </c>
-      <c r="C68" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="22">
-        <v>44657</v>
-      </c>
-      <c r="B69" t="s">
-        <v>553</v>
-      </c>
-      <c r="C69" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="22">
-        <v>44658</v>
-      </c>
-      <c r="B70" t="s">
-        <v>554</v>
-      </c>
-      <c r="C70" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="22">
-        <v>44659</v>
-      </c>
-      <c r="B71" t="s">
-        <v>555</v>
-      </c>
-      <c r="C71" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="22">
-        <v>44660</v>
-      </c>
-      <c r="B72" t="s">
-        <v>549</v>
-      </c>
-      <c r="C72" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="22">
-        <v>44661</v>
-      </c>
-      <c r="B73" t="s">
-        <v>550</v>
-      </c>
-      <c r="C73" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="22">
-        <v>44662</v>
-      </c>
-      <c r="B74" t="s">
-        <v>551</v>
-      </c>
-      <c r="C74" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="22">
-        <v>44663</v>
-      </c>
-      <c r="B75" t="s">
-        <v>552</v>
-      </c>
-      <c r="C75" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="22">
-        <v>44664</v>
-      </c>
-      <c r="B76" t="s">
-        <v>553</v>
-      </c>
-      <c r="C76" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="22">
-        <v>44665</v>
-      </c>
-      <c r="B77" t="s">
-        <v>554</v>
-      </c>
-      <c r="C77" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="22">
-        <v>44666</v>
-      </c>
-      <c r="B78" t="s">
-        <v>555</v>
-      </c>
-      <c r="C78" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="22">
-        <v>44667</v>
-      </c>
-      <c r="B79" t="s">
-        <v>549</v>
-      </c>
-      <c r="C79" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="22">
-        <v>44668</v>
-      </c>
-      <c r="B80" t="s">
-        <v>550</v>
-      </c>
-      <c r="C80" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="22">
-        <v>44669</v>
-      </c>
-      <c r="B81" t="s">
-        <v>551</v>
-      </c>
-      <c r="C81" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="22">
-        <v>44670</v>
-      </c>
-      <c r="B82" t="s">
-        <v>552</v>
-      </c>
-      <c r="C82" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="22">
-        <v>44671</v>
-      </c>
-      <c r="B83" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="22">
-        <v>44672</v>
-      </c>
-      <c r="B84" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="22">
-        <v>44673</v>
-      </c>
-      <c r="B85" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="22">
-        <v>44674</v>
-      </c>
-      <c r="B86" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="22">
-        <v>44675</v>
-      </c>
-      <c r="B87" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="22">
-        <v>44676</v>
-      </c>
-      <c r="B88" t="s">
-        <v>551</v>
+      <c r="D75" t="s">
+        <v>967</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C32" r:id="rId1" display="https://www.udemy.com/course/learn-devops-infrastructure-automation-with-terraform/"/>
-    <hyperlink ref="C34" r:id="rId2" display="https://www.udemy.com/course/terraform-and-packer/"/>
-    <hyperlink ref="C35" r:id="rId3" display="https://www.udemy.com/course/terraform-indepth-with-7-realtime-casestudies/"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12422,8 +12416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12435,47 +12429,47 @@
     <col min="7" max="7" width="6.7109375" customWidth="1"/>
     <col min="8" max="8" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="25"/>
+    <col min="10" max="10" width="9.140625" style="24"/>
     <col min="11" max="11" width="100" style="5" customWidth="1"/>
     <col min="12" max="12" width="22.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
-        <v>674</v>
-      </c>
-      <c r="B1" s="66"/>
+      <c r="A1" s="65" t="s">
+        <v>668</v>
+      </c>
+      <c r="B1" s="65"/>
       <c r="C1" s="15" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="D1" s="8"/>
-      <c r="E1" s="67" t="s">
-        <v>698</v>
-      </c>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="27" t="s">
+      <c r="E1" s="66" t="s">
+        <v>692</v>
+      </c>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="26" t="s">
         <v>357</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="26" t="s">
         <v>548</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="26" t="s">
         <v>45</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="L1" s="8"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
-        <v>683</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>653</v>
-      </c>
-      <c r="C2" s="33" t="s">
+      <c r="A2" s="32" t="s">
+        <v>677</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>647</v>
+      </c>
+      <c r="C2" s="32" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="8"/>
@@ -12488,31 +12482,31 @@
       <c r="G2" s="8">
         <v>1</v>
       </c>
-      <c r="H2" s="30">
+      <c r="H2" s="29">
         <v>44601</v>
       </c>
-      <c r="I2" s="30" t="s">
-        <v>687</v>
-      </c>
-      <c r="K2" s="32" t="s">
-        <v>686</v>
+      <c r="I2" s="29" t="s">
+        <v>681</v>
+      </c>
+      <c r="K2" s="31" t="s">
+        <v>680</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
-        <v>684</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>654</v>
-      </c>
-      <c r="C3" s="33" t="s">
+      <c r="A3" s="32" t="s">
+        <v>678</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>648</v>
+      </c>
+      <c r="C3" s="32" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="E3" s="8">
         <v>1</v>
@@ -12523,32 +12517,32 @@
       <c r="G3" s="8">
         <v>2</v>
       </c>
-      <c r="H3" s="30">
+      <c r="H3" s="29">
         <v>44602</v>
       </c>
-      <c r="I3" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="J3" s="25" t="s">
-        <v>971</v>
-      </c>
-      <c r="K3" s="32"/>
+      <c r="I3" s="29" t="s">
+        <v>682</v>
+      </c>
+      <c r="J3" s="24" t="s">
+        <v>965</v>
+      </c>
+      <c r="K3" s="31"/>
       <c r="L3" s="15" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
-        <v>685</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>655</v>
-      </c>
-      <c r="C4" s="33" t="s">
+      <c r="A4" s="32" t="s">
+        <v>679</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>649</v>
+      </c>
+      <c r="C4" s="32" t="s">
         <v>30</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="E4" s="8">
         <v>2</v>
@@ -12559,29 +12553,29 @@
       <c r="G4" s="8">
         <v>3</v>
       </c>
-      <c r="H4" s="30">
+      <c r="H4" s="29">
         <v>44603</v>
       </c>
-      <c r="I4" s="30" t="s">
-        <v>689</v>
-      </c>
-      <c r="J4" s="25" t="s">
-        <v>971</v>
-      </c>
-      <c r="K4" s="32"/>
+      <c r="I4" s="29" t="s">
+        <v>683</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>965</v>
+      </c>
+      <c r="K4" s="31"/>
       <c r="L4" s="15" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8">
@@ -12593,29 +12587,29 @@
       <c r="G5" s="8">
         <v>4</v>
       </c>
-      <c r="H5" s="30">
+      <c r="H5" s="29">
         <v>44604</v>
       </c>
-      <c r="I5" s="30" t="s">
-        <v>690</v>
-      </c>
-      <c r="K5" s="32"/>
+      <c r="I5" s="29" t="s">
+        <v>684</v>
+      </c>
+      <c r="K5" s="31"/>
       <c r="L5" s="15" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="E6" s="8">
         <v>4</v>
@@ -12626,26 +12620,26 @@
       <c r="G6" s="8">
         <v>5</v>
       </c>
-      <c r="H6" s="30">
+      <c r="H6" s="29">
         <v>44605</v>
       </c>
-      <c r="I6" s="30" t="s">
-        <v>691</v>
-      </c>
-      <c r="K6" s="32"/>
+      <c r="I6" s="29" t="s">
+        <v>685</v>
+      </c>
+      <c r="K6" s="31"/>
       <c r="L6" s="15" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8">
@@ -12657,29 +12651,29 @@
       <c r="G7" s="8">
         <v>6</v>
       </c>
-      <c r="H7" s="30">
+      <c r="H7" s="29">
         <v>44606</v>
       </c>
-      <c r="I7" s="30" t="s">
-        <v>692</v>
-      </c>
-      <c r="J7" s="25" t="s">
-        <v>972</v>
-      </c>
-      <c r="K7" s="32"/>
+      <c r="I7" s="29" t="s">
+        <v>686</v>
+      </c>
+      <c r="J7" s="24" t="s">
+        <v>966</v>
+      </c>
+      <c r="K7" s="31"/>
       <c r="L7" s="15" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8">
@@ -12691,32 +12685,32 @@
       <c r="G8" s="8">
         <v>7</v>
       </c>
-      <c r="H8" s="30">
+      <c r="H8" s="29">
         <v>44607</v>
       </c>
-      <c r="I8" s="30" t="s">
-        <v>693</v>
-      </c>
-      <c r="J8" s="31">
+      <c r="I8" s="29" t="s">
+        <v>687</v>
+      </c>
+      <c r="J8" s="30">
         <v>1</v>
       </c>
-      <c r="K8" s="32"/>
+      <c r="K8" s="31"/>
       <c r="L8" s="15" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="E9" s="8">
         <v>930</v>
@@ -12727,32 +12721,32 @@
       <c r="G9" s="8">
         <v>8</v>
       </c>
-      <c r="H9" s="28">
+      <c r="H9" s="27">
         <v>44608</v>
       </c>
-      <c r="I9" s="28" t="s">
-        <v>687</v>
-      </c>
-      <c r="J9" s="31" t="s">
-        <v>971</v>
+      <c r="I9" s="27" t="s">
+        <v>681</v>
+      </c>
+      <c r="J9" s="30" t="s">
+        <v>965</v>
       </c>
       <c r="K9" s="15"/>
       <c r="L9" s="15" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>495</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="E10" s="8">
         <v>1030</v>
@@ -12763,34 +12757,34 @@
       <c r="G10" s="8">
         <v>9</v>
       </c>
-      <c r="H10" s="56">
+      <c r="H10" s="55">
         <v>44609</v>
       </c>
-      <c r="I10" s="56" t="s">
-        <v>688</v>
-      </c>
-      <c r="J10" s="57" t="s">
-        <v>972</v>
-      </c>
-      <c r="K10" s="58" t="s">
-        <v>962</v>
+      <c r="I10" s="55" t="s">
+        <v>682</v>
+      </c>
+      <c r="J10" s="56" t="s">
+        <v>966</v>
+      </c>
+      <c r="K10" s="57" t="s">
+        <v>956</v>
       </c>
       <c r="L10" s="15" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>495</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="E11" s="8">
         <v>1130</v>
@@ -12801,31 +12795,31 @@
       <c r="G11" s="8">
         <v>10</v>
       </c>
-      <c r="H11" s="59">
+      <c r="H11" s="58">
         <v>44610</v>
       </c>
-      <c r="I11" s="59" t="s">
-        <v>689</v>
-      </c>
-      <c r="J11" s="60" t="s">
-        <v>971</v>
+      <c r="I11" s="58" t="s">
+        <v>683</v>
+      </c>
+      <c r="J11" s="59" t="s">
+        <v>965</v>
       </c>
       <c r="K11" s="21" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
       <c r="L11" s="15" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8">
@@ -12837,20 +12831,20 @@
       <c r="G12" s="8">
         <v>11</v>
       </c>
-      <c r="H12" s="28">
+      <c r="H12" s="27">
         <v>44611</v>
       </c>
-      <c r="I12" s="28" t="s">
-        <v>690</v>
-      </c>
-      <c r="J12" s="31" t="s">
-        <v>971</v>
+      <c r="I12" s="27" t="s">
+        <v>684</v>
+      </c>
+      <c r="J12" s="30" t="s">
+        <v>965</v>
       </c>
       <c r="K12" s="21" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
       <c r="L12" s="15" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -12869,20 +12863,20 @@
       <c r="G13" s="8">
         <v>12</v>
       </c>
-      <c r="H13" s="28">
+      <c r="H13" s="27">
         <v>44612</v>
       </c>
-      <c r="I13" s="28" t="s">
-        <v>691</v>
-      </c>
-      <c r="J13" s="31">
+      <c r="I13" s="27" t="s">
+        <v>685</v>
+      </c>
+      <c r="J13" s="30">
         <v>6</v>
       </c>
       <c r="K13" s="21" t="s">
         <v>495</v>
       </c>
       <c r="L13" s="15" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -12899,43 +12893,43 @@
       <c r="G14" s="8">
         <v>13</v>
       </c>
-      <c r="H14" s="28">
+      <c r="H14" s="27">
         <v>44613</v>
       </c>
-      <c r="I14" s="28" t="s">
-        <v>692</v>
-      </c>
-      <c r="J14" s="31">
+      <c r="I14" s="27" t="s">
+        <v>686</v>
+      </c>
+      <c r="J14" s="30">
         <v>7</v>
       </c>
       <c r="K14" s="21" t="s">
-        <v>965</v>
+        <v>959</v>
       </c>
       <c r="L14" s="15" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="8" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
-      <c r="H15" s="28">
+      <c r="H15" s="27">
         <v>44614</v>
       </c>
-      <c r="I15" s="28" t="s">
-        <v>693</v>
-      </c>
-      <c r="J15" s="29">
+      <c r="I15" s="27" t="s">
+        <v>687</v>
+      </c>
+      <c r="J15" s="28">
         <v>8</v>
       </c>
       <c r="K15" s="21" t="s">
         <v>495</v>
       </c>
       <c r="L15" s="15" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -12943,47 +12937,47 @@
         <v>364</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
-      <c r="H16" s="28">
+      <c r="H16" s="27">
         <v>44615</v>
       </c>
-      <c r="I16" s="28" t="s">
-        <v>687</v>
-      </c>
-      <c r="J16" s="29">
+      <c r="I16" s="27" t="s">
+        <v>681</v>
+      </c>
+      <c r="J16" s="28">
         <v>9</v>
       </c>
       <c r="K16" s="15" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="L16" s="15" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="8" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="H17" s="28">
+      <c r="H17" s="27">
         <v>44616</v>
       </c>
-      <c r="I17" s="28" t="s">
-        <v>688</v>
-      </c>
-      <c r="J17" s="29">
+      <c r="I17" s="27" t="s">
+        <v>682</v>
+      </c>
+      <c r="J17" s="28">
         <v>10</v>
       </c>
       <c r="K17" s="15" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="L17" s="15" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -12992,420 +12986,420 @@
         <v>490</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="D18" s="8"/>
-      <c r="H18" s="28">
+      <c r="H18" s="27">
         <v>44617</v>
       </c>
-      <c r="I18" s="28" t="s">
-        <v>689</v>
-      </c>
-      <c r="J18" s="29">
+      <c r="I18" s="27" t="s">
+        <v>683</v>
+      </c>
+      <c r="J18" s="28">
         <v>11</v>
       </c>
       <c r="K18" s="15" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="L18" s="15" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="D19" s="8"/>
-      <c r="H19" s="28">
+      <c r="H19" s="27">
         <v>44618</v>
       </c>
-      <c r="I19" s="28" t="s">
-        <v>690</v>
-      </c>
-      <c r="J19" s="29">
+      <c r="I19" s="27" t="s">
+        <v>684</v>
+      </c>
+      <c r="J19" s="28">
         <v>12</v>
       </c>
       <c r="K19" s="15" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
       <c r="L19" s="15" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="D20" s="8"/>
-      <c r="H20" s="28">
+      <c r="H20" s="27">
         <v>44619</v>
       </c>
-      <c r="I20" s="28" t="s">
-        <v>691</v>
-      </c>
-      <c r="J20" s="29">
+      <c r="I20" s="27" t="s">
+        <v>685</v>
+      </c>
+      <c r="J20" s="28">
         <v>13</v>
       </c>
       <c r="K20" s="15" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="L20" s="15" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="8" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="D21" s="8"/>
-      <c r="H21" s="28">
+      <c r="H21" s="27">
         <v>44620</v>
       </c>
-      <c r="I21" s="28" t="s">
-        <v>692</v>
-      </c>
-      <c r="J21" s="29">
+      <c r="I21" s="27" t="s">
+        <v>686</v>
+      </c>
+      <c r="J21" s="28">
         <v>14</v>
       </c>
       <c r="K21" s="15" t="s">
-        <v>974</v>
+        <v>968</v>
       </c>
       <c r="L21" s="15" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="D22" s="8"/>
-      <c r="H22" s="28">
+      <c r="H22" s="27">
         <v>44621</v>
       </c>
-      <c r="I22" s="28" t="s">
-        <v>693</v>
-      </c>
-      <c r="J22" s="29">
+      <c r="I22" s="27" t="s">
+        <v>687</v>
+      </c>
+      <c r="J22" s="28">
         <v>15</v>
       </c>
       <c r="K22" s="15" t="s">
-        <v>974</v>
+        <v>968</v>
       </c>
       <c r="L22" s="15" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
-      <c r="C23" s="26" t="s">
-        <v>567</v>
+      <c r="C23" s="25" t="s">
+        <v>564</v>
       </c>
       <c r="D23" s="8"/>
-      <c r="H23" s="28">
+      <c r="H23" s="27">
         <v>44622</v>
       </c>
-      <c r="I23" s="28" t="s">
-        <v>687</v>
-      </c>
-      <c r="J23" s="29">
+      <c r="I23" s="27" t="s">
+        <v>681</v>
+      </c>
+      <c r="J23" s="28">
         <v>16</v>
       </c>
       <c r="K23" s="15" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
       <c r="L23" s="15" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
-      <c r="C24" s="26" t="s">
-        <v>568</v>
+      <c r="C24" s="25" t="s">
+        <v>565</v>
       </c>
       <c r="D24" s="8"/>
-      <c r="H24" s="28">
+      <c r="H24" s="27">
         <v>44623</v>
       </c>
-      <c r="I24" s="28" t="s">
-        <v>688</v>
-      </c>
-      <c r="J24" s="29">
+      <c r="I24" s="27" t="s">
+        <v>682</v>
+      </c>
+      <c r="J24" s="28">
         <v>17</v>
       </c>
       <c r="K24" s="15" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
       <c r="L24" s="15" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
-      <c r="C25" s="26" t="s">
-        <v>569</v>
+      <c r="C25" s="25" t="s">
+        <v>566</v>
       </c>
       <c r="D25" s="8"/>
-      <c r="H25" s="28">
+      <c r="H25" s="27">
         <v>44624</v>
       </c>
-      <c r="I25" s="28" t="s">
-        <v>689</v>
-      </c>
-      <c r="J25" s="29">
+      <c r="I25" s="27" t="s">
+        <v>683</v>
+      </c>
+      <c r="J25" s="28">
         <v>18</v>
       </c>
       <c r="K25" s="15" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
       <c r="L25" s="15" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="8" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="D26" s="8"/>
-      <c r="H26" s="28">
+      <c r="H26" s="27">
         <v>44625</v>
       </c>
-      <c r="I26" s="28" t="s">
-        <v>690</v>
-      </c>
-      <c r="J26" s="29">
+      <c r="I26" s="27" t="s">
+        <v>684</v>
+      </c>
+      <c r="J26" s="28">
         <v>19</v>
       </c>
       <c r="K26" s="15" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
       <c r="L26" s="15" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="D27" s="8"/>
-      <c r="H27" s="28">
+      <c r="H27" s="27">
         <v>44626</v>
       </c>
-      <c r="I27" s="28" t="s">
-        <v>691</v>
-      </c>
-      <c r="J27" s="29">
+      <c r="I27" s="27" t="s">
+        <v>685</v>
+      </c>
+      <c r="J27" s="28">
         <v>20</v>
       </c>
       <c r="K27" s="15" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
       <c r="L27" s="15" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="8" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D28" s="8"/>
-      <c r="H28" s="28">
+      <c r="H28" s="27">
         <v>44627</v>
       </c>
-      <c r="I28" s="28" t="s">
-        <v>692</v>
-      </c>
-      <c r="J28" s="29">
+      <c r="I28" s="27" t="s">
+        <v>686</v>
+      </c>
+      <c r="J28" s="28">
         <v>21</v>
       </c>
       <c r="K28" s="15" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="L28" s="15" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D29" s="8"/>
-      <c r="H29" s="28">
+      <c r="H29" s="27">
         <v>44628</v>
       </c>
-      <c r="I29" s="28" t="s">
-        <v>693</v>
-      </c>
-      <c r="J29" s="29">
+      <c r="I29" s="27" t="s">
+        <v>687</v>
+      </c>
+      <c r="J29" s="28">
         <v>22</v>
       </c>
       <c r="K29" s="15" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="L29" s="15" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D30" s="8"/>
-      <c r="H30" s="28">
+      <c r="H30" s="27">
         <v>44629</v>
       </c>
-      <c r="I30" s="28" t="s">
-        <v>687</v>
-      </c>
-      <c r="J30" s="29">
+      <c r="I30" s="27" t="s">
+        <v>681</v>
+      </c>
+      <c r="J30" s="28">
         <v>23</v>
       </c>
       <c r="K30" s="15" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="L30" s="15" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D31" s="8"/>
-      <c r="H31" s="28">
+      <c r="H31" s="27">
         <v>44630</v>
       </c>
-      <c r="I31" s="28" t="s">
-        <v>688</v>
-      </c>
-      <c r="J31" s="29">
+      <c r="I31" s="27" t="s">
+        <v>682</v>
+      </c>
+      <c r="J31" s="28">
         <v>24</v>
       </c>
       <c r="K31" s="15" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="L31" s="15" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D32" s="8"/>
-      <c r="H32" s="28">
+      <c r="H32" s="27">
         <v>44631</v>
       </c>
-      <c r="I32" s="28" t="s">
-        <v>689</v>
-      </c>
-      <c r="J32" s="29">
+      <c r="I32" s="27" t="s">
+        <v>683</v>
+      </c>
+      <c r="J32" s="28">
         <v>25</v>
       </c>
       <c r="K32" s="15" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="L32" s="15" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D33" s="8"/>
-      <c r="H33" s="28">
+      <c r="H33" s="27">
         <v>44632</v>
       </c>
-      <c r="I33" s="28" t="s">
-        <v>690</v>
-      </c>
-      <c r="J33" s="29">
+      <c r="I33" s="27" t="s">
+        <v>684</v>
+      </c>
+      <c r="J33" s="28">
         <v>26</v>
       </c>
       <c r="K33" s="15" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="L33" s="15" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="8" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
-      <c r="H34" s="28">
+      <c r="H34" s="27">
         <v>44633</v>
       </c>
-      <c r="I34" s="28" t="s">
-        <v>691</v>
-      </c>
-      <c r="J34" s="29">
+      <c r="I34" s="27" t="s">
+        <v>685</v>
+      </c>
+      <c r="J34" s="28">
         <v>27</v>
       </c>
       <c r="K34" s="15" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="L34" s="15" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="8" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
-      <c r="H35" s="28">
+      <c r="H35" s="27">
         <v>44634</v>
       </c>
-      <c r="I35" s="28" t="s">
-        <v>692</v>
-      </c>
-      <c r="J35" s="29">
+      <c r="I35" s="27" t="s">
+        <v>686</v>
+      </c>
+      <c r="J35" s="28">
         <v>28</v>
       </c>
       <c r="K35" s="15" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="L35" s="15" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -13413,850 +13407,850 @@
         <v>365</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="D36" s="8"/>
-      <c r="H36" s="28">
+      <c r="H36" s="27">
         <v>44635</v>
       </c>
-      <c r="I36" s="28" t="s">
-        <v>693</v>
-      </c>
-      <c r="J36" s="29">
+      <c r="I36" s="27" t="s">
+        <v>687</v>
+      </c>
+      <c r="J36" s="28">
         <v>29</v>
       </c>
       <c r="K36" s="15" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="L36" s="15" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="8" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
-      <c r="H37" s="28">
+      <c r="H37" s="27">
         <v>44636</v>
       </c>
-      <c r="I37" s="28" t="s">
-        <v>687</v>
-      </c>
-      <c r="J37" s="29">
+      <c r="I37" s="27" t="s">
+        <v>681</v>
+      </c>
+      <c r="J37" s="28">
         <v>30</v>
       </c>
       <c r="K37" s="15" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="L37" s="15" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>978</v>
-      </c>
-      <c r="H38" s="28">
+        <v>972</v>
+      </c>
+      <c r="H38" s="27">
         <v>44637</v>
       </c>
-      <c r="I38" s="28" t="s">
-        <v>688</v>
-      </c>
-      <c r="J38" s="29">
+      <c r="I38" s="27" t="s">
+        <v>682</v>
+      </c>
+      <c r="J38" s="28">
         <v>31</v>
       </c>
       <c r="K38" s="15" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="L38" s="15" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
-        <v>979</v>
-      </c>
-      <c r="H39" s="28">
+        <v>973</v>
+      </c>
+      <c r="H39" s="27">
         <v>44638</v>
       </c>
-      <c r="I39" s="28" t="s">
-        <v>689</v>
-      </c>
-      <c r="J39" s="29">
+      <c r="I39" s="27" t="s">
+        <v>683</v>
+      </c>
+      <c r="J39" s="28">
         <v>32</v>
       </c>
       <c r="K39" s="15" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="L39" s="15" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="D40" t="s">
-        <v>980</v>
-      </c>
-      <c r="H40" s="28">
+        <v>974</v>
+      </c>
+      <c r="H40" s="27">
         <v>44639</v>
       </c>
-      <c r="I40" s="28" t="s">
-        <v>690</v>
-      </c>
-      <c r="J40" s="29">
+      <c r="I40" s="27" t="s">
+        <v>684</v>
+      </c>
+      <c r="J40" s="28">
         <v>33</v>
       </c>
       <c r="K40" s="15" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="L40" s="15" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="D41" t="s">
-        <v>981</v>
-      </c>
-      <c r="H41" s="28">
+        <v>975</v>
+      </c>
+      <c r="H41" s="27">
         <v>44640</v>
       </c>
-      <c r="I41" s="28" t="s">
-        <v>691</v>
-      </c>
-      <c r="J41" s="29">
+      <c r="I41" s="27" t="s">
+        <v>685</v>
+      </c>
+      <c r="J41" s="28">
         <v>34</v>
       </c>
       <c r="K41" s="15" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="L41" s="15" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
-        <v>982</v>
-      </c>
-      <c r="H42" s="28">
+        <v>976</v>
+      </c>
+      <c r="H42" s="27">
         <v>44641</v>
       </c>
-      <c r="I42" s="28" t="s">
-        <v>692</v>
-      </c>
-      <c r="J42" s="29">
+      <c r="I42" s="27" t="s">
+        <v>686</v>
+      </c>
+      <c r="J42" s="28">
         <v>35</v>
       </c>
       <c r="K42" s="15" t="s">
-        <v>953</v>
-      </c>
-      <c r="L42" s="34" t="s">
-        <v>739</v>
+        <v>947</v>
+      </c>
+      <c r="L42" s="33" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H43" s="28">
+      <c r="H43" s="27">
         <v>44642</v>
       </c>
-      <c r="I43" s="28" t="s">
-        <v>693</v>
-      </c>
-      <c r="J43" s="29">
+      <c r="I43" s="27" t="s">
+        <v>687</v>
+      </c>
+      <c r="J43" s="28">
         <v>36</v>
       </c>
       <c r="K43" s="15" t="s">
-        <v>952</v>
-      </c>
-      <c r="L43" s="51" t="s">
-        <v>740</v>
+        <v>946</v>
+      </c>
+      <c r="L43" s="50" t="s">
+        <v>734</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
-        <v>983</v>
-      </c>
-      <c r="H44" s="28">
+        <v>977</v>
+      </c>
+      <c r="H44" s="27">
         <v>44643</v>
       </c>
-      <c r="I44" s="28" t="s">
-        <v>687</v>
-      </c>
-      <c r="J44" s="29">
+      <c r="I44" s="27" t="s">
+        <v>681</v>
+      </c>
+      <c r="J44" s="28">
         <v>37</v>
       </c>
       <c r="K44" s="15" t="s">
-        <v>960</v>
-      </c>
-      <c r="L44" s="51" t="s">
-        <v>935</v>
+        <v>954</v>
+      </c>
+      <c r="L44" s="50" t="s">
+        <v>929</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
-        <v>984</v>
-      </c>
-      <c r="H45" s="28">
+        <v>978</v>
+      </c>
+      <c r="H45" s="27">
         <v>44644</v>
       </c>
-      <c r="I45" s="28" t="s">
-        <v>688</v>
-      </c>
-      <c r="J45" s="29">
+      <c r="I45" s="27" t="s">
+        <v>682</v>
+      </c>
+      <c r="J45" s="28">
         <v>38</v>
       </c>
       <c r="K45" s="15" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="L45" s="8"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
-        <v>985</v>
-      </c>
-      <c r="H46" s="28">
+        <v>979</v>
+      </c>
+      <c r="H46" s="27">
         <v>44645</v>
       </c>
-      <c r="I46" s="28" t="s">
-        <v>689</v>
-      </c>
-      <c r="J46" s="29">
+      <c r="I46" s="27" t="s">
+        <v>683</v>
+      </c>
+      <c r="J46" s="28">
         <v>39</v>
       </c>
       <c r="K46" s="15" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="L46" s="8"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
-        <v>986</v>
-      </c>
-      <c r="H47" s="28">
+        <v>980</v>
+      </c>
+      <c r="H47" s="27">
         <v>44646</v>
       </c>
-      <c r="I47" s="28" t="s">
-        <v>690</v>
-      </c>
-      <c r="J47" s="29">
+      <c r="I47" s="27" t="s">
+        <v>684</v>
+      </c>
+      <c r="J47" s="28">
         <v>40</v>
       </c>
       <c r="K47" s="15" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="L47" s="8"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
-        <v>987</v>
-      </c>
-      <c r="H48" s="28">
+        <v>981</v>
+      </c>
+      <c r="H48" s="27">
         <v>44647</v>
       </c>
-      <c r="I48" s="28" t="s">
-        <v>691</v>
-      </c>
-      <c r="J48" s="29">
+      <c r="I48" s="27" t="s">
+        <v>685</v>
+      </c>
+      <c r="J48" s="28">
         <v>41</v>
       </c>
       <c r="K48" s="15" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="L48" s="8"/>
     </row>
     <row r="49" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
-        <v>988</v>
-      </c>
-      <c r="H49" s="28">
+        <v>982</v>
+      </c>
+      <c r="H49" s="27">
         <v>44648</v>
       </c>
-      <c r="I49" s="28" t="s">
-        <v>692</v>
-      </c>
-      <c r="J49" s="29">
+      <c r="I49" s="27" t="s">
+        <v>686</v>
+      </c>
+      <c r="J49" s="28">
         <v>42</v>
       </c>
       <c r="K49" s="15" t="s">
-        <v>973</v>
+        <v>967</v>
       </c>
       <c r="L49" s="8"/>
     </row>
     <row r="50" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="H50" s="28">
+      <c r="H50" s="27">
         <v>44649</v>
       </c>
-      <c r="I50" s="28" t="s">
-        <v>693</v>
-      </c>
-      <c r="J50" s="29">
+      <c r="I50" s="27" t="s">
+        <v>687</v>
+      </c>
+      <c r="J50" s="28">
         <v>43</v>
       </c>
       <c r="K50" s="15" t="s">
-        <v>961</v>
+        <v>955</v>
       </c>
       <c r="L50" s="8"/>
     </row>
     <row r="51" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="H51" s="28">
+      <c r="H51" s="27">
         <v>44650</v>
       </c>
-      <c r="I51" s="28" t="s">
+      <c r="I51" s="27" t="s">
+        <v>681</v>
+      </c>
+      <c r="J51" s="28">
+        <v>44</v>
+      </c>
+      <c r="K51" s="15" t="s">
+        <v>955</v>
+      </c>
+      <c r="L51" s="8"/>
+    </row>
+    <row r="52" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="H52" s="27">
+        <v>44651</v>
+      </c>
+      <c r="I52" s="27" t="s">
+        <v>682</v>
+      </c>
+      <c r="J52" s="28">
+        <v>45</v>
+      </c>
+      <c r="K52" s="15" t="s">
+        <v>955</v>
+      </c>
+      <c r="L52" s="8"/>
+    </row>
+    <row r="53" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="H53" s="27">
+        <v>44652</v>
+      </c>
+      <c r="I53" s="27" t="s">
+        <v>683</v>
+      </c>
+      <c r="J53" s="28">
+        <v>46</v>
+      </c>
+      <c r="K53" s="15" t="s">
+        <v>955</v>
+      </c>
+      <c r="L53" s="8"/>
+    </row>
+    <row r="54" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="H54" s="27">
+        <v>44653</v>
+      </c>
+      <c r="I54" s="27" t="s">
+        <v>684</v>
+      </c>
+      <c r="J54" s="28">
+        <v>47</v>
+      </c>
+      <c r="K54" s="15" t="s">
+        <v>955</v>
+      </c>
+      <c r="L54" s="8"/>
+    </row>
+    <row r="55" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="H55" s="27">
+        <v>44654</v>
+      </c>
+      <c r="I55" s="27" t="s">
+        <v>685</v>
+      </c>
+      <c r="J55" s="28">
+        <v>48</v>
+      </c>
+      <c r="K55" s="15" t="s">
+        <v>955</v>
+      </c>
+      <c r="L55" s="8"/>
+    </row>
+    <row r="56" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="H56" s="27">
+        <v>44655</v>
+      </c>
+      <c r="I56" s="27" t="s">
+        <v>686</v>
+      </c>
+      <c r="J56" s="28">
+        <v>49</v>
+      </c>
+      <c r="K56" s="15" t="s">
+        <v>955</v>
+      </c>
+      <c r="L56" s="8"/>
+    </row>
+    <row r="57" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="H57" s="27">
+        <v>44656</v>
+      </c>
+      <c r="I57" s="27" t="s">
         <v>687</v>
       </c>
-      <c r="J51" s="29">
-        <v>44</v>
-      </c>
-      <c r="K51" s="15" t="s">
-        <v>961</v>
-      </c>
-      <c r="L51" s="8"/>
-    </row>
-    <row r="52" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="H52" s="28">
-        <v>44651</v>
-      </c>
-      <c r="I52" s="28" t="s">
-        <v>688</v>
-      </c>
-      <c r="J52" s="29">
-        <v>45</v>
-      </c>
-      <c r="K52" s="15" t="s">
-        <v>961</v>
-      </c>
-      <c r="L52" s="8"/>
-    </row>
-    <row r="53" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="H53" s="28">
-        <v>44652</v>
-      </c>
-      <c r="I53" s="28" t="s">
-        <v>689</v>
-      </c>
-      <c r="J53" s="29">
-        <v>46</v>
-      </c>
-      <c r="K53" s="15" t="s">
-        <v>961</v>
-      </c>
-      <c r="L53" s="8"/>
-    </row>
-    <row r="54" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="H54" s="28">
-        <v>44653</v>
-      </c>
-      <c r="I54" s="28" t="s">
-        <v>690</v>
-      </c>
-      <c r="J54" s="29">
-        <v>47</v>
-      </c>
-      <c r="K54" s="15" t="s">
-        <v>961</v>
-      </c>
-      <c r="L54" s="8"/>
-    </row>
-    <row r="55" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="H55" s="28">
-        <v>44654</v>
-      </c>
-      <c r="I55" s="28" t="s">
-        <v>691</v>
-      </c>
-      <c r="J55" s="29">
-        <v>48</v>
-      </c>
-      <c r="K55" s="15" t="s">
-        <v>961</v>
-      </c>
-      <c r="L55" s="8"/>
-    </row>
-    <row r="56" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="H56" s="28">
-        <v>44655</v>
-      </c>
-      <c r="I56" s="28" t="s">
-        <v>692</v>
-      </c>
-      <c r="J56" s="29">
-        <v>49</v>
-      </c>
-      <c r="K56" s="15" t="s">
-        <v>961</v>
-      </c>
-      <c r="L56" s="8"/>
-    </row>
-    <row r="57" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="H57" s="28">
-        <v>44656</v>
-      </c>
-      <c r="I57" s="28" t="s">
-        <v>693</v>
-      </c>
-      <c r="J57" s="29">
+      <c r="J57" s="28">
         <v>50</v>
       </c>
       <c r="K57" s="15" t="s">
-        <v>961</v>
+        <v>955</v>
       </c>
       <c r="L57" s="8"/>
     </row>
     <row r="58" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="H58" s="28">
+      <c r="H58" s="27">
         <v>44657</v>
       </c>
-      <c r="I58" s="28" t="s">
+      <c r="I58" s="27" t="s">
+        <v>681</v>
+      </c>
+      <c r="J58" s="28">
+        <v>51</v>
+      </c>
+      <c r="K58" s="15" t="s">
+        <v>955</v>
+      </c>
+      <c r="L58" s="8"/>
+    </row>
+    <row r="59" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="H59" s="27">
+        <v>44658</v>
+      </c>
+      <c r="I59" s="27" t="s">
+        <v>682</v>
+      </c>
+      <c r="J59" s="28">
+        <v>52</v>
+      </c>
+      <c r="K59" s="15" t="s">
+        <v>955</v>
+      </c>
+      <c r="L59" s="8"/>
+    </row>
+    <row r="60" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="H60" s="27">
+        <v>44659</v>
+      </c>
+      <c r="I60" s="27" t="s">
+        <v>683</v>
+      </c>
+      <c r="J60" s="28">
+        <v>53</v>
+      </c>
+      <c r="K60" s="15" t="s">
+        <v>948</v>
+      </c>
+      <c r="L60" s="15" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="61" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="H61" s="27">
+        <v>44660</v>
+      </c>
+      <c r="I61" s="27" t="s">
+        <v>684</v>
+      </c>
+      <c r="J61" s="28">
+        <v>54</v>
+      </c>
+      <c r="K61" s="15" t="s">
+        <v>948</v>
+      </c>
+      <c r="L61" s="15" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="62" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="H62" s="27">
+        <v>44661</v>
+      </c>
+      <c r="I62" s="27" t="s">
+        <v>685</v>
+      </c>
+      <c r="J62" s="28">
+        <v>55</v>
+      </c>
+      <c r="K62" s="15" t="s">
+        <v>948</v>
+      </c>
+      <c r="L62" s="15" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="63" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="H63" s="27">
+        <v>44662</v>
+      </c>
+      <c r="I63" s="27" t="s">
+        <v>686</v>
+      </c>
+      <c r="J63" s="28">
+        <v>56</v>
+      </c>
+      <c r="K63" s="15" t="s">
+        <v>949</v>
+      </c>
+      <c r="L63" s="15" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="64" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="H64" s="27">
+        <v>44663</v>
+      </c>
+      <c r="I64" s="27" t="s">
         <v>687</v>
       </c>
-      <c r="J58" s="29">
-        <v>51</v>
-      </c>
-      <c r="K58" s="15" t="s">
-        <v>961</v>
-      </c>
-      <c r="L58" s="8"/>
-    </row>
-    <row r="59" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="H59" s="28">
-        <v>44658</v>
-      </c>
-      <c r="I59" s="28" t="s">
-        <v>688</v>
-      </c>
-      <c r="J59" s="29">
-        <v>52</v>
-      </c>
-      <c r="K59" s="15" t="s">
-        <v>961</v>
-      </c>
-      <c r="L59" s="8"/>
-    </row>
-    <row r="60" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="H60" s="28">
-        <v>44659</v>
-      </c>
-      <c r="I60" s="28" t="s">
-        <v>689</v>
-      </c>
-      <c r="J60" s="29">
-        <v>53</v>
-      </c>
-      <c r="K60" s="15" t="s">
+      <c r="J64" s="28">
+        <v>57</v>
+      </c>
+      <c r="K64" s="15" t="s">
+        <v>949</v>
+      </c>
+      <c r="L64" s="15" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="65" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H65" s="27">
+        <v>44664</v>
+      </c>
+      <c r="I65" s="27" t="s">
+        <v>681</v>
+      </c>
+      <c r="J65" s="28">
+        <v>58</v>
+      </c>
+      <c r="K65" s="15" t="s">
+        <v>949</v>
+      </c>
+      <c r="L65" s="15" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="66" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H66" s="27">
+        <v>44665</v>
+      </c>
+      <c r="I66" s="27" t="s">
+        <v>682</v>
+      </c>
+      <c r="J66" s="28">
+        <v>59</v>
+      </c>
+      <c r="K66" s="15" t="s">
+        <v>949</v>
+      </c>
+      <c r="L66" s="15" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="67" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H67" s="27">
+        <v>44666</v>
+      </c>
+      <c r="I67" s="27" t="s">
+        <v>683</v>
+      </c>
+      <c r="J67" s="28">
+        <v>60</v>
+      </c>
+      <c r="K67" s="15" t="s">
+        <v>950</v>
+      </c>
+      <c r="L67" s="15" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="68" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H68" s="27">
+        <v>44667</v>
+      </c>
+      <c r="I68" s="27" t="s">
+        <v>684</v>
+      </c>
+      <c r="J68" s="28">
+        <v>61</v>
+      </c>
+      <c r="K68" s="15" t="s">
+        <v>950</v>
+      </c>
+      <c r="L68" s="15" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="69" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H69" s="27">
+        <v>44668</v>
+      </c>
+      <c r="I69" s="27" t="s">
+        <v>685</v>
+      </c>
+      <c r="J69" s="28">
+        <v>62</v>
+      </c>
+      <c r="K69" s="15" t="s">
+        <v>950</v>
+      </c>
+      <c r="L69" s="15" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="70" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H70" s="27">
+        <v>44669</v>
+      </c>
+      <c r="I70" s="27" t="s">
+        <v>686</v>
+      </c>
+      <c r="J70" s="28">
+        <v>63</v>
+      </c>
+      <c r="K70" s="15" t="s">
+        <v>950</v>
+      </c>
+      <c r="L70" s="15" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="71" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H71" s="27">
+        <v>44670</v>
+      </c>
+      <c r="I71" s="27" t="s">
+        <v>687</v>
+      </c>
+      <c r="J71" s="28">
+        <v>64</v>
+      </c>
+      <c r="K71" s="15" t="s">
+        <v>951</v>
+      </c>
+      <c r="L71" s="15" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="72" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H72" s="27">
+        <v>44671</v>
+      </c>
+      <c r="I72" s="27" t="s">
+        <v>681</v>
+      </c>
+      <c r="J72" s="28">
+        <v>65</v>
+      </c>
+      <c r="K72" s="15" t="s">
+        <v>951</v>
+      </c>
+      <c r="L72" s="15" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="73" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H73" s="27">
+        <v>44672</v>
+      </c>
+      <c r="I73" s="27" t="s">
+        <v>682</v>
+      </c>
+      <c r="J73" s="28">
+        <v>66</v>
+      </c>
+      <c r="K73" s="15" t="s">
+        <v>951</v>
+      </c>
+      <c r="L73" s="15" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="74" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H74" s="27">
+        <v>44673</v>
+      </c>
+      <c r="I74" s="27" t="s">
+        <v>683</v>
+      </c>
+      <c r="J74" s="28">
+        <v>67</v>
+      </c>
+      <c r="K74" s="15" t="s">
+        <v>951</v>
+      </c>
+      <c r="L74" s="15" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="75" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H75" s="27">
+        <v>44674</v>
+      </c>
+      <c r="I75" s="27" t="s">
+        <v>684</v>
+      </c>
+      <c r="J75" s="28">
+        <v>68</v>
+      </c>
+      <c r="K75" s="15" t="s">
+        <v>953</v>
+      </c>
+      <c r="L75" s="15" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="76" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H76" s="27">
+        <v>44675</v>
+      </c>
+      <c r="I76" s="27" t="s">
+        <v>685</v>
+      </c>
+      <c r="J76" s="28">
+        <v>69</v>
+      </c>
+      <c r="K76" s="15" t="s">
+        <v>953</v>
+      </c>
+      <c r="L76" s="15" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="77" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H77" s="27">
+        <v>44676</v>
+      </c>
+      <c r="I77" s="27" t="s">
+        <v>686</v>
+      </c>
+      <c r="J77" s="28">
+        <v>70</v>
+      </c>
+      <c r="K77" s="15" t="s">
+        <v>953</v>
+      </c>
+      <c r="L77" s="15" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="78" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H78" s="27">
+        <v>44677</v>
+      </c>
+      <c r="I78" s="27" t="s">
+        <v>687</v>
+      </c>
+      <c r="J78" s="28">
+        <v>71</v>
+      </c>
+      <c r="K78" s="15" t="s">
+        <v>953</v>
+      </c>
+      <c r="L78" s="15" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="79" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H79" s="27">
+        <v>44678</v>
+      </c>
+      <c r="I79" s="27" t="s">
+        <v>681</v>
+      </c>
+      <c r="J79" s="28">
+        <v>72</v>
+      </c>
+      <c r="K79" s="15" t="s">
         <v>954</v>
       </c>
-      <c r="L60" s="15" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="61" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="H61" s="28">
-        <v>44660</v>
-      </c>
-      <c r="I61" s="28" t="s">
-        <v>690</v>
-      </c>
-      <c r="J61" s="29">
-        <v>54</v>
-      </c>
-      <c r="K61" s="15" t="s">
+      <c r="L79" s="15" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="80" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H80" s="27">
+        <v>44679</v>
+      </c>
+      <c r="I80" s="27" t="s">
+        <v>682</v>
+      </c>
+      <c r="J80" s="28">
+        <v>73</v>
+      </c>
+      <c r="K80" s="15" t="s">
         <v>954</v>
       </c>
-      <c r="L61" s="15" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="62" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="H62" s="28">
-        <v>44661</v>
-      </c>
-      <c r="I62" s="28" t="s">
-        <v>691</v>
-      </c>
-      <c r="J62" s="29">
-        <v>55</v>
-      </c>
-      <c r="K62" s="15" t="s">
+      <c r="L80" s="15" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="81" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H81" s="27">
+        <v>44680</v>
+      </c>
+      <c r="I81" s="27" t="s">
+        <v>683</v>
+      </c>
+      <c r="J81" s="28">
+        <v>74</v>
+      </c>
+      <c r="K81" s="15" t="s">
         <v>954</v>
       </c>
-      <c r="L62" s="15" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="63" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="H63" s="28">
-        <v>44662</v>
-      </c>
-      <c r="I63" s="28" t="s">
-        <v>692</v>
-      </c>
-      <c r="J63" s="29">
-        <v>56</v>
-      </c>
-      <c r="K63" s="15" t="s">
-        <v>955</v>
-      </c>
-      <c r="L63" s="15" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="64" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="H64" s="28">
-        <v>44663</v>
-      </c>
-      <c r="I64" s="28" t="s">
-        <v>693</v>
-      </c>
-      <c r="J64" s="29">
-        <v>57</v>
-      </c>
-      <c r="K64" s="15" t="s">
-        <v>955</v>
-      </c>
-      <c r="L64" s="15" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="65" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H65" s="28">
-        <v>44664</v>
-      </c>
-      <c r="I65" s="28" t="s">
-        <v>687</v>
-      </c>
-      <c r="J65" s="29">
-        <v>58</v>
-      </c>
-      <c r="K65" s="15" t="s">
-        <v>955</v>
-      </c>
-      <c r="L65" s="15" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="66" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H66" s="28">
-        <v>44665</v>
-      </c>
-      <c r="I66" s="28" t="s">
-        <v>688</v>
-      </c>
-      <c r="J66" s="29">
-        <v>59</v>
-      </c>
-      <c r="K66" s="15" t="s">
-        <v>955</v>
-      </c>
-      <c r="L66" s="15" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="67" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H67" s="28">
-        <v>44666</v>
-      </c>
-      <c r="I67" s="28" t="s">
-        <v>689</v>
-      </c>
-      <c r="J67" s="29">
-        <v>60</v>
-      </c>
-      <c r="K67" s="15" t="s">
-        <v>956</v>
-      </c>
-      <c r="L67" s="15" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="68" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H68" s="28">
-        <v>44667</v>
-      </c>
-      <c r="I68" s="28" t="s">
-        <v>690</v>
-      </c>
-      <c r="J68" s="29">
-        <v>61</v>
-      </c>
-      <c r="K68" s="15" t="s">
-        <v>956</v>
-      </c>
-      <c r="L68" s="15" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="69" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H69" s="28">
-        <v>44668</v>
-      </c>
-      <c r="I69" s="28" t="s">
-        <v>691</v>
-      </c>
-      <c r="J69" s="29">
-        <v>62</v>
-      </c>
-      <c r="K69" s="15" t="s">
-        <v>956</v>
-      </c>
-      <c r="L69" s="15" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="70" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H70" s="28">
-        <v>44669</v>
-      </c>
-      <c r="I70" s="28" t="s">
-        <v>692</v>
-      </c>
-      <c r="J70" s="29">
-        <v>63</v>
-      </c>
-      <c r="K70" s="15" t="s">
-        <v>956</v>
-      </c>
-      <c r="L70" s="15" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="71" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H71" s="28">
-        <v>44670</v>
-      </c>
-      <c r="I71" s="28" t="s">
-        <v>693</v>
-      </c>
-      <c r="J71" s="29">
-        <v>64</v>
-      </c>
-      <c r="K71" s="15" t="s">
-        <v>957</v>
-      </c>
-      <c r="L71" s="15" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="72" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H72" s="28">
-        <v>44671</v>
-      </c>
-      <c r="I72" s="28" t="s">
-        <v>687</v>
-      </c>
-      <c r="J72" s="29">
-        <v>65</v>
-      </c>
-      <c r="K72" s="15" t="s">
-        <v>957</v>
-      </c>
-      <c r="L72" s="15" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="73" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H73" s="28">
-        <v>44672</v>
-      </c>
-      <c r="I73" s="28" t="s">
-        <v>688</v>
-      </c>
-      <c r="J73" s="29">
-        <v>66</v>
-      </c>
-      <c r="K73" s="15" t="s">
-        <v>957</v>
-      </c>
-      <c r="L73" s="15" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="74" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H74" s="28">
-        <v>44673</v>
-      </c>
-      <c r="I74" s="28" t="s">
-        <v>689</v>
-      </c>
-      <c r="J74" s="29">
-        <v>67</v>
-      </c>
-      <c r="K74" s="15" t="s">
-        <v>957</v>
-      </c>
-      <c r="L74" s="15" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="75" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H75" s="28">
-        <v>44674</v>
-      </c>
-      <c r="I75" s="28" t="s">
-        <v>690</v>
-      </c>
-      <c r="J75" s="29">
-        <v>68</v>
-      </c>
-      <c r="K75" s="15" t="s">
-        <v>959</v>
-      </c>
-      <c r="L75" s="15" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="76" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H76" s="28">
-        <v>44675</v>
-      </c>
-      <c r="I76" s="28" t="s">
-        <v>691</v>
-      </c>
-      <c r="J76" s="29">
-        <v>69</v>
-      </c>
-      <c r="K76" s="15" t="s">
-        <v>959</v>
-      </c>
-      <c r="L76" s="15" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="77" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H77" s="28">
-        <v>44676</v>
-      </c>
-      <c r="I77" s="28" t="s">
-        <v>692</v>
-      </c>
-      <c r="J77" s="29">
-        <v>70</v>
-      </c>
-      <c r="K77" s="15" t="s">
-        <v>959</v>
-      </c>
-      <c r="L77" s="15" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="78" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H78" s="28">
-        <v>44677</v>
-      </c>
-      <c r="I78" s="28" t="s">
-        <v>693</v>
-      </c>
-      <c r="J78" s="29">
-        <v>71</v>
-      </c>
-      <c r="K78" s="15" t="s">
-        <v>959</v>
-      </c>
-      <c r="L78" s="15" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="79" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H79" s="28">
-        <v>44678</v>
-      </c>
-      <c r="I79" s="28" t="s">
-        <v>687</v>
-      </c>
-      <c r="J79" s="29">
-        <v>72</v>
-      </c>
-      <c r="K79" s="15" t="s">
-        <v>960</v>
-      </c>
-      <c r="L79" s="15" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="80" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H80" s="28">
-        <v>44679</v>
-      </c>
-      <c r="I80" s="28" t="s">
-        <v>688</v>
-      </c>
-      <c r="J80" s="29">
-        <v>73</v>
-      </c>
-      <c r="K80" s="15" t="s">
-        <v>960</v>
-      </c>
-      <c r="L80" s="15" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="81" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H81" s="28">
-        <v>44680</v>
-      </c>
-      <c r="I81" s="28" t="s">
-        <v>689</v>
-      </c>
-      <c r="J81" s="29">
-        <v>74</v>
-      </c>
-      <c r="K81" s="15" t="s">
-        <v>960</v>
-      </c>
       <c r="L81" s="15" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
     </row>
     <row r="82" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H82" s="28">
+      <c r="H82" s="27">
         <v>44681</v>
       </c>
-      <c r="I82" s="28" t="s">
-        <v>690</v>
-      </c>
-      <c r="J82" s="29">
+      <c r="I82" s="27" t="s">
+        <v>684</v>
+      </c>
+      <c r="J82" s="28">
         <v>75</v>
       </c>
       <c r="K82" s="15" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="L82" s="15" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
     </row>
     <row r="83" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H83" s="28">
+      <c r="H83" s="27">
         <v>44682</v>
       </c>
-      <c r="I83" s="28" t="s">
-        <v>691</v>
-      </c>
-      <c r="J83" s="54">
+      <c r="I83" s="27" t="s">
+        <v>685</v>
+      </c>
+      <c r="J83" s="53">
         <v>76</v>
       </c>
       <c r="K83" s="15" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="L83" s="15" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
     </row>
     <row r="84" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H84" s="28">
+      <c r="H84" s="27">
         <v>44683</v>
       </c>
-      <c r="I84" s="28" t="s">
-        <v>692</v>
-      </c>
-      <c r="J84" s="54">
+      <c r="I84" s="27" t="s">
+        <v>686</v>
+      </c>
+      <c r="J84" s="53">
         <v>77</v>
       </c>
       <c r="K84" s="15"/>

--- a/avk_resume/AVK_DevOps_Plan1.xlsx
+++ b/avk_resume/AVK_DevOps_Plan1.xlsx
@@ -220,7 +220,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1739" uniqueCount="1004">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1788" uniqueCount="1009">
   <si>
     <t>LINUX</t>
   </si>
@@ -3189,9 +3189,6 @@
     <t>Udemy DevOps Interview Questions</t>
   </si>
   <si>
-    <t>Deekshit SN YT</t>
-  </si>
-  <si>
     <t>Downloaded DevOps Questions-DevOps Tutorials YT</t>
   </si>
   <si>
@@ -3232,6 +3229,24 @@
   </si>
   <si>
     <t>Days</t>
+  </si>
+  <si>
+    <t>All 5 YT channel videos except interview questions</t>
+  </si>
+  <si>
+    <t>try to check along with interview questions</t>
+  </si>
+  <si>
+    <t>All Interview Questions Prepare - One Note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All YT Interview Questions </t>
+  </si>
+  <si>
+    <t>All Individual Udemy Courses - complete review</t>
+  </si>
+  <si>
+    <t>All Interview Questions - Final Revision</t>
   </si>
 </sst>
 </file>
@@ -3578,6 +3593,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3599,7 +3615,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4780,10 +4795,10 @@
       <c r="B1" s="8" t="s">
         <v>936</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="66" t="s">
         <v>668</v>
       </c>
-      <c r="E1" s="65"/>
+      <c r="E1" s="66"/>
       <c r="F1" s="15" t="s">
         <v>688</v>
       </c>
@@ -7608,7 +7623,7 @@
       <c r="B2" s="12" t="s">
         <v>554</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="61" t="s">
         <v>738</v>
       </c>
       <c r="D2" s="35"/>
@@ -7638,7 +7653,7 @@
       <c r="B3" s="12" t="s">
         <v>555</v>
       </c>
-      <c r="C3" s="61"/>
+      <c r="C3" s="62"/>
       <c r="D3" s="37"/>
       <c r="E3" s="12" t="s">
         <v>741</v>
@@ -7666,7 +7681,7 @@
       <c r="B4" s="12" t="s">
         <v>549</v>
       </c>
-      <c r="C4" s="61"/>
+      <c r="C4" s="62"/>
       <c r="D4" s="37"/>
       <c r="E4" s="12" t="s">
         <v>743</v>
@@ -7724,7 +7739,7 @@
       <c r="B6" s="20" t="s">
         <v>551</v>
       </c>
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="63" t="s">
         <v>747</v>
       </c>
       <c r="D6" s="41"/>
@@ -7754,7 +7769,7 @@
       <c r="B7" s="20" t="s">
         <v>552</v>
       </c>
-      <c r="C7" s="62"/>
+      <c r="C7" s="63"/>
       <c r="D7" s="41"/>
       <c r="E7" s="20" t="s">
         <v>750</v>
@@ -7782,7 +7797,7 @@
       <c r="B8" s="8" t="s">
         <v>553</v>
       </c>
-      <c r="C8" s="62"/>
+      <c r="C8" s="63"/>
       <c r="D8" s="42" t="s">
         <v>736</v>
       </c>
@@ -7812,7 +7827,7 @@
       <c r="B9" s="8" t="s">
         <v>554</v>
       </c>
-      <c r="C9" s="62"/>
+      <c r="C9" s="63"/>
       <c r="D9" s="42" t="s">
         <v>736</v>
       </c>
@@ -7842,7 +7857,7 @@
       <c r="B10" s="8" t="s">
         <v>555</v>
       </c>
-      <c r="C10" s="62"/>
+      <c r="C10" s="63"/>
       <c r="D10" s="42" t="s">
         <v>736</v>
       </c>
@@ -7872,7 +7887,7 @@
       <c r="B11" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="C11" s="62"/>
+      <c r="C11" s="63"/>
       <c r="D11" s="42" t="s">
         <v>736</v>
       </c>
@@ -7902,7 +7917,7 @@
       <c r="B12" s="8" t="s">
         <v>550</v>
       </c>
-      <c r="C12" s="62"/>
+      <c r="C12" s="63"/>
       <c r="D12" s="42" t="s">
         <v>736</v>
       </c>
@@ -7932,7 +7947,7 @@
       <c r="B13" s="8" t="s">
         <v>551</v>
       </c>
-      <c r="C13" s="62"/>
+      <c r="C13" s="63"/>
       <c r="D13" s="42" t="s">
         <v>736</v>
       </c>
@@ -7962,7 +7977,7 @@
       <c r="B14" s="8" t="s">
         <v>552</v>
       </c>
-      <c r="C14" s="62"/>
+      <c r="C14" s="63"/>
       <c r="D14" s="42" t="s">
         <v>736</v>
       </c>
@@ -7992,7 +8007,7 @@
       <c r="B15" s="8" t="s">
         <v>553</v>
       </c>
-      <c r="C15" s="62"/>
+      <c r="C15" s="63"/>
       <c r="D15" s="42" t="s">
         <v>736</v>
       </c>
@@ -8022,7 +8037,7 @@
       <c r="B16" s="8" t="s">
         <v>554</v>
       </c>
-      <c r="C16" s="62"/>
+      <c r="C16" s="63"/>
       <c r="D16" s="42" t="s">
         <v>736</v>
       </c>
@@ -8052,7 +8067,7 @@
       <c r="B17" s="8" t="s">
         <v>555</v>
       </c>
-      <c r="C17" s="62"/>
+      <c r="C17" s="63"/>
       <c r="D17" s="42" t="s">
         <v>736</v>
       </c>
@@ -8082,7 +8097,7 @@
       <c r="B18" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="C18" s="62"/>
+      <c r="C18" s="63"/>
       <c r="D18" s="42" t="s">
         <v>736</v>
       </c>
@@ -8112,7 +8127,7 @@
       <c r="B19" s="8" t="s">
         <v>550</v>
       </c>
-      <c r="C19" s="62"/>
+      <c r="C19" s="63"/>
       <c r="D19" s="42" t="s">
         <v>736</v>
       </c>
@@ -8142,7 +8157,7 @@
       <c r="B20" s="8" t="s">
         <v>551</v>
       </c>
-      <c r="C20" s="62"/>
+      <c r="C20" s="63"/>
       <c r="D20" s="42" t="s">
         <v>736</v>
       </c>
@@ -8166,7 +8181,7 @@
       <c r="B21" s="8" t="s">
         <v>552</v>
       </c>
-      <c r="C21" s="62"/>
+      <c r="C21" s="63"/>
       <c r="D21" s="42" t="s">
         <v>736</v>
       </c>
@@ -8190,7 +8205,7 @@
       <c r="B22" s="8" t="s">
         <v>553</v>
       </c>
-      <c r="C22" s="62"/>
+      <c r="C22" s="63"/>
       <c r="D22" s="42" t="s">
         <v>736</v>
       </c>
@@ -8214,7 +8229,7 @@
       <c r="B23" s="8" t="s">
         <v>554</v>
       </c>
-      <c r="C23" s="62"/>
+      <c r="C23" s="63"/>
       <c r="D23" s="42" t="s">
         <v>736</v>
       </c>
@@ -8238,7 +8253,7 @@
       <c r="B24" s="8" t="s">
         <v>555</v>
       </c>
-      <c r="C24" s="62"/>
+      <c r="C24" s="63"/>
       <c r="D24" s="42" t="s">
         <v>736</v>
       </c>
@@ -8262,7 +8277,7 @@
       <c r="B25" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="C25" s="62"/>
+      <c r="C25" s="63"/>
       <c r="D25" s="42"/>
       <c r="E25" s="8" t="s">
         <v>778</v>
@@ -8284,7 +8299,7 @@
       <c r="B26" s="8" t="s">
         <v>550</v>
       </c>
-      <c r="C26" s="62"/>
+      <c r="C26" s="63"/>
       <c r="D26" s="42"/>
       <c r="E26" s="8" t="s">
         <v>779</v>
@@ -8299,7 +8314,7 @@
       <c r="B27" s="8" t="s">
         <v>551</v>
       </c>
-      <c r="C27" s="62"/>
+      <c r="C27" s="63"/>
       <c r="D27" s="42"/>
       <c r="E27" s="8" t="s">
         <v>780</v>
@@ -8314,7 +8329,7 @@
       <c r="B28" s="8" t="s">
         <v>552</v>
       </c>
-      <c r="C28" s="62"/>
+      <c r="C28" s="63"/>
       <c r="D28" s="42"/>
       <c r="E28" s="8" t="s">
         <v>781</v>
@@ -8329,7 +8344,7 @@
       <c r="B29" s="8" t="s">
         <v>553</v>
       </c>
-      <c r="C29" s="62"/>
+      <c r="C29" s="63"/>
       <c r="D29" s="42"/>
       <c r="E29" s="8" t="s">
         <v>782</v>
@@ -8344,7 +8359,7 @@
       <c r="B30" s="8" t="s">
         <v>554</v>
       </c>
-      <c r="C30" s="62"/>
+      <c r="C30" s="63"/>
       <c r="D30" s="42"/>
       <c r="E30" s="8" t="s">
         <v>783</v>
@@ -8359,7 +8374,7 @@
       <c r="B31" s="8" t="s">
         <v>555</v>
       </c>
-      <c r="C31" s="62"/>
+      <c r="C31" s="63"/>
       <c r="D31" s="42"/>
       <c r="E31" s="43" t="s">
         <v>784</v>
@@ -8374,7 +8389,7 @@
       <c r="B32" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="C32" s="63"/>
+      <c r="C32" s="64"/>
       <c r="D32" s="42"/>
       <c r="E32" s="8" t="s">
         <v>785</v>
@@ -8389,7 +8404,7 @@
       <c r="B33" s="8" t="s">
         <v>550</v>
       </c>
-      <c r="C33" s="64" t="s">
+      <c r="C33" s="65" t="s">
         <v>786</v>
       </c>
       <c r="D33" s="44" t="s">
@@ -8408,7 +8423,7 @@
       <c r="B34" s="8" t="s">
         <v>551</v>
       </c>
-      <c r="C34" s="62"/>
+      <c r="C34" s="63"/>
       <c r="D34" s="44" t="s">
         <v>787</v>
       </c>
@@ -8425,7 +8440,7 @@
       <c r="B35" s="8" t="s">
         <v>552</v>
       </c>
-      <c r="C35" s="62"/>
+      <c r="C35" s="63"/>
       <c r="D35" s="44" t="s">
         <v>787</v>
       </c>
@@ -8440,7 +8455,7 @@
       <c r="B36" s="8" t="s">
         <v>553</v>
       </c>
-      <c r="C36" s="62"/>
+      <c r="C36" s="63"/>
       <c r="D36" s="44" t="s">
         <v>787</v>
       </c>
@@ -8455,7 +8470,7 @@
       <c r="B37" s="8" t="s">
         <v>554</v>
       </c>
-      <c r="C37" s="63"/>
+      <c r="C37" s="64"/>
       <c r="D37" s="44" t="s">
         <v>787</v>
       </c>
@@ -11348,10 +11363,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D75"/>
+  <dimension ref="A1:E75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54:XFD54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11362,9 +11377,9 @@
     <col min="5" max="5" width="41.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B1" t="s">
         <v>357</v>
@@ -11373,7 +11388,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -11384,11 +11399,11 @@
         <v>555</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="67">
+      <c r="B3" s="60">
         <v>44618</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -11398,21 +11413,21 @@
         <v>988</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="60">
         <v>44619</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="D4" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4" s="3" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -11423,10 +11438,13 @@
         <v>551</v>
       </c>
       <c r="D5" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1003</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -11437,10 +11455,13 @@
         <v>552</v>
       </c>
       <c r="D6" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1003</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -11451,10 +11472,13 @@
         <v>553</v>
       </c>
       <c r="D7" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1003</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -11465,10 +11489,13 @@
         <v>554</v>
       </c>
       <c r="D8" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1003</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -11479,10 +11506,13 @@
         <v>555</v>
       </c>
       <c r="D9" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1003</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -11493,10 +11523,13 @@
         <v>549</v>
       </c>
       <c r="D10" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1003</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -11507,10 +11540,13 @@
         <v>550</v>
       </c>
       <c r="D11" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1003</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -11521,10 +11557,13 @@
         <v>551</v>
       </c>
       <c r="D12" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1005</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -11535,10 +11574,13 @@
         <v>552</v>
       </c>
       <c r="D13" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>990</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -11549,10 +11591,13 @@
         <v>553</v>
       </c>
       <c r="D14" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>990</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -11563,10 +11608,13 @@
         <v>554</v>
       </c>
       <c r="D15" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>990</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -11579,8 +11627,11 @@
       <c r="D16" t="s">
         <v>946</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -11593,8 +11644,11 @@
       <c r="D17" t="s">
         <v>946</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -11607,8 +11661,11 @@
       <c r="D18" t="s">
         <v>946</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -11621,8 +11678,11 @@
       <c r="D19" t="s">
         <v>946</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -11633,10 +11693,13 @@
         <v>552</v>
       </c>
       <c r="D20" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>991</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -11647,10 +11710,13 @@
         <v>553</v>
       </c>
       <c r="D21" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>992</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -11661,10 +11727,13 @@
         <v>554</v>
       </c>
       <c r="D22" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>992</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -11675,10 +11744,13 @@
         <v>555</v>
       </c>
       <c r="D23" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>993</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -11689,10 +11761,13 @@
         <v>549</v>
       </c>
       <c r="D24" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>993</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -11703,10 +11778,13 @@
         <v>550</v>
       </c>
       <c r="D25" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>993</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -11717,10 +11795,13 @@
         <v>551</v>
       </c>
       <c r="D26" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>994</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -11731,10 +11812,13 @@
         <v>552</v>
       </c>
       <c r="D27" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>994</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -11745,10 +11829,13 @@
         <v>553</v>
       </c>
       <c r="D28" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>994</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -11759,10 +11846,13 @@
         <v>554</v>
       </c>
       <c r="D29" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>994</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -11773,10 +11863,13 @@
         <v>555</v>
       </c>
       <c r="D30" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>994</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -11787,10 +11880,13 @@
         <v>549</v>
       </c>
       <c r="D31" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>995</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -11803,8 +11899,11 @@
       <c r="D32" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -11817,8 +11916,11 @@
       <c r="D33" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -11831,8 +11933,11 @@
       <c r="D34" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -11843,10 +11948,13 @@
         <v>553</v>
       </c>
       <c r="D35" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>996</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -11857,10 +11965,13 @@
         <v>554</v>
       </c>
       <c r="D36" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>996</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -11873,8 +11984,11 @@
       <c r="D37" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -11887,8 +12001,11 @@
       <c r="D38" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -11901,8 +12018,11 @@
       <c r="D39" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -11915,8 +12035,11 @@
       <c r="D40" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -11929,8 +12052,11 @@
       <c r="D41" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -11943,8 +12069,11 @@
       <c r="D42" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -11957,8 +12086,11 @@
       <c r="D43" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -11969,10 +12101,13 @@
         <v>555</v>
       </c>
       <c r="D44" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>997</v>
+      </c>
+      <c r="E44" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -11983,10 +12118,13 @@
         <v>549</v>
       </c>
       <c r="D45" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>997</v>
+      </c>
+      <c r="E45" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -11999,8 +12137,11 @@
       <c r="D46" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -12013,8 +12154,11 @@
       <c r="D47" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -12027,8 +12171,11 @@
       <c r="D48" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -12041,8 +12188,11 @@
       <c r="D49" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -12055,8 +12205,11 @@
       <c r="D50" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -12069,8 +12222,11 @@
       <c r="D51" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -12083,8 +12239,11 @@
       <c r="D52" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -12097,8 +12256,11 @@
       <c r="D53" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -12112,7 +12274,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -12126,7 +12288,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -12140,7 +12302,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -12154,7 +12316,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -12165,10 +12327,10 @@
         <v>555</v>
       </c>
       <c r="D58" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -12179,10 +12341,10 @@
         <v>549</v>
       </c>
       <c r="D59" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -12193,10 +12355,10 @@
         <v>550</v>
       </c>
       <c r="D60" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -12207,10 +12369,10 @@
         <v>551</v>
       </c>
       <c r="D61" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -12221,10 +12383,10 @@
         <v>552</v>
       </c>
       <c r="D62" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -12235,10 +12397,10 @@
         <v>553</v>
       </c>
       <c r="D63" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -12249,7 +12411,7 @@
         <v>554</v>
       </c>
       <c r="D64" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -12263,7 +12425,7 @@
         <v>555</v>
       </c>
       <c r="D65" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -12277,7 +12439,7 @@
         <v>549</v>
       </c>
       <c r="D66" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -12291,7 +12453,7 @@
         <v>550</v>
       </c>
       <c r="D67" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -12305,7 +12467,7 @@
         <v>551</v>
       </c>
       <c r="D68" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -12319,7 +12481,7 @@
         <v>552</v>
       </c>
       <c r="D69" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -12333,7 +12495,7 @@
         <v>553</v>
       </c>
       <c r="D70" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -12347,7 +12509,7 @@
         <v>554</v>
       </c>
       <c r="D71" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -12361,7 +12523,7 @@
         <v>555</v>
       </c>
       <c r="D72" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -12375,7 +12537,7 @@
         <v>549</v>
       </c>
       <c r="D73" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -12389,7 +12551,7 @@
         <v>550</v>
       </c>
       <c r="D74" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -12435,19 +12597,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="66" t="s">
         <v>668</v>
       </c>
-      <c r="B1" s="65"/>
+      <c r="B1" s="66"/>
       <c r="C1" s="15" t="s">
         <v>688</v>
       </c>
       <c r="D1" s="8"/>
-      <c r="E1" s="66" t="s">
+      <c r="E1" s="67" t="s">
         <v>692</v>
       </c>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
       <c r="H1" s="26" t="s">
         <v>357</v>
       </c>
